--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEECFFB3-E7B0-4015-BA13-BD7631645EFC}"/>
+  <xr:revisionPtr revIDLastSave="527" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F785C2D-53E8-469E-930E-A9DEC96D1264}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Arbeit</t>
   </si>
@@ -93,12 +92,6 @@
   </si>
   <si>
     <t>Do</t>
-  </si>
-  <si>
-    <t>Dokumentation/Arbeitsjournal</t>
-  </si>
-  <si>
-    <t>Backend Validierung</t>
   </si>
   <si>
     <t>Debugging und Refactoring</t>
@@ -167,9 +160,6 @@
     <t>Implementierung Datei-Upload im Frontend</t>
   </si>
   <si>
-    <t>Prozessoptimierung und Ladeanimationen</t>
-  </si>
-  <si>
     <t>Schreiben von Unit Tests</t>
   </si>
   <si>
@@ -184,12 +174,33 @@
   <si>
     <t>Entwerfen eines Aktivitätsdiagramm für den Import Prozess</t>
   </si>
+  <si>
+    <t>Hinzufügen von Ladeanimationen und UX Verbesserungen</t>
+  </si>
+  <si>
+    <t>Backend Validierung (inkl. Duplikatsprüfung)</t>
+  </si>
+  <si>
+    <t>Art der Arbeit</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Entwicklung</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Dokumentationsblockzeiten inkl. Arbeitsjournal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +278,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +318,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA365D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="58">
     <border>
@@ -1029,7 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyBorder="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1105,7 +1142,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1163,7 +1199,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyBorder="1"/>
@@ -1177,6 +1212,14 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="53" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1189,6 +1232,120 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,170 +1355,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Empty" xfId="3" xr:uid="{E0E5FDF4-CE21-4EE3-AD57-B07A8CBBE450}"/>
@@ -1400,6 +1482,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFA365D1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1683,8 +1770,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:AU64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,149 +1788,149 @@
     <col min="21" max="21" width="4.28515625" customWidth="1"/>
     <col min="22" max="43" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="160" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="160" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="160" t="s">
+      <c r="C1" s="157"/>
+      <c r="D1" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="167" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="160" t="s">
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="160" t="s">
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="163" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="163" t="s">
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="170" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="163" t="s">
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="163" t="s">
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="157" t="s">
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="164" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="167"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="154">
+      <c r="A2" s="154"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="161">
         <v>45327</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="154">
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="161">
         <v>45328</v>
       </c>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="154">
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="161">
         <v>45329</v>
       </c>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="154">
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="161">
         <v>45330</v>
       </c>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="154">
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="161">
         <v>45331</v>
       </c>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="154">
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="161">
         <v>45334</v>
       </c>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="154">
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="161">
         <v>45335</v>
       </c>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="154">
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="161">
         <v>45336</v>
       </c>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="154">
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="161">
         <v>45337</v>
       </c>
-      <c r="AK2" s="155"/>
-      <c r="AL2" s="155"/>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="154">
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="163"/>
+      <c r="AN2" s="161">
         <v>45339</v>
       </c>
-      <c r="AO2" s="155"/>
-      <c r="AP2" s="155"/>
-      <c r="AQ2" s="156"/>
-      <c r="AR2" s="158"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="163"/>
+      <c r="AR2" s="165"/>
     </row>
     <row r="3" spans="1:47" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="168"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1970,18 +2057,20 @@
       <c r="AQ3" s="9">
         <v>17</v>
       </c>
-      <c r="AR3" s="159"/>
+      <c r="AR3" s="166"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="142">
+      <c r="A4" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="140">
         <v>23.5</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="136">
+        <v>5</v>
+      </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="83">
+      <c r="E4" s="82">
         <v>0.5</v>
       </c>
       <c r="F4" s="18"/>
@@ -2057,83 +2146,89 @@
       </c>
       <c r="AO4" s="18"/>
       <c r="AP4" s="16"/>
-      <c r="AQ4" s="102">
+      <c r="AQ4" s="101">
         <v>2</v>
       </c>
-      <c r="AR4" s="176"/>
+      <c r="AR4" s="146"/>
       <c r="AT4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="141"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="147"/>
+      <c r="A5" s="185"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="109">
+      <c r="E5" s="108">
         <v>0.5</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="190">
+      <c r="F5" s="106"/>
+      <c r="G5" s="127">
         <v>2</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="178">
+        <v>0.5</v>
+      </c>
       <c r="I5" s="20"/>
       <c r="J5" s="33"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="76"/>
+      <c r="K5" s="127">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="75"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
-      <c r="O5" s="77"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
-      <c r="S5" s="77"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="30"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="77"/>
+      <c r="W5" s="76"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="77"/>
+      <c r="AA5" s="76"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="23"/>
-      <c r="AE5" s="77"/>
+      <c r="AE5" s="76"/>
       <c r="AF5" s="30"/>
       <c r="AG5" s="21"/>
       <c r="AH5" s="21"/>
-      <c r="AI5" s="77"/>
+      <c r="AI5" s="76"/>
       <c r="AJ5" s="30"/>
       <c r="AK5" s="21"/>
       <c r="AL5" s="21"/>
-      <c r="AM5" s="77"/>
+      <c r="AM5" s="76"/>
       <c r="AN5" s="19"/>
       <c r="AO5" s="21"/>
       <c r="AP5" s="23"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="140"/>
+      <c r="AQ5" s="76"/>
+      <c r="AR5" s="130"/>
       <c r="AT5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="142">
+      <c r="A6" s="183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="140">
         <v>3</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="136">
+        <v>2.5</v>
+      </c>
       <c r="D6" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="97">
+      <c r="G6" s="96">
         <v>1</v>
       </c>
       <c r="H6" s="27"/>
@@ -2172,24 +2267,24 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="140"/>
+      <c r="AR6" s="130"/>
       <c r="AT6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="141"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="100">
+      <c r="A7" s="183"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="99">
         <v>2</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="127">
+      <c r="E7" s="64"/>
+      <c r="F7" s="125">
         <v>0.5</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="27"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -2226,25 +2321,28 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="140"/>
+      <c r="AR7" s="130"/>
+      <c r="AT7" s="181"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="142">
+      <c r="A8" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="140">
         <v>2</v>
       </c>
-      <c r="C8" s="147"/>
+      <c r="C8" s="136">
+        <v>1.5</v>
+      </c>
       <c r="D8" s="27"/>
-      <c r="E8" s="78">
+      <c r="E8" s="77">
         <v>1</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="77">
         <v>1</v>
       </c>
       <c r="G8" s="26"/>
-      <c r="H8" s="99"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="26"/>
@@ -2280,20 +2378,24 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="140"/>
+      <c r="AR8" s="130"/>
+      <c r="AT8" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU8" s="210"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="141"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="147"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="136"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="109">
+      <c r="E9" s="108">
         <v>1</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="125">
         <v>0.5</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="30"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -2330,29 +2432,35 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="140"/>
+      <c r="AR9" s="130"/>
+      <c r="AT9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU9" s="182"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="129">
+      <c r="B10" s="131">
         <v>2</v>
       </c>
-      <c r="C10" s="174"/>
+      <c r="C10" s="133">
+        <v>1</v>
+      </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="65"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="20"/>
       <c r="G10" s="26"/>
       <c r="H10" s="30"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="111">
+      <c r="J10" s="110">
         <v>1</v>
       </c>
-      <c r="K10" s="65"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="107"/>
+      <c r="N10" s="106"/>
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="20"/>
@@ -2363,14 +2471,14 @@
       <c r="V10" s="20"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27"/>
-      <c r="Y10" s="111">
+      <c r="Y10" s="110">
         <v>1</v>
       </c>
       <c r="Z10" s="20"/>
       <c r="AA10" s="26"/>
       <c r="AB10" s="27"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="108"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="107"/>
       <c r="AE10" s="26"/>
       <c r="AF10" s="27"/>
       <c r="AG10" s="20"/>
@@ -2382,21 +2490,27 @@
       <c r="AM10" s="26"/>
       <c r="AN10" s="27"/>
       <c r="AO10" s="20"/>
-      <c r="AP10" s="87"/>
+      <c r="AP10" s="86"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="140"/>
+      <c r="AR10" s="130"/>
+      <c r="AT10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU10" s="191"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="136"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="175"/>
+      <c r="A11" s="207"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="65"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="20"/>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="125">
+        <v>1</v>
+      </c>
       <c r="K11" s="26"/>
       <c r="L11" s="28"/>
       <c r="M11" s="20"/>
@@ -2416,7 +2530,7 @@
       <c r="AA11" s="26"/>
       <c r="AB11" s="27"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="76"/>
+      <c r="AD11" s="75"/>
       <c r="AE11" s="22"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="21"/>
@@ -2428,20 +2542,24 @@
       <c r="AM11" s="22"/>
       <c r="AN11" s="19"/>
       <c r="AO11" s="21"/>
-      <c r="AP11" s="76"/>
+      <c r="AP11" s="75"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="140"/>
+      <c r="AR11" s="130"/>
+      <c r="AT11" s="204" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU11" s="205"/>
     </row>
     <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="142">
+      <c r="A12" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="140">
         <v>2</v>
       </c>
-      <c r="C12" s="174"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="65"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="20"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
@@ -2482,14 +2600,14 @@
       </c>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="140"/>
+      <c r="AR12" s="130"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="136"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="175"/>
+      <c r="A13" s="184"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="65"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="20"/>
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
@@ -2528,18 +2646,18 @@
       <c r="AO13" s="20"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="140"/>
+      <c r="AR13" s="130"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="142">
+      <c r="B14" s="140">
         <v>1</v>
       </c>
-      <c r="C14" s="147"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="65"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="20"/>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
@@ -2575,19 +2693,19 @@
       <c r="AL14" s="20"/>
       <c r="AM14" s="26"/>
       <c r="AN14" s="30"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="98">
+      <c r="AO14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="97">
         <v>1</v>
       </c>
-      <c r="AR14" s="140"/>
+      <c r="AR14" s="130"/>
     </row>
     <row r="15" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="141"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="173"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="79"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="39"/>
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
@@ -2628,27 +2746,29 @@
       <c r="AO15" s="31"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="35"/>
-      <c r="AR15" s="139"/>
+      <c r="AR15" s="147"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="145">
+      <c r="A16" s="208" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="137">
         <v>0.5</v>
       </c>
-      <c r="C16" s="184"/>
+      <c r="C16" s="138">
+        <v>0.5</v>
+      </c>
       <c r="D16" s="41"/>
-      <c r="E16" s="128">
+      <c r="E16" s="126">
         <v>0.5</v>
       </c>
-      <c r="F16" s="108"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="103"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="46"/>
       <c r="N16" s="47"/>
       <c r="O16" s="44"/>
@@ -2680,23 +2800,23 @@
       <c r="AO16" s="43"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="138" t="s">
+      <c r="AR16" s="129" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="141"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="189"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="127">
+      <c r="E17" s="125">
         <v>0.5</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
       <c r="K17" s="26"/>
       <c r="L17" s="28"/>
       <c r="M17" s="20"/>
@@ -2730,72 +2850,74 @@
       <c r="AO17" s="20"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="140"/>
+      <c r="AR17" s="130"/>
     </row>
     <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="142">
+      <c r="A18" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="140">
         <v>1</v>
       </c>
-      <c r="C18" s="180"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="150">
+        <v>1</v>
+      </c>
+      <c r="D18" s="59"/>
       <c r="E18" s="47"/>
-      <c r="F18" s="102">
+      <c r="F18" s="101">
         <v>1</v>
       </c>
       <c r="G18" s="49"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="75"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="74"/>
       <c r="M18" s="46"/>
       <c r="N18" s="47"/>
       <c r="O18" s="49"/>
-      <c r="P18" s="60"/>
+      <c r="P18" s="59"/>
       <c r="Q18" s="46"/>
       <c r="R18" s="46"/>
       <c r="S18" s="49"/>
-      <c r="T18" s="60"/>
+      <c r="T18" s="59"/>
       <c r="U18" s="46"/>
       <c r="V18" s="46"/>
       <c r="W18" s="49"/>
-      <c r="X18" s="60"/>
+      <c r="X18" s="59"/>
       <c r="Y18" s="46"/>
       <c r="Z18" s="46"/>
       <c r="AA18" s="49"/>
-      <c r="AB18" s="60"/>
+      <c r="AB18" s="59"/>
       <c r="AC18" s="46"/>
-      <c r="AD18" s="61"/>
+      <c r="AD18" s="60"/>
       <c r="AE18" s="49"/>
-      <c r="AF18" s="60"/>
+      <c r="AF18" s="59"/>
       <c r="AG18" s="46"/>
       <c r="AH18" s="46"/>
       <c r="AI18" s="49"/>
-      <c r="AJ18" s="60"/>
+      <c r="AJ18" s="59"/>
       <c r="AK18" s="46"/>
       <c r="AL18" s="46"/>
       <c r="AM18" s="49"/>
-      <c r="AN18" s="60"/>
+      <c r="AN18" s="59"/>
       <c r="AO18" s="46"/>
-      <c r="AP18" s="61"/>
+      <c r="AP18" s="60"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="140"/>
+      <c r="AR18" s="130"/>
     </row>
     <row r="19" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="141"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="147"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="127">
+      <c r="E19" s="79"/>
+      <c r="F19" s="125">
         <v>1</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="76"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="33"/>
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
@@ -2830,24 +2952,26 @@
       <c r="AO19" s="20"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="140"/>
+      <c r="AR19" s="130"/>
     </row>
     <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="142">
+      <c r="A20" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="140">
         <v>2</v>
       </c>
-      <c r="C20" s="147"/>
+      <c r="C20" s="136">
+        <v>1.5</v>
+      </c>
       <c r="D20" s="27"/>
-      <c r="E20" s="65"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="20"/>
       <c r="G20" s="26"/>
-      <c r="H20" s="110">
+      <c r="H20" s="109">
         <v>1.5</v>
       </c>
-      <c r="I20" s="111">
+      <c r="I20" s="110">
         <v>0.5</v>
       </c>
       <c r="J20" s="20"/>
@@ -2884,18 +3008,20 @@
       <c r="AO20" s="20"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="140"/>
+      <c r="AR20" s="130"/>
     </row>
     <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="144"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="147"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="65"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="20"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="76"/>
+      <c r="H21" s="179">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="75"/>
       <c r="J21" s="20"/>
       <c r="K21" s="50"/>
       <c r="L21" s="51"/>
@@ -2930,28 +3056,30 @@
       <c r="AO21" s="20"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="140"/>
+      <c r="AR21" s="130"/>
     </row>
     <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="142">
+      <c r="A22" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="140">
         <v>2</v>
       </c>
-      <c r="C22" s="147"/>
+      <c r="C22" s="136">
+        <v>3</v>
+      </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="65"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="20"/>
       <c r="G22" s="26"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="110">
+      <c r="I22" s="109">
         <v>1.5</v>
       </c>
-      <c r="J22" s="111">
+      <c r="J22" s="110">
         <v>0.5</v>
       </c>
-      <c r="K22" s="112"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="52"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
@@ -2984,19 +3112,23 @@
       <c r="AO22" s="20"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="140"/>
+      <c r="AR22" s="130"/>
     </row>
     <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="144"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="147"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="65"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="20"/>
       <c r="G23" s="26"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="33"/>
+      <c r="I23" s="179">
+        <v>2</v>
+      </c>
+      <c r="J23" s="125">
+        <v>1</v>
+      </c>
       <c r="K23" s="50"/>
       <c r="L23" s="51"/>
       <c r="M23" s="20"/>
@@ -3030,29 +3162,31 @@
       <c r="AO23" s="20"/>
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="140"/>
+      <c r="AR23" s="130"/>
     </row>
     <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="151" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="129">
+      <c r="A24" s="186" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="131">
         <v>2</v>
       </c>
-      <c r="C24" s="131"/>
+      <c r="C24" s="133">
+        <v>1</v>
+      </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="65"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="20"/>
       <c r="G24" s="26"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="111">
+      <c r="I24" s="75"/>
+      <c r="J24" s="110">
         <v>0.5</v>
       </c>
-      <c r="K24" s="113">
+      <c r="K24" s="112">
         <v>0.5</v>
       </c>
-      <c r="L24" s="191">
+      <c r="L24" s="128">
         <v>1</v>
       </c>
       <c r="M24" s="20"/>
@@ -3086,24 +3220,26 @@
       <c r="AO24" s="20"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="140"/>
+      <c r="AR24" s="130"/>
     </row>
     <row r="25" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="153"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="132"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="36"/>
       <c r="E25" s="54"/>
       <c r="F25" s="39"/>
       <c r="G25" s="40"/>
       <c r="H25" s="48"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="116"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="180">
+        <v>1</v>
+      </c>
+      <c r="L25" s="114"/>
       <c r="M25" s="39"/>
       <c r="N25" s="39"/>
-      <c r="O25" s="69"/>
+      <c r="O25" s="68"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
@@ -3132,80 +3268,80 @@
       <c r="AO25" s="39"/>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="40"/>
-      <c r="AR25" s="140"/>
+      <c r="AR25" s="130"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="177" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="178">
+      <c r="A26" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="148">
         <v>2</v>
       </c>
-      <c r="C26" s="179"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="47"/>
       <c r="F26" s="46"/>
       <c r="G26" s="49"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="46"/>
       <c r="K26" s="53"/>
-      <c r="L26" s="117">
+      <c r="L26" s="115">
         <v>0.5</v>
       </c>
-      <c r="M26" s="98">
+      <c r="M26" s="97">
         <v>1.5</v>
       </c>
-      <c r="N26" s="101"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
       <c r="S26" s="49"/>
-      <c r="T26" s="60"/>
+      <c r="T26" s="59"/>
       <c r="U26" s="46"/>
       <c r="V26" s="46"/>
       <c r="W26" s="49"/>
-      <c r="X26" s="60"/>
+      <c r="X26" s="59"/>
       <c r="Y26" s="46"/>
       <c r="Z26" s="46"/>
       <c r="AA26" s="49"/>
-      <c r="AB26" s="60"/>
+      <c r="AB26" s="59"/>
       <c r="AC26" s="46"/>
-      <c r="AD26" s="61"/>
+      <c r="AD26" s="60"/>
       <c r="AE26" s="49"/>
-      <c r="AF26" s="60"/>
+      <c r="AF26" s="59"/>
       <c r="AG26" s="46"/>
       <c r="AH26" s="46"/>
       <c r="AI26" s="49"/>
-      <c r="AJ26" s="60"/>
+      <c r="AJ26" s="59"/>
       <c r="AK26" s="46"/>
       <c r="AL26" s="46"/>
       <c r="AM26" s="49"/>
-      <c r="AN26" s="60"/>
+      <c r="AN26" s="59"/>
       <c r="AO26" s="46"/>
-      <c r="AP26" s="61"/>
+      <c r="AP26" s="60"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="135" t="s">
-        <v>27</v>
+      <c r="AR26" s="175" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="137"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="132"/>
+      <c r="A27" s="189"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="65"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="20"/>
       <c r="G27" s="26"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="69"/>
       <c r="L27" s="19"/>
       <c r="M27" s="28"/>
       <c r="N27" s="33"/>
-      <c r="O27" s="84"/>
+      <c r="O27" s="83"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
@@ -3231,40 +3367,40 @@
       <c r="AL27" s="20"/>
       <c r="AM27" s="26"/>
       <c r="AN27" s="27"/>
-      <c r="AO27" s="65"/>
+      <c r="AO27" s="64"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="26"/>
-      <c r="AR27" s="133"/>
+      <c r="AR27" s="173"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="136" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="129">
+      <c r="A28" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="131">
         <v>2</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="47"/>
       <c r="F28" s="46"/>
       <c r="G28" s="49"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="61"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="46"/>
-      <c r="K28" s="70"/>
+      <c r="K28" s="69"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="119">
+      <c r="M28" s="117">
         <v>0.5</v>
       </c>
-      <c r="N28" s="102">
+      <c r="N28" s="101">
         <v>1</v>
       </c>
-      <c r="O28" s="67"/>
-      <c r="P28" s="74"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="73"/>
       <c r="Q28" s="46"/>
       <c r="R28" s="46"/>
       <c r="S28" s="49"/>
-      <c r="T28" s="60"/>
+      <c r="T28" s="59"/>
       <c r="U28" s="31"/>
       <c r="V28" s="31"/>
       <c r="W28" s="35"/>
@@ -3274,43 +3410,43 @@
       <c r="AA28" s="35"/>
       <c r="AB28" s="34"/>
       <c r="AC28" s="46"/>
-      <c r="AD28" s="61"/>
+      <c r="AD28" s="60"/>
       <c r="AE28" s="49"/>
-      <c r="AF28" s="60"/>
+      <c r="AF28" s="59"/>
       <c r="AG28" s="46"/>
       <c r="AH28" s="46"/>
       <c r="AI28" s="49"/>
-      <c r="AJ28" s="60"/>
+      <c r="AJ28" s="59"/>
       <c r="AK28" s="46"/>
       <c r="AL28" s="46"/>
       <c r="AM28" s="49"/>
-      <c r="AN28" s="60"/>
+      <c r="AN28" s="59"/>
       <c r="AO28" s="20"/>
-      <c r="AP28" s="61"/>
+      <c r="AP28" s="60"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="133"/>
+      <c r="AR28" s="173"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="137"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="60"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46"/>
       <c r="G29" s="49"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="61"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="46"/>
-      <c r="K29" s="70"/>
+      <c r="K29" s="69"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="74"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="73"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
       <c r="S29" s="49"/>
-      <c r="T29" s="60"/>
+      <c r="T29" s="59"/>
       <c r="U29" s="31"/>
       <c r="V29" s="31"/>
       <c r="W29" s="35"/>
@@ -3320,51 +3456,51 @@
       <c r="AA29" s="35"/>
       <c r="AB29" s="34"/>
       <c r="AC29" s="46"/>
-      <c r="AD29" s="61"/>
+      <c r="AD29" s="60"/>
       <c r="AE29" s="49"/>
-      <c r="AF29" s="60"/>
+      <c r="AF29" s="59"/>
       <c r="AG29" s="46"/>
       <c r="AH29" s="46"/>
       <c r="AI29" s="49"/>
-      <c r="AJ29" s="60"/>
+      <c r="AJ29" s="59"/>
       <c r="AK29" s="46"/>
       <c r="AL29" s="46"/>
       <c r="AM29" s="49"/>
-      <c r="AN29" s="60"/>
+      <c r="AN29" s="59"/>
       <c r="AO29" s="20"/>
-      <c r="AP29" s="61"/>
+      <c r="AP29" s="60"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="133"/>
+      <c r="AR29" s="173"/>
     </row>
     <row r="30" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="129">
+      <c r="A30" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="131">
         <v>2.5</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="47"/>
       <c r="F30" s="46"/>
       <c r="G30" s="49"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="61"/>
+      <c r="I30" s="60"/>
       <c r="J30" s="46"/>
-      <c r="K30" s="70"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="102">
+      <c r="M30" s="60"/>
+      <c r="N30" s="101">
         <v>1</v>
       </c>
-      <c r="O30" s="67"/>
-      <c r="P30" s="117">
+      <c r="O30" s="66"/>
+      <c r="P30" s="115">
         <v>1.5</v>
       </c>
       <c r="Q30" s="46"/>
       <c r="R30" s="46"/>
       <c r="S30" s="49"/>
-      <c r="T30" s="60"/>
+      <c r="T30" s="59"/>
       <c r="U30" s="31"/>
       <c r="V30" s="31"/>
       <c r="W30" s="35"/>
@@ -3374,43 +3510,43 @@
       <c r="AA30" s="35"/>
       <c r="AB30" s="34"/>
       <c r="AC30" s="46"/>
-      <c r="AD30" s="61"/>
+      <c r="AD30" s="60"/>
       <c r="AE30" s="49"/>
-      <c r="AF30" s="60"/>
+      <c r="AF30" s="59"/>
       <c r="AG30" s="46"/>
       <c r="AH30" s="46"/>
       <c r="AI30" s="49"/>
-      <c r="AJ30" s="60"/>
+      <c r="AJ30" s="59"/>
       <c r="AK30" s="46"/>
       <c r="AL30" s="46"/>
       <c r="AM30" s="49"/>
-      <c r="AN30" s="60"/>
+      <c r="AN30" s="59"/>
       <c r="AO30" s="20"/>
-      <c r="AP30" s="61"/>
+      <c r="AP30" s="60"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="133"/>
+      <c r="AR30" s="173"/>
     </row>
     <row r="31" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="60"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="46"/>
       <c r="G31" s="49"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="61"/>
+      <c r="I31" s="60"/>
       <c r="J31" s="46"/>
-      <c r="K31" s="70"/>
+      <c r="K31" s="69"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="74"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="73"/>
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="49"/>
-      <c r="T31" s="60"/>
+      <c r="T31" s="59"/>
       <c r="U31" s="31"/>
       <c r="V31" s="31"/>
       <c r="W31" s="35"/>
@@ -3420,49 +3556,49 @@
       <c r="AA31" s="35"/>
       <c r="AB31" s="34"/>
       <c r="AC31" s="46"/>
-      <c r="AD31" s="61"/>
+      <c r="AD31" s="60"/>
       <c r="AE31" s="49"/>
-      <c r="AF31" s="60"/>
+      <c r="AF31" s="59"/>
       <c r="AG31" s="46"/>
       <c r="AH31" s="46"/>
       <c r="AI31" s="49"/>
-      <c r="AJ31" s="60"/>
+      <c r="AJ31" s="59"/>
       <c r="AK31" s="46"/>
       <c r="AL31" s="46"/>
       <c r="AM31" s="49"/>
-      <c r="AN31" s="60"/>
+      <c r="AN31" s="59"/>
       <c r="AO31" s="20"/>
-      <c r="AP31" s="61"/>
+      <c r="AP31" s="60"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="133"/>
+      <c r="AR31" s="173"/>
     </row>
     <row r="32" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="129">
+      <c r="A32" s="184" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="131">
         <v>2</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="47"/>
       <c r="F32" s="46"/>
       <c r="G32" s="49"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="61"/>
+      <c r="I32" s="60"/>
       <c r="J32" s="46"/>
-      <c r="K32" s="70"/>
+      <c r="K32" s="69"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="102">
+      <c r="M32" s="60"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="101">
         <v>2</v>
       </c>
       <c r="R32" s="46"/>
       <c r="S32" s="49"/>
-      <c r="T32" s="60"/>
+      <c r="T32" s="59"/>
       <c r="U32" s="31"/>
       <c r="V32" s="31"/>
       <c r="W32" s="35"/>
@@ -3472,43 +3608,43 @@
       <c r="AA32" s="35"/>
       <c r="AB32" s="34"/>
       <c r="AC32" s="46"/>
-      <c r="AD32" s="61"/>
+      <c r="AD32" s="60"/>
       <c r="AE32" s="49"/>
-      <c r="AF32" s="60"/>
+      <c r="AF32" s="59"/>
       <c r="AG32" s="46"/>
       <c r="AH32" s="46"/>
       <c r="AI32" s="49"/>
-      <c r="AJ32" s="60"/>
+      <c r="AJ32" s="59"/>
       <c r="AK32" s="46"/>
       <c r="AL32" s="46"/>
       <c r="AM32" s="49"/>
-      <c r="AN32" s="60"/>
+      <c r="AN32" s="59"/>
       <c r="AO32" s="20"/>
-      <c r="AP32" s="61"/>
+      <c r="AP32" s="60"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="133"/>
+      <c r="AR32" s="173"/>
     </row>
     <row r="33" spans="1:45" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="148"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="36"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="82"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="81"/>
       <c r="U33" s="39"/>
       <c r="V33" s="39"/>
       <c r="W33" s="40"/>
@@ -3517,32 +3653,32 @@
       <c r="Z33" s="39"/>
       <c r="AA33" s="40"/>
       <c r="AB33" s="36"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="82"/>
-      <c r="AG33" s="89"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="90"/>
-      <c r="AJ33" s="82"/>
-      <c r="AK33" s="89"/>
-      <c r="AL33" s="89"/>
-      <c r="AM33" s="90"/>
-      <c r="AN33" s="82"/>
-      <c r="AO33" s="89"/>
-      <c r="AP33" s="91"/>
-      <c r="AQ33" s="90"/>
-      <c r="AR33" s="134"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="89"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="88"/>
+      <c r="AI33" s="89"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="88"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="89"/>
+      <c r="AR33" s="174"/>
     </row>
     <row r="34" spans="1:45" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="137" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="130">
+      <c r="A34" s="189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="132">
         <v>0.5</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="D34" s="60"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="47"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
@@ -3550,49 +3686,49 @@
       <c r="I34" s="46"/>
       <c r="J34" s="46"/>
       <c r="K34" s="49"/>
-      <c r="L34" s="71"/>
+      <c r="L34" s="70"/>
       <c r="M34" s="46"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="120">
+      <c r="N34" s="71"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="118">
         <v>0.5</v>
       </c>
       <c r="S34" s="49"/>
-      <c r="T34" s="60"/>
+      <c r="T34" s="59"/>
       <c r="U34" s="46"/>
       <c r="V34" s="46"/>
       <c r="W34" s="49"/>
-      <c r="X34" s="60"/>
+      <c r="X34" s="59"/>
       <c r="Y34" s="46"/>
       <c r="Z34" s="46"/>
       <c r="AA34" s="49"/>
-      <c r="AB34" s="60"/>
+      <c r="AB34" s="59"/>
       <c r="AC34" s="46"/>
-      <c r="AD34" s="61"/>
+      <c r="AD34" s="60"/>
       <c r="AE34" s="49"/>
-      <c r="AF34" s="60"/>
+      <c r="AF34" s="59"/>
       <c r="AG34" s="46"/>
       <c r="AH34" s="46"/>
       <c r="AI34" s="49"/>
-      <c r="AJ34" s="60"/>
+      <c r="AJ34" s="59"/>
       <c r="AK34" s="46"/>
       <c r="AL34" s="46"/>
       <c r="AM34" s="49"/>
-      <c r="AN34" s="60"/>
+      <c r="AN34" s="59"/>
       <c r="AO34" s="46"/>
-      <c r="AP34" s="61"/>
+      <c r="AP34" s="60"/>
       <c r="AQ34" s="49"/>
-      <c r="AR34" s="133" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS34" s="66"/>
+      <c r="AR34" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS34" s="65"/>
     </row>
     <row r="35" spans="1:45" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="182"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="185"/>
+      <c r="A35" s="203"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="143"/>
       <c r="D35" s="36"/>
       <c r="E35" s="54"/>
       <c r="F35" s="39"/>
@@ -3606,7 +3742,7 @@
       <c r="N35" s="39"/>
       <c r="O35" s="40"/>
       <c r="P35" s="36"/>
-      <c r="Q35" s="85"/>
+      <c r="Q35" s="84"/>
       <c r="R35" s="39"/>
       <c r="S35" s="40"/>
       <c r="T35" s="36"/>
@@ -3633,19 +3769,19 @@
       <c r="AO35" s="39"/>
       <c r="AP35" s="48"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="134"/>
-      <c r="AS35" s="66"/>
+      <c r="AR35" s="174"/>
+      <c r="AS35" s="65"/>
     </row>
     <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="145">
+      <c r="A36" s="192" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="137">
         <v>2</v>
       </c>
-      <c r="C36" s="146"/>
+      <c r="C36" s="144"/>
       <c r="D36" s="41"/>
-      <c r="E36" s="81"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="43"/>
       <c r="G36" s="44"/>
       <c r="H36" s="41"/>
@@ -3661,7 +3797,7 @@
       <c r="R36" s="17">
         <v>1.5</v>
       </c>
-      <c r="S36" s="121">
+      <c r="S36" s="119">
         <v>0.5</v>
       </c>
       <c r="T36" s="41"/>
@@ -3688,17 +3824,17 @@
       <c r="AO36" s="43"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="138" t="s">
+      <c r="AR36" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="AS36" s="66"/>
+      <c r="AS36" s="65"/>
     </row>
     <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="144"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="147"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="65"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="20"/>
       <c r="G37" s="26"/>
       <c r="H37" s="27"/>
@@ -3712,7 +3848,7 @@
       <c r="P37" s="27"/>
       <c r="Q37" s="33"/>
       <c r="R37" s="33"/>
-      <c r="S37" s="77"/>
+      <c r="S37" s="76"/>
       <c r="T37" s="27"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
@@ -3737,18 +3873,18 @@
       <c r="AO37" s="20"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="26"/>
-      <c r="AR37" s="140"/>
+      <c r="AR37" s="130"/>
     </row>
     <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="142">
+      <c r="A38" s="194" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="140">
         <v>3.5</v>
       </c>
-      <c r="C38" s="147"/>
+      <c r="C38" s="136"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="65"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="20"/>
       <c r="G38" s="26"/>
       <c r="H38" s="27"/>
@@ -3769,7 +3905,7 @@
       <c r="U38" s="29">
         <v>2</v>
       </c>
-      <c r="V38" s="107"/>
+      <c r="V38" s="106"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27"/>
       <c r="Y38" s="20"/>
@@ -3791,14 +3927,14 @@
       <c r="AO38" s="20"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="140"/>
+      <c r="AR38" s="130"/>
     </row>
     <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="141"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="147"/>
+      <c r="A39" s="194"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="65"/>
+      <c r="E39" s="64"/>
       <c r="F39" s="20"/>
       <c r="G39" s="26"/>
       <c r="H39" s="27"/>
@@ -3837,18 +3973,18 @@
       <c r="AO39" s="20"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="140"/>
+      <c r="AR39" s="130"/>
     </row>
     <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="141" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="142">
+      <c r="A40" s="194" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="140">
         <v>2</v>
       </c>
-      <c r="C40" s="147"/>
+      <c r="C40" s="136"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="65"/>
+      <c r="E40" s="64"/>
       <c r="F40" s="20"/>
       <c r="G40" s="26"/>
       <c r="H40" s="27"/>
@@ -3865,13 +4001,13 @@
       <c r="S40" s="22"/>
       <c r="T40" s="30"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="111">
+      <c r="V40" s="110">
         <v>2</v>
       </c>
       <c r="W40" s="26"/>
-      <c r="X40" s="122"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="107"/>
+      <c r="X40" s="120"/>
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="106"/>
       <c r="AA40" s="26"/>
       <c r="AB40" s="27"/>
       <c r="AC40" s="20"/>
@@ -3889,14 +4025,14 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="140"/>
+      <c r="AR40" s="130"/>
     </row>
     <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="141"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="147"/>
+      <c r="A41" s="194"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="65"/>
+      <c r="E41" s="64"/>
       <c r="F41" s="20"/>
       <c r="G41" s="26"/>
       <c r="H41" s="27"/>
@@ -3914,14 +4050,14 @@
       <c r="T41" s="27"/>
       <c r="U41" s="20"/>
       <c r="V41" s="33"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="122"/>
-      <c r="Y41" s="107"/>
-      <c r="Z41" s="107"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="120"/>
+      <c r="Y41" s="106"/>
+      <c r="Z41" s="106"/>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="122"/>
-      <c r="AC41" s="107"/>
-      <c r="AD41" s="106"/>
+      <c r="AB41" s="120"/>
+      <c r="AC41" s="106"/>
+      <c r="AD41" s="105"/>
       <c r="AE41" s="26"/>
       <c r="AF41" s="27"/>
       <c r="AG41" s="20"/>
@@ -3935,18 +4071,18 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="140"/>
+      <c r="AR41" s="130"/>
     </row>
     <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="142">
+      <c r="A42" s="194" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="140">
         <v>2</v>
       </c>
-      <c r="C42" s="147"/>
+      <c r="C42" s="136"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="65"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="20"/>
       <c r="G42" s="26"/>
       <c r="H42" s="27"/>
@@ -3965,17 +4101,17 @@
       <c r="U42" s="21"/>
       <c r="V42" s="33"/>
       <c r="W42" s="26"/>
-      <c r="X42" s="98">
+      <c r="X42" s="97">
         <v>1.5</v>
       </c>
-      <c r="Y42" s="111">
+      <c r="Y42" s="110">
         <v>0.5</v>
       </c>
-      <c r="Z42" s="107"/>
+      <c r="Z42" s="106"/>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="122"/>
-      <c r="AC42" s="107"/>
-      <c r="AD42" s="106"/>
+      <c r="AB42" s="120"/>
+      <c r="AC42" s="106"/>
+      <c r="AD42" s="105"/>
       <c r="AE42" s="26"/>
       <c r="AF42" s="27"/>
       <c r="AG42" s="20"/>
@@ -3989,14 +4125,14 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="140"/>
+      <c r="AR42" s="130"/>
     </row>
     <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="141"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="147"/>
+      <c r="A43" s="194"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="65"/>
+      <c r="E43" s="64"/>
       <c r="F43" s="20"/>
       <c r="G43" s="26"/>
       <c r="H43" s="27"/>
@@ -4018,10 +4154,10 @@
       <c r="X43" s="27"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
-      <c r="AA43" s="77"/>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="106"/>
+      <c r="AA43" s="76"/>
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="105"/>
+      <c r="AD43" s="105"/>
       <c r="AE43" s="26"/>
       <c r="AF43" s="27"/>
       <c r="AG43" s="20"/>
@@ -4035,18 +4171,18 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="140"/>
+      <c r="AR43" s="130"/>
     </row>
     <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="142">
+      <c r="A44" s="194" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="140">
         <v>2</v>
       </c>
-      <c r="C44" s="147"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="65"/>
+      <c r="E44" s="64"/>
       <c r="F44" s="20"/>
       <c r="G44" s="26"/>
       <c r="H44" s="27"/>
@@ -4066,16 +4202,16 @@
       <c r="V44" s="21"/>
       <c r="W44" s="26"/>
       <c r="X44" s="30"/>
-      <c r="Y44" s="111">
+      <c r="Y44" s="110">
         <v>1</v>
       </c>
-      <c r="Z44" s="111">
+      <c r="Z44" s="110">
         <v>1</v>
       </c>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="122"/>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="106"/>
+      <c r="AB44" s="120"/>
+      <c r="AC44" s="106"/>
+      <c r="AD44" s="105"/>
       <c r="AE44" s="26"/>
       <c r="AF44" s="27"/>
       <c r="AG44" s="20"/>
@@ -4089,14 +4225,14 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="140"/>
+      <c r="AR44" s="130"/>
     </row>
     <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="136"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="147"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="136"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="65"/>
+      <c r="E45" s="64"/>
       <c r="F45" s="20"/>
       <c r="G45" s="26"/>
       <c r="H45" s="27"/>
@@ -4119,9 +4255,9 @@
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="122"/>
-      <c r="AC45" s="107"/>
-      <c r="AD45" s="106"/>
+      <c r="AB45" s="120"/>
+      <c r="AC45" s="106"/>
+      <c r="AD45" s="105"/>
       <c r="AE45" s="26"/>
       <c r="AF45" s="27"/>
       <c r="AG45" s="20"/>
@@ -4133,20 +4269,20 @@
       <c r="AM45" s="26"/>
       <c r="AN45" s="27"/>
       <c r="AO45" s="20"/>
-      <c r="AP45" s="76"/>
+      <c r="AP45" s="75"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="140"/>
+      <c r="AR45" s="130"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="151" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="152">
+      <c r="A46" s="196" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="141">
         <v>2.5</v>
       </c>
-      <c r="C46" s="147"/>
+      <c r="C46" s="136"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="65"/>
+      <c r="E46" s="64"/>
       <c r="F46" s="20"/>
       <c r="G46" s="26"/>
       <c r="H46" s="27"/>
@@ -4167,16 +4303,16 @@
       <c r="W46" s="22"/>
       <c r="X46" s="19"/>
       <c r="Y46" s="33"/>
-      <c r="Z46" s="111">
+      <c r="Z46" s="110">
         <v>1</v>
       </c>
-      <c r="AA46" s="112"/>
-      <c r="AB46" s="123">
+      <c r="AA46" s="111"/>
+      <c r="AB46" s="121">
         <v>1.5</v>
       </c>
-      <c r="AC46" s="107"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="112"/>
+      <c r="AC46" s="106"/>
+      <c r="AD46" s="107"/>
+      <c r="AE46" s="111"/>
       <c r="AF46" s="30"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
@@ -4188,14 +4324,14 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="20"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="140"/>
+      <c r="AR46" s="130"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="153"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="147"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="136"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="65"/>
+      <c r="E47" s="64"/>
       <c r="F47" s="20"/>
       <c r="G47" s="26"/>
       <c r="H47" s="27"/>
@@ -4218,34 +4354,34 @@
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="122"/>
-      <c r="AC47" s="107"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="112"/>
-      <c r="AF47" s="122"/>
-      <c r="AG47" s="107"/>
-      <c r="AH47" s="107"/>
-      <c r="AI47" s="112"/>
+      <c r="AB47" s="120"/>
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="111"/>
+      <c r="AF47" s="120"/>
+      <c r="AG47" s="106"/>
+      <c r="AH47" s="106"/>
+      <c r="AI47" s="111"/>
       <c r="AJ47" s="27"/>
       <c r="AK47" s="20"/>
       <c r="AL47" s="20"/>
       <c r="AM47" s="26"/>
       <c r="AN47" s="27"/>
       <c r="AO47" s="20"/>
-      <c r="AP47" s="76"/>
+      <c r="AP47" s="75"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="140"/>
+      <c r="AR47" s="130"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="151" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="152">
+      <c r="A48" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="141">
         <v>1</v>
       </c>
-      <c r="C48" s="147"/>
+      <c r="C48" s="136"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="65"/>
+      <c r="E48" s="64"/>
       <c r="F48" s="20"/>
       <c r="G48" s="26"/>
       <c r="H48" s="27"/>
@@ -4268,34 +4404,32 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="26"/>
-      <c r="AB48" s="122"/>
-      <c r="AC48" s="111">
+      <c r="AB48" s="120"/>
+      <c r="AC48" s="110">
         <v>1</v>
       </c>
-      <c r="AD48" s="106"/>
-      <c r="AE48" s="112"/>
-      <c r="AF48" s="122"/>
-      <c r="AG48" s="107"/>
-      <c r="AH48" s="107"/>
-      <c r="AI48" s="112"/>
+      <c r="AD48" s="105"/>
+      <c r="AE48" s="111"/>
+      <c r="AF48" s="120"/>
+      <c r="AG48" s="106"/>
+      <c r="AH48" s="106"/>
+      <c r="AI48" s="111"/>
       <c r="AJ48" s="27"/>
       <c r="AK48" s="20"/>
       <c r="AL48" s="20"/>
       <c r="AM48" s="26"/>
       <c r="AN48" s="27"/>
       <c r="AO48" s="20"/>
-      <c r="AP48" s="59">
-        <v>1.5</v>
-      </c>
+      <c r="AP48" s="105"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="140"/>
+      <c r="AR48" s="130"/>
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="153"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="147"/>
+      <c r="A49" s="197"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="65"/>
+      <c r="E49" s="64"/>
       <c r="F49" s="20"/>
       <c r="G49" s="26"/>
       <c r="H49" s="27"/>
@@ -4318,34 +4452,34 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="26"/>
-      <c r="AB49" s="122"/>
-      <c r="AC49" s="107"/>
-      <c r="AD49" s="106"/>
-      <c r="AE49" s="112"/>
-      <c r="AF49" s="122"/>
-      <c r="AG49" s="107"/>
-      <c r="AH49" s="107"/>
-      <c r="AI49" s="112"/>
+      <c r="AB49" s="120"/>
+      <c r="AC49" s="106"/>
+      <c r="AD49" s="105"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="120"/>
+      <c r="AG49" s="106"/>
+      <c r="AH49" s="106"/>
+      <c r="AI49" s="111"/>
       <c r="AJ49" s="27"/>
       <c r="AK49" s="20"/>
       <c r="AL49" s="20"/>
       <c r="AM49" s="26"/>
       <c r="AN49" s="27"/>
       <c r="AO49" s="20"/>
-      <c r="AP49" s="76"/>
+      <c r="AP49" s="75"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="140"/>
+      <c r="AR49" s="130"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="151" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="129">
+      <c r="A50" s="196" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="131">
         <v>1</v>
       </c>
-      <c r="C50" s="131"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="65"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="20"/>
       <c r="G50" s="26"/>
       <c r="H50" s="27"/>
@@ -4368,32 +4502,32 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
       <c r="AA50" s="26"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="111">
+      <c r="AB50" s="120"/>
+      <c r="AC50" s="110">
         <v>1</v>
       </c>
-      <c r="AD50" s="106"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="122"/>
-      <c r="AG50" s="107"/>
-      <c r="AH50" s="107"/>
-      <c r="AI50" s="112"/>
+      <c r="AD50" s="105"/>
+      <c r="AE50" s="111"/>
+      <c r="AF50" s="120"/>
+      <c r="AG50" s="106"/>
+      <c r="AH50" s="106"/>
+      <c r="AI50" s="111"/>
       <c r="AJ50" s="27"/>
       <c r="AK50" s="20"/>
       <c r="AL50" s="20"/>
       <c r="AM50" s="26"/>
       <c r="AN50" s="27"/>
       <c r="AO50" s="20"/>
-      <c r="AP50" s="76"/>
+      <c r="AP50" s="75"/>
       <c r="AQ50" s="26"/>
-      <c r="AR50" s="140"/>
+      <c r="AR50" s="130"/>
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="153"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="132"/>
+      <c r="A51" s="197"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="134"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="65"/>
+      <c r="E51" s="64"/>
       <c r="F51" s="20"/>
       <c r="G51" s="26"/>
       <c r="H51" s="27"/>
@@ -4416,34 +4550,34 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
       <c r="AA51" s="26"/>
-      <c r="AB51" s="122"/>
-      <c r="AC51" s="107"/>
-      <c r="AD51" s="106"/>
-      <c r="AE51" s="112"/>
-      <c r="AF51" s="122"/>
-      <c r="AG51" s="107"/>
-      <c r="AH51" s="107"/>
-      <c r="AI51" s="112"/>
+      <c r="AB51" s="120"/>
+      <c r="AC51" s="106"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="111"/>
+      <c r="AF51" s="120"/>
+      <c r="AG51" s="106"/>
+      <c r="AH51" s="106"/>
+      <c r="AI51" s="111"/>
       <c r="AJ51" s="27"/>
       <c r="AK51" s="20"/>
       <c r="AL51" s="20"/>
       <c r="AM51" s="26"/>
       <c r="AN51" s="27"/>
       <c r="AO51" s="20"/>
-      <c r="AP51" s="76"/>
+      <c r="AP51" s="75"/>
       <c r="AQ51" s="26"/>
-      <c r="AR51" s="140"/>
+      <c r="AR51" s="130"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="187" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="188">
+      <c r="A52" s="198" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="135">
         <v>3</v>
       </c>
-      <c r="C52" s="131"/>
+      <c r="C52" s="133"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="65"/>
+      <c r="E52" s="64"/>
       <c r="F52" s="20"/>
       <c r="G52" s="26"/>
       <c r="H52" s="27"/>
@@ -4466,34 +4600,34 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="26"/>
-      <c r="AB52" s="122"/>
-      <c r="AC52" s="107"/>
-      <c r="AD52" s="110">
+      <c r="AB52" s="120"/>
+      <c r="AC52" s="106"/>
+      <c r="AD52" s="109">
         <v>2</v>
       </c>
-      <c r="AE52" s="112"/>
-      <c r="AF52" s="123">
+      <c r="AE52" s="111"/>
+      <c r="AF52" s="121">
         <v>1</v>
       </c>
-      <c r="AG52" s="107"/>
-      <c r="AH52" s="107"/>
-      <c r="AI52" s="112"/>
+      <c r="AG52" s="106"/>
+      <c r="AH52" s="106"/>
+      <c r="AI52" s="111"/>
       <c r="AJ52" s="27"/>
       <c r="AK52" s="20"/>
       <c r="AL52" s="20"/>
       <c r="AM52" s="26"/>
       <c r="AN52" s="27"/>
       <c r="AO52" s="20"/>
-      <c r="AP52" s="76"/>
+      <c r="AP52" s="75"/>
       <c r="AQ52" s="26"/>
-      <c r="AR52" s="140"/>
+      <c r="AR52" s="130"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="153"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="132"/>
+      <c r="A53" s="197"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="134"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="65"/>
+      <c r="E53" s="64"/>
       <c r="F53" s="20"/>
       <c r="G53" s="26"/>
       <c r="H53" s="27"/>
@@ -4516,34 +4650,34 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="26"/>
-      <c r="AB53" s="122"/>
-      <c r="AC53" s="107"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="112"/>
-      <c r="AF53" s="122"/>
-      <c r="AG53" s="107"/>
-      <c r="AH53" s="107"/>
-      <c r="AI53" s="112"/>
+      <c r="AB53" s="120"/>
+      <c r="AC53" s="106"/>
+      <c r="AD53" s="105"/>
+      <c r="AE53" s="111"/>
+      <c r="AF53" s="120"/>
+      <c r="AG53" s="106"/>
+      <c r="AH53" s="106"/>
+      <c r="AI53" s="111"/>
       <c r="AJ53" s="27"/>
       <c r="AK53" s="20"/>
       <c r="AL53" s="20"/>
       <c r="AM53" s="26"/>
       <c r="AN53" s="27"/>
       <c r="AO53" s="20"/>
-      <c r="AP53" s="76"/>
+      <c r="AP53" s="75"/>
       <c r="AQ53" s="26"/>
-      <c r="AR53" s="140"/>
+      <c r="AR53" s="130"/>
     </row>
     <row r="54" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="152">
+      <c r="A54" s="196" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="141">
         <v>2</v>
       </c>
-      <c r="C54" s="147"/>
+      <c r="C54" s="136"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="65"/>
+      <c r="E54" s="64"/>
       <c r="F54" s="20"/>
       <c r="G54" s="26"/>
       <c r="H54" s="27"/>
@@ -4566,18 +4700,18 @@
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="26"/>
-      <c r="AB54" s="122"/>
-      <c r="AC54" s="107"/>
-      <c r="AD54" s="106"/>
-      <c r="AE54" s="112"/>
-      <c r="AF54" s="123">
+      <c r="AB54" s="120"/>
+      <c r="AC54" s="106"/>
+      <c r="AD54" s="105"/>
+      <c r="AE54" s="111"/>
+      <c r="AF54" s="121">
         <v>0.5</v>
       </c>
-      <c r="AG54" s="111">
+      <c r="AG54" s="110">
         <v>1.5</v>
       </c>
-      <c r="AH54" s="107"/>
-      <c r="AI54" s="112"/>
+      <c r="AH54" s="106"/>
+      <c r="AI54" s="111"/>
       <c r="AJ54" s="27"/>
       <c r="AK54" s="20"/>
       <c r="AL54" s="20"/>
@@ -4586,14 +4720,14 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="26"/>
-      <c r="AR54" s="140"/>
+      <c r="AR54" s="130"/>
     </row>
     <row r="55" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="137"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="147"/>
+      <c r="A55" s="199"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="136"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="65"/>
+      <c r="E55" s="64"/>
       <c r="F55" s="20"/>
       <c r="G55" s="26"/>
       <c r="H55" s="27"/>
@@ -4620,9 +4754,9 @@
       <c r="AC55" s="20"/>
       <c r="AD55" s="28"/>
       <c r="AE55" s="26"/>
-      <c r="AF55" s="122"/>
-      <c r="AG55" s="107"/>
-      <c r="AI55" s="112"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="106"/>
+      <c r="AI55" s="111"/>
       <c r="AJ55" s="27"/>
       <c r="AK55" s="20"/>
       <c r="AL55" s="20"/>
@@ -4631,18 +4765,18 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="26"/>
-      <c r="AR55" s="140"/>
+      <c r="AR55" s="130"/>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="152">
+      <c r="A56" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="141">
         <v>3</v>
       </c>
-      <c r="C56" s="147"/>
+      <c r="C56" s="136"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="65"/>
+      <c r="E56" s="64"/>
       <c r="F56" s="20"/>
       <c r="G56" s="26"/>
       <c r="H56" s="27"/>
@@ -4669,30 +4803,30 @@
       <c r="AC56" s="20"/>
       <c r="AD56" s="28"/>
       <c r="AE56" s="26"/>
-      <c r="AF56" s="122"/>
-      <c r="AG56" s="107"/>
-      <c r="AH56" s="111">
+      <c r="AF56" s="120"/>
+      <c r="AG56" s="106"/>
+      <c r="AH56" s="110">
         <v>2</v>
       </c>
-      <c r="AI56" s="112"/>
-      <c r="AJ56" s="124">
+      <c r="AI56" s="111"/>
+      <c r="AJ56" s="122">
         <v>1</v>
       </c>
-      <c r="AK56" s="107"/>
+      <c r="AK56" s="106"/>
       <c r="AL56" s="20"/>
       <c r="AM56" s="26"/>
       <c r="AN56" s="27"/>
       <c r="AO56" s="20"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="26"/>
-      <c r="AR56" s="140"/>
+      <c r="AR56" s="130"/>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="153"/>
-      <c r="B57" s="152"/>
-      <c r="C57" s="147"/>
+      <c r="A57" s="197"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="136"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="65"/>
+      <c r="E57" s="64"/>
       <c r="F57" s="20"/>
       <c r="G57" s="26"/>
       <c r="H57" s="27"/>
@@ -4719,10 +4853,10 @@
       <c r="AC57" s="20"/>
       <c r="AD57" s="23"/>
       <c r="AE57" s="22"/>
-      <c r="AF57" s="122"/>
-      <c r="AG57" s="107"/>
-      <c r="AH57" s="107"/>
-      <c r="AI57" s="112"/>
+      <c r="AF57" s="120"/>
+      <c r="AG57" s="106"/>
+      <c r="AH57" s="106"/>
+      <c r="AI57" s="111"/>
       <c r="AJ57" s="30"/>
       <c r="AK57" s="33"/>
       <c r="AL57" s="20"/>
@@ -4731,18 +4865,18 @@
       <c r="AO57" s="20"/>
       <c r="AP57" s="23"/>
       <c r="AQ57" s="22"/>
-      <c r="AR57" s="139"/>
+      <c r="AR57" s="147"/>
     </row>
     <row r="58" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="181" t="s">
+      <c r="A58" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="145">
+      <c r="B58" s="137">
         <v>0.5</v>
       </c>
-      <c r="C58" s="146"/>
+      <c r="C58" s="144"/>
       <c r="D58" s="41"/>
-      <c r="E58" s="81"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="43"/>
       <c r="G58" s="44"/>
       <c r="H58" s="41"/>
@@ -4773,26 +4907,26 @@
       <c r="AG58" s="43"/>
       <c r="AH58" s="43"/>
       <c r="AI58" s="44"/>
-      <c r="AJ58" s="125">
+      <c r="AJ58" s="123">
         <v>0.5</v>
       </c>
-      <c r="AK58" s="105"/>
-      <c r="AL58" s="105"/>
+      <c r="AK58" s="104"/>
+      <c r="AL58" s="104"/>
       <c r="AM58" s="44"/>
       <c r="AN58" s="41"/>
       <c r="AO58" s="43"/>
       <c r="AP58" s="45"/>
       <c r="AQ58" s="44"/>
-      <c r="AR58" s="138" t="s">
+      <c r="AR58" s="129" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="141"/>
-      <c r="B59" s="142"/>
-      <c r="C59" s="147"/>
+      <c r="A59" s="194"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="65"/>
+      <c r="E59" s="64"/>
       <c r="F59" s="20"/>
       <c r="G59" s="26"/>
       <c r="H59" s="27"/>
@@ -4831,18 +4965,18 @@
       <c r="AO59" s="20"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="26"/>
-      <c r="AR59" s="140"/>
+      <c r="AR59" s="130"/>
     </row>
     <row r="60" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="142">
+      <c r="A60" s="194" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="140">
         <v>3.5</v>
       </c>
-      <c r="C60" s="147"/>
+      <c r="C60" s="136"/>
       <c r="D60" s="27"/>
-      <c r="E60" s="65"/>
+      <c r="E60" s="64"/>
       <c r="F60" s="20"/>
       <c r="G60" s="26"/>
       <c r="H60" s="27"/>
@@ -4874,25 +5008,25 @@
       <c r="AH60" s="20"/>
       <c r="AI60" s="26"/>
       <c r="AJ60" s="27"/>
-      <c r="AK60" s="111">
+      <c r="AK60" s="110">
         <v>1.5</v>
       </c>
       <c r="AL60" s="29">
         <v>1.5</v>
       </c>
-      <c r="AM60" s="126">
+      <c r="AM60" s="124">
         <v>0.5</v>
       </c>
       <c r="AN60" s="27"/>
       <c r="AO60" s="20"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="26"/>
-      <c r="AR60" s="140"/>
+      <c r="AR60" s="130"/>
     </row>
     <row r="61" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="182"/>
-      <c r="B61" s="183"/>
-      <c r="C61" s="186"/>
+      <c r="A61" s="201"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="145"/>
       <c r="D61" s="36"/>
       <c r="E61" s="54"/>
       <c r="F61" s="39"/>
@@ -4927,72 +5061,72 @@
       <c r="AI61" s="40"/>
       <c r="AJ61" s="36"/>
       <c r="AK61" s="39"/>
-      <c r="AL61" s="85"/>
+      <c r="AL61" s="84"/>
       <c r="AM61" s="40"/>
       <c r="AN61" s="36"/>
       <c r="AO61" s="39"/>
       <c r="AP61" s="48"/>
       <c r="AQ61" s="40"/>
-      <c r="AR61" s="139"/>
+      <c r="AR61" s="147"/>
     </row>
     <row r="62" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="181" t="s">
+      <c r="A62" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="145">
+      <c r="B62" s="137">
         <v>2</v>
       </c>
-      <c r="C62" s="184"/>
-      <c r="D62" s="60"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="47"/>
       <c r="F62" s="46"/>
       <c r="G62" s="49"/>
-      <c r="H62" s="60"/>
+      <c r="H62" s="59"/>
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="49"/>
-      <c r="L62" s="61"/>
+      <c r="L62" s="60"/>
       <c r="M62" s="43"/>
-      <c r="N62" s="61"/>
+      <c r="N62" s="60"/>
       <c r="O62" s="49"/>
-      <c r="P62" s="60"/>
+      <c r="P62" s="59"/>
       <c r="Q62" s="46"/>
       <c r="R62" s="46"/>
       <c r="S62" s="49"/>
-      <c r="T62" s="60"/>
+      <c r="T62" s="59"/>
       <c r="U62" s="46"/>
       <c r="V62" s="46"/>
       <c r="W62" s="49"/>
-      <c r="X62" s="60"/>
+      <c r="X62" s="59"/>
       <c r="Y62" s="46"/>
       <c r="Z62" s="46"/>
       <c r="AA62" s="49"/>
-      <c r="AB62" s="60"/>
+      <c r="AB62" s="59"/>
       <c r="AC62" s="46"/>
-      <c r="AD62" s="61"/>
+      <c r="AD62" s="60"/>
       <c r="AE62" s="49"/>
-      <c r="AF62" s="60"/>
+      <c r="AF62" s="59"/>
       <c r="AG62" s="46"/>
       <c r="AH62" s="46"/>
       <c r="AI62" s="49"/>
-      <c r="AJ62" s="60"/>
+      <c r="AJ62" s="59"/>
       <c r="AK62" s="46"/>
       <c r="AL62" s="46"/>
       <c r="AM62" s="49"/>
-      <c r="AN62" s="68">
+      <c r="AN62" s="67">
         <v>2</v>
       </c>
-      <c r="AO62" s="99"/>
-      <c r="AP62" s="61"/>
+      <c r="AO62" s="98"/>
+      <c r="AP62" s="60"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="138" t="s">
+      <c r="AR62" s="129" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="182"/>
-      <c r="B63" s="183"/>
-      <c r="C63" s="185"/>
+      <c r="A63" s="203"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="143"/>
       <c r="D63" s="36"/>
       <c r="E63" s="54"/>
       <c r="F63" s="39"/>
@@ -5033,19 +5167,19 @@
       <c r="AO63" s="39"/>
       <c r="AP63" s="48"/>
       <c r="AQ63" s="40"/>
-      <c r="AR63" s="139"/>
+      <c r="AR63" s="147"/>
     </row>
     <row r="64" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="63">
+      <c r="B64" s="62">
         <f>SUM(B4:B63)</f>
         <v>80</v>
       </c>
-      <c r="C64" s="63">
+      <c r="C64" s="62">
         <f>SUM(C4:C63)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -5085,12 +5219,109 @@
       <c r="AM64" s="32"/>
       <c r="AN64" s="32"/>
       <c r="AO64" s="32"/>
-      <c r="AP64" s="64"/>
-      <c r="AQ64" s="64"/>
+      <c r="AP64" s="63"/>
+      <c r="AQ64" s="63"/>
     </row>
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="121">
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AR26:AR33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="AR62:AR63"/>
+    <mergeCell ref="AR58:AR61"/>
+    <mergeCell ref="AR36:AR57"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AR4:AR15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
     <mergeCell ref="AR16:AR25"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
@@ -5115,110 +5346,31 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AR4:AR15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AR26:AR33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="AR62:AR63"/>
-    <mergeCell ref="AR58:AR61"/>
-    <mergeCell ref="AR36:AR57"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="63" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="65" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005568FE7337F58E4A874BCAA8F781D766" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7c72f08c743f3e1d890da655f588b9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e5e9ffa-1d28-4d43-989d-34211c67c0f1" xmlns:ns4="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7c8491fffaeb43ce16da0fe91667a77" ns3:_="" ns4:_="">
     <xsd:import namespace="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
@@ -5441,24 +5593,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66DC004-E347-46EB-9C38-9AF8EC95E3A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5475,29 +5635,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
-    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="527" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F785C2D-53E8-469E-930E-A9DEC96D1264}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CD9C779-0A24-4BAC-9992-0D993CE069AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyBorder="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1199,7 +1199,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="1" applyBorder="1"/>
@@ -1214,236 +1213,240 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="53" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Empty" xfId="3" xr:uid="{E0E5FDF4-CE21-4EE3-AD57-B07A8CBBE450}"/>
@@ -1770,8 +1773,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:AU64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,145 +1795,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="167" t="s">
+      <c r="C1" s="181"/>
+      <c r="D1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="167" t="s">
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="167" t="s">
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="167" t="s">
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="167" t="s">
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="170" t="s">
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="170" t="s">
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="172"/>
-      <c r="AF1" s="170" t="s">
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="176"/>
+      <c r="AF1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="172"/>
-      <c r="AJ1" s="170" t="s">
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="172"/>
-      <c r="AN1" s="170" t="s">
+      <c r="AK1" s="175"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="172"/>
-      <c r="AR1" s="164" t="s">
+      <c r="AO1" s="175"/>
+      <c r="AP1" s="175"/>
+      <c r="AQ1" s="176"/>
+      <c r="AR1" s="168" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="154"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="161">
+      <c r="A2" s="178"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="164">
         <v>45327</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="161">
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="164">
         <v>45328</v>
       </c>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="161">
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="164">
         <v>45329</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="161">
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="164">
         <v>45330</v>
       </c>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="161">
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="164">
         <v>45331</v>
       </c>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="161">
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="164">
         <v>45334</v>
       </c>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="161">
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="164">
         <v>45335</v>
       </c>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="161">
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="164">
         <v>45336</v>
       </c>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="161">
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="164">
         <v>45337</v>
       </c>
-      <c r="AK2" s="162"/>
-      <c r="AL2" s="162"/>
-      <c r="AM2" s="163"/>
-      <c r="AN2" s="161">
+      <c r="AK2" s="165"/>
+      <c r="AL2" s="165"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="164">
         <v>45339</v>
       </c>
-      <c r="AO2" s="162"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="165"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="169"/>
     </row>
     <row r="3" spans="1:47" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="155"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2057,16 +2060,16 @@
       <c r="AQ3" s="9">
         <v>17</v>
       </c>
-      <c r="AR3" s="166"/>
+      <c r="AR3" s="170"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="150">
         <v>23.5</v>
       </c>
-      <c r="C4" s="136">
+      <c r="C4" s="155">
         <v>5</v>
       </c>
       <c r="D4" s="13"/>
@@ -2149,37 +2152,43 @@
       <c r="AQ4" s="101">
         <v>2</v>
       </c>
-      <c r="AR4" s="146"/>
+      <c r="AR4" s="190"/>
       <c r="AT4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="185"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="136"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="19"/>
       <c r="E5" s="108">
         <v>0.5</v>
       </c>
       <c r="F5" s="106"/>
-      <c r="G5" s="127">
+      <c r="G5" s="126">
         <v>2</v>
       </c>
-      <c r="H5" s="178">
+      <c r="H5" s="128">
         <v>0.5</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="33"/>
-      <c r="K5" s="127">
+      <c r="K5" s="126">
         <v>1.5</v>
       </c>
-      <c r="L5" s="75"/>
+      <c r="L5" s="129">
+        <v>0.5</v>
+      </c>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="30"/>
+      <c r="O5" s="126">
+        <v>2</v>
+      </c>
+      <c r="P5" s="128">
+        <v>1</v>
+      </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="76"/>
@@ -2207,20 +2216,20 @@
       <c r="AO5" s="21"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="76"/>
-      <c r="AR5" s="130"/>
+      <c r="AR5" s="148"/>
       <c r="AT5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="140">
+      <c r="B6" s="150">
         <v>3</v>
       </c>
-      <c r="C6" s="136">
+      <c r="C6" s="155">
         <v>2.5</v>
       </c>
       <c r="D6" s="25">
@@ -2238,7 +2247,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="26"/>
+      <c r="O6" s="111"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -2267,21 +2276,21 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="130"/>
+      <c r="AR6" s="148"/>
       <c r="AT6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="183"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="136"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="99">
         <v>2</v>
       </c>
       <c r="E7" s="64"/>
-      <c r="F7" s="125">
+      <c r="F7" s="124">
         <v>0.5</v>
       </c>
       <c r="G7" s="111"/>
@@ -2321,17 +2330,17 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="130"/>
-      <c r="AT7" s="181"/>
+      <c r="AR7" s="148"/>
+      <c r="AT7" s="131"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="140">
+      <c r="B8" s="150">
         <v>2</v>
       </c>
-      <c r="C8" s="136">
+      <c r="C8" s="155">
         <v>1.5</v>
       </c>
       <c r="D8" s="27"/>
@@ -2378,21 +2387,21 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="130"/>
-      <c r="AT8" s="209" t="s">
+      <c r="AR8" s="148"/>
+      <c r="AT8" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="AU8" s="210"/>
+      <c r="AU8" s="136"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="183"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="136"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="27"/>
       <c r="E9" s="108">
         <v>1</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="124">
         <v>0.5</v>
       </c>
       <c r="G9" s="76"/>
@@ -2432,20 +2441,20 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="130"/>
+      <c r="AR9" s="148"/>
       <c r="AT9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AU9" s="182"/>
+      <c r="AU9" s="132"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="206" t="s">
+      <c r="A10" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="131">
+      <c r="B10" s="137">
         <v>2</v>
       </c>
-      <c r="C10" s="133">
+      <c r="C10" s="139">
         <v>1</v>
       </c>
       <c r="D10" s="27"/>
@@ -2492,23 +2501,23 @@
       <c r="AO10" s="20"/>
       <c r="AP10" s="86"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="130"/>
+      <c r="AR10" s="148"/>
       <c r="AT10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AU10" s="191"/>
+      <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="207"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="134"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="27"/>
       <c r="E11" s="64"/>
       <c r="F11" s="20"/>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="125">
+      <c r="J11" s="124">
         <v>1</v>
       </c>
       <c r="K11" s="26"/>
@@ -2544,20 +2553,20 @@
       <c r="AO11" s="21"/>
       <c r="AP11" s="75"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="130"/>
-      <c r="AT11" s="204" t="s">
+      <c r="AR11" s="148"/>
+      <c r="AT11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AU11" s="205"/>
+      <c r="AU11" s="134"/>
     </row>
     <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="140">
+      <c r="B12" s="150">
         <v>2</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="27"/>
       <c r="E12" s="64"/>
       <c r="F12" s="20"/>
@@ -2600,12 +2609,12 @@
       </c>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="130"/>
+      <c r="AR12" s="148"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="184"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="152"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="27"/>
       <c r="E13" s="64"/>
       <c r="F13" s="20"/>
@@ -2646,16 +2655,16 @@
       <c r="AO13" s="20"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="130"/>
+      <c r="AR13" s="148"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="206" t="s">
+      <c r="A14" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="140">
+      <c r="B14" s="150">
         <v>1</v>
       </c>
-      <c r="C14" s="136"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
       <c r="F14" s="20"/>
@@ -2698,12 +2707,12 @@
       <c r="AQ14" s="97">
         <v>1</v>
       </c>
-      <c r="AR14" s="130"/>
+      <c r="AR14" s="148"/>
     </row>
     <row r="15" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="206"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="160"/>
+      <c r="A15" s="191"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="186"/>
       <c r="D15" s="34"/>
       <c r="E15" s="78"/>
       <c r="F15" s="39"/>
@@ -2749,17 +2758,17 @@
       <c r="AR15" s="147"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="137">
+      <c r="B16" s="153">
         <v>0.5</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="200">
         <v>0.5</v>
       </c>
       <c r="D16" s="41"/>
-      <c r="E16" s="126">
+      <c r="E16" s="125">
         <v>0.5</v>
       </c>
       <c r="F16" s="107"/>
@@ -2800,16 +2809,16 @@
       <c r="AO16" s="43"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="129" t="s">
+      <c r="AR16" s="146" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="206"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="139"/>
+      <c r="A17" s="191"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="208"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="125">
+      <c r="E17" s="124">
         <v>0.5</v>
       </c>
       <c r="F17" s="23"/>
@@ -2850,16 +2859,16 @@
       <c r="AO17" s="20"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="130"/>
+      <c r="AR17" s="148"/>
     </row>
     <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="140">
+      <c r="B18" s="150">
         <v>1</v>
       </c>
-      <c r="C18" s="150">
+      <c r="C18" s="195">
         <v>1</v>
       </c>
       <c r="D18" s="59"/>
@@ -2904,15 +2913,15 @@
       <c r="AO18" s="46"/>
       <c r="AP18" s="60"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="130"/>
+      <c r="AR18" s="148"/>
     </row>
     <row r="19" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="183"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="136"/>
+      <c r="A19" s="187"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="155"/>
       <c r="D19" s="27"/>
       <c r="E19" s="79"/>
-      <c r="F19" s="125">
+      <c r="F19" s="124">
         <v>1</v>
       </c>
       <c r="G19" s="22"/>
@@ -2952,16 +2961,16 @@
       <c r="AO19" s="20"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="130"/>
+      <c r="AR19" s="148"/>
     </row>
     <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="140">
+      <c r="B20" s="150">
         <v>2</v>
       </c>
-      <c r="C20" s="136">
+      <c r="C20" s="155">
         <v>1.5</v>
       </c>
       <c r="D20" s="27"/>
@@ -3008,17 +3017,17 @@
       <c r="AO20" s="20"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="130"/>
+      <c r="AR20" s="148"/>
     </row>
     <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="185"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="136"/>
+      <c r="A21" s="167"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="155"/>
       <c r="D21" s="27"/>
       <c r="E21" s="64"/>
       <c r="F21" s="20"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="179">
+      <c r="H21" s="129">
         <v>1.5</v>
       </c>
       <c r="I21" s="75"/>
@@ -3056,16 +3065,16 @@
       <c r="AO21" s="20"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="130"/>
+      <c r="AR21" s="148"/>
     </row>
     <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="140">
+      <c r="B22" s="150">
         <v>2</v>
       </c>
-      <c r="C22" s="136">
+      <c r="C22" s="155">
         <v>3</v>
       </c>
       <c r="D22" s="27"/>
@@ -3112,21 +3121,21 @@
       <c r="AO22" s="20"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="130"/>
+      <c r="AR22" s="148"/>
     </row>
     <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="136"/>
+      <c r="A23" s="167"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="155"/>
       <c r="D23" s="27"/>
       <c r="E23" s="64"/>
       <c r="F23" s="20"/>
       <c r="G23" s="26"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="179">
+      <c r="I23" s="129">
         <v>2</v>
       </c>
-      <c r="J23" s="125">
+      <c r="J23" s="124">
         <v>1</v>
       </c>
       <c r="K23" s="50"/>
@@ -3162,17 +3171,17 @@
       <c r="AO23" s="20"/>
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="130"/>
+      <c r="AR23" s="148"/>
     </row>
     <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="131">
+      <c r="B24" s="137">
         <v>2</v>
       </c>
-      <c r="C24" s="133">
-        <v>1</v>
+      <c r="C24" s="139">
+        <v>1.5</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="64"/>
@@ -3186,7 +3195,7 @@
       <c r="K24" s="112">
         <v>0.5</v>
       </c>
-      <c r="L24" s="128">
+      <c r="L24" s="127">
         <v>1</v>
       </c>
       <c r="M24" s="20"/>
@@ -3220,12 +3229,12 @@
       <c r="AO24" s="20"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="130"/>
+      <c r="AR24" s="148"/>
     </row>
     <row r="25" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="187"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="134"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="140"/>
       <c r="D25" s="36"/>
       <c r="E25" s="54"/>
       <c r="F25" s="39"/>
@@ -3233,10 +3242,12 @@
       <c r="H25" s="48"/>
       <c r="I25" s="113"/>
       <c r="J25" s="84"/>
-      <c r="K25" s="180">
+      <c r="K25" s="130">
         <v>1</v>
       </c>
-      <c r="L25" s="114"/>
+      <c r="L25" s="209">
+        <v>0.5</v>
+      </c>
       <c r="M25" s="39"/>
       <c r="N25" s="39"/>
       <c r="O25" s="68"/>
@@ -3268,16 +3279,18 @@
       <c r="AO25" s="39"/>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="40"/>
-      <c r="AR25" s="130"/>
+      <c r="AR25" s="148"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="148">
+      <c r="B26" s="193">
         <v>2</v>
       </c>
-      <c r="C26" s="149"/>
+      <c r="C26" s="194">
+        <v>2</v>
+      </c>
       <c r="D26" s="59"/>
       <c r="E26" s="47"/>
       <c r="F26" s="46"/>
@@ -3286,7 +3299,7 @@
       <c r="I26" s="60"/>
       <c r="J26" s="46"/>
       <c r="K26" s="53"/>
-      <c r="L26" s="115">
+      <c r="L26" s="114">
         <v>0.5</v>
       </c>
       <c r="M26" s="97">
@@ -3294,7 +3307,7 @@
       </c>
       <c r="N26" s="100"/>
       <c r="O26" s="66"/>
-      <c r="P26" s="116"/>
+      <c r="P26" s="115"/>
       <c r="Q26" s="100"/>
       <c r="R26" s="100"/>
       <c r="S26" s="49"/>
@@ -3322,14 +3335,14 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="60"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="175" t="s">
+      <c r="AR26" s="143" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="189"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="134"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="27"/>
       <c r="E27" s="64"/>
       <c r="F27" s="20"/>
@@ -3338,8 +3351,12 @@
       <c r="I27" s="28"/>
       <c r="J27" s="20"/>
       <c r="K27" s="69"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="28"/>
+      <c r="L27" s="128">
+        <v>1</v>
+      </c>
+      <c r="M27" s="129">
+        <v>1</v>
+      </c>
       <c r="N27" s="33"/>
       <c r="O27" s="83"/>
       <c r="P27" s="30"/>
@@ -3370,16 +3387,18 @@
       <c r="AO27" s="64"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="26"/>
-      <c r="AR27" s="173"/>
+      <c r="AR27" s="141"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="131">
+      <c r="B28" s="137">
         <v>2</v>
       </c>
-      <c r="C28" s="133"/>
+      <c r="C28" s="139">
+        <v>2</v>
+      </c>
       <c r="D28" s="59"/>
       <c r="E28" s="47"/>
       <c r="F28" s="46"/>
@@ -3389,7 +3408,7 @@
       <c r="J28" s="46"/>
       <c r="K28" s="69"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="117">
+      <c r="M28" s="116">
         <v>0.5</v>
       </c>
       <c r="N28" s="101">
@@ -3424,12 +3443,12 @@
       <c r="AO28" s="20"/>
       <c r="AP28" s="60"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="173"/>
+      <c r="AR28" s="141"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="189"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="134"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="140"/>
       <c r="D29" s="59"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46"/>
@@ -3439,8 +3458,12 @@
       <c r="J29" s="46"/>
       <c r="K29" s="69"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="85"/>
+      <c r="M29" s="210">
+        <v>1</v>
+      </c>
+      <c r="N29" s="211">
+        <v>1</v>
+      </c>
       <c r="O29" s="66"/>
       <c r="P29" s="73"/>
       <c r="Q29" s="46"/>
@@ -3470,16 +3493,18 @@
       <c r="AO29" s="20"/>
       <c r="AP29" s="60"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="173"/>
+      <c r="AR29" s="141"/>
     </row>
     <row r="30" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="195" t="s">
+      <c r="A30" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="131">
+      <c r="B30" s="137">
         <v>2.5</v>
       </c>
-      <c r="C30" s="133"/>
+      <c r="C30" s="139">
+        <v>2</v>
+      </c>
       <c r="D30" s="59"/>
       <c r="E30" s="47"/>
       <c r="F30" s="46"/>
@@ -3494,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="66"/>
-      <c r="P30" s="115">
+      <c r="P30" s="114">
         <v>1.5</v>
       </c>
       <c r="Q30" s="46"/>
@@ -3524,12 +3549,12 @@
       <c r="AO30" s="20"/>
       <c r="AP30" s="60"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="173"/>
+      <c r="AR30" s="141"/>
     </row>
     <row r="31" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="199"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="134"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="140"/>
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="46"/>
@@ -3540,9 +3565,13 @@
       <c r="K31" s="69"/>
       <c r="L31" s="19"/>
       <c r="M31" s="60"/>
-      <c r="N31" s="85"/>
+      <c r="N31" s="211">
+        <v>1</v>
+      </c>
       <c r="O31" s="66"/>
-      <c r="P31" s="73"/>
+      <c r="P31" s="212">
+        <v>1</v>
+      </c>
       <c r="Q31" s="46"/>
       <c r="R31" s="46"/>
       <c r="S31" s="49"/>
@@ -3570,16 +3599,16 @@
       <c r="AO31" s="20"/>
       <c r="AP31" s="60"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="173"/>
+      <c r="AR31" s="141"/>
     </row>
     <row r="32" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="131">
+      <c r="B32" s="137">
         <v>2</v>
       </c>
-      <c r="C32" s="133"/>
+      <c r="C32" s="139"/>
       <c r="D32" s="59"/>
       <c r="E32" s="47"/>
       <c r="F32" s="46"/>
@@ -3592,7 +3621,7 @@
       <c r="M32" s="60"/>
       <c r="N32" s="85"/>
       <c r="O32" s="66"/>
-      <c r="P32" s="73"/>
+      <c r="P32" s="115"/>
       <c r="Q32" s="101">
         <v>2</v>
       </c>
@@ -3622,12 +3651,12 @@
       <c r="AO32" s="20"/>
       <c r="AP32" s="60"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="173"/>
+      <c r="AR32" s="141"/>
     </row>
     <row r="33" spans="1:45" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="190"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="159"/>
       <c r="D33" s="81"/>
       <c r="E33" s="87"/>
       <c r="F33" s="88"/>
@@ -3641,8 +3670,12 @@
       <c r="N33" s="93"/>
       <c r="O33" s="94"/>
       <c r="P33" s="95"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
+      <c r="Q33" s="213">
+        <v>2</v>
+      </c>
+      <c r="R33" s="213">
+        <v>1</v>
+      </c>
       <c r="S33" s="89"/>
       <c r="T33" s="81"/>
       <c r="U33" s="39"/>
@@ -3668,16 +3701,16 @@
       <c r="AO33" s="88"/>
       <c r="AP33" s="90"/>
       <c r="AQ33" s="89"/>
-      <c r="AR33" s="174"/>
+      <c r="AR33" s="142"/>
     </row>
     <row r="34" spans="1:45" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="189" t="s">
+      <c r="A34" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="132">
+      <c r="B34" s="138">
         <v>0.5</v>
       </c>
-      <c r="C34" s="134"/>
+      <c r="C34" s="140"/>
       <c r="D34" s="59"/>
       <c r="E34" s="47"/>
       <c r="F34" s="46"/>
@@ -3692,7 +3725,7 @@
       <c r="O34" s="72"/>
       <c r="P34" s="73"/>
       <c r="Q34" s="100"/>
-      <c r="R34" s="118">
+      <c r="R34" s="117">
         <v>0.5</v>
       </c>
       <c r="S34" s="49"/>
@@ -3720,15 +3753,15 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="60"/>
       <c r="AQ34" s="49"/>
-      <c r="AR34" s="173" t="s">
+      <c r="AR34" s="141" t="s">
         <v>26</v>
       </c>
       <c r="AS34" s="65"/>
     </row>
     <row r="35" spans="1:45" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="203"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="143"/>
+      <c r="A35" s="198"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="201"/>
       <c r="D35" s="36"/>
       <c r="E35" s="54"/>
       <c r="F35" s="39"/>
@@ -3769,17 +3802,17 @@
       <c r="AO35" s="39"/>
       <c r="AP35" s="48"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="174"/>
+      <c r="AR35" s="142"/>
       <c r="AS35" s="65"/>
     </row>
     <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="137">
+      <c r="B36" s="153">
         <v>2</v>
       </c>
-      <c r="C36" s="144"/>
+      <c r="C36" s="154"/>
       <c r="D36" s="41"/>
       <c r="E36" s="80"/>
       <c r="F36" s="43"/>
@@ -3797,7 +3830,7 @@
       <c r="R36" s="17">
         <v>1.5</v>
       </c>
-      <c r="S36" s="119">
+      <c r="S36" s="118">
         <v>0.5</v>
       </c>
       <c r="T36" s="41"/>
@@ -3824,15 +3857,15 @@
       <c r="AO36" s="43"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="129" t="s">
+      <c r="AR36" s="146" t="s">
         <v>10</v>
       </c>
       <c r="AS36" s="65"/>
     </row>
     <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="193"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="136"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="155"/>
       <c r="D37" s="27"/>
       <c r="E37" s="64"/>
       <c r="F37" s="20"/>
@@ -3873,16 +3906,16 @@
       <c r="AO37" s="20"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="26"/>
-      <c r="AR37" s="130"/>
+      <c r="AR37" s="148"/>
     </row>
     <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="194" t="s">
+      <c r="A38" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="140">
+      <c r="B38" s="150">
         <v>3.5</v>
       </c>
-      <c r="C38" s="136"/>
+      <c r="C38" s="155"/>
       <c r="D38" s="27"/>
       <c r="E38" s="64"/>
       <c r="F38" s="20"/>
@@ -3927,12 +3960,12 @@
       <c r="AO38" s="20"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="130"/>
+      <c r="AR38" s="148"/>
     </row>
     <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="194"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="149"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="155"/>
       <c r="D39" s="27"/>
       <c r="E39" s="64"/>
       <c r="F39" s="20"/>
@@ -3973,16 +4006,16 @@
       <c r="AO39" s="20"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="130"/>
+      <c r="AR39" s="148"/>
     </row>
     <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="194" t="s">
+      <c r="A40" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="140">
+      <c r="B40" s="150">
         <v>2</v>
       </c>
-      <c r="C40" s="136"/>
+      <c r="C40" s="155"/>
       <c r="D40" s="27"/>
       <c r="E40" s="64"/>
       <c r="F40" s="20"/>
@@ -4005,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="W40" s="26"/>
-      <c r="X40" s="120"/>
+      <c r="X40" s="119"/>
       <c r="Y40" s="106"/>
       <c r="Z40" s="106"/>
       <c r="AA40" s="26"/>
@@ -4025,12 +4058,12 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="130"/>
+      <c r="AR40" s="148"/>
     </row>
     <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="194"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="136"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="155"/>
       <c r="D41" s="27"/>
       <c r="E41" s="64"/>
       <c r="F41" s="20"/>
@@ -4051,11 +4084,11 @@
       <c r="U41" s="20"/>
       <c r="V41" s="33"/>
       <c r="W41" s="76"/>
-      <c r="X41" s="120"/>
+      <c r="X41" s="119"/>
       <c r="Y41" s="106"/>
       <c r="Z41" s="106"/>
       <c r="AA41" s="26"/>
-      <c r="AB41" s="120"/>
+      <c r="AB41" s="119"/>
       <c r="AC41" s="106"/>
       <c r="AD41" s="105"/>
       <c r="AE41" s="26"/>
@@ -4071,16 +4104,16 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="130"/>
+      <c r="AR41" s="148"/>
     </row>
     <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="194" t="s">
+      <c r="A42" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="140">
+      <c r="B42" s="150">
         <v>2</v>
       </c>
-      <c r="C42" s="136"/>
+      <c r="C42" s="155"/>
       <c r="D42" s="27"/>
       <c r="E42" s="64"/>
       <c r="F42" s="20"/>
@@ -4109,7 +4142,7 @@
       </c>
       <c r="Z42" s="106"/>
       <c r="AA42" s="26"/>
-      <c r="AB42" s="120"/>
+      <c r="AB42" s="119"/>
       <c r="AC42" s="106"/>
       <c r="AD42" s="105"/>
       <c r="AE42" s="26"/>
@@ -4125,12 +4158,12 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="130"/>
+      <c r="AR42" s="148"/>
     </row>
     <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="194"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="136"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="155"/>
       <c r="D43" s="27"/>
       <c r="E43" s="64"/>
       <c r="F43" s="20"/>
@@ -4155,7 +4188,7 @@
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="76"/>
-      <c r="AB43" s="120"/>
+      <c r="AB43" s="119"/>
       <c r="AC43" s="105"/>
       <c r="AD43" s="105"/>
       <c r="AE43" s="26"/>
@@ -4171,16 +4204,16 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="130"/>
+      <c r="AR43" s="148"/>
     </row>
     <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="140">
+      <c r="B44" s="150">
         <v>2</v>
       </c>
-      <c r="C44" s="136"/>
+      <c r="C44" s="155"/>
       <c r="D44" s="27"/>
       <c r="E44" s="64"/>
       <c r="F44" s="20"/>
@@ -4209,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="120"/>
+      <c r="AB44" s="119"/>
       <c r="AC44" s="106"/>
       <c r="AD44" s="105"/>
       <c r="AE44" s="26"/>
@@ -4225,12 +4258,12 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="130"/>
+      <c r="AR44" s="148"/>
     </row>
     <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="195"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="136"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="27"/>
       <c r="E45" s="64"/>
       <c r="F45" s="20"/>
@@ -4255,7 +4288,7 @@
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="120"/>
+      <c r="AB45" s="119"/>
       <c r="AC45" s="106"/>
       <c r="AD45" s="105"/>
       <c r="AE45" s="26"/>
@@ -4271,16 +4304,16 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="75"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="130"/>
+      <c r="AR45" s="148"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="196" t="s">
+      <c r="A46" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="141">
+      <c r="B46" s="162">
         <v>2.5</v>
       </c>
-      <c r="C46" s="136"/>
+      <c r="C46" s="155"/>
       <c r="D46" s="27"/>
       <c r="E46" s="64"/>
       <c r="F46" s="20"/>
@@ -4307,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="AA46" s="111"/>
-      <c r="AB46" s="121">
+      <c r="AB46" s="120">
         <v>1.5</v>
       </c>
       <c r="AC46" s="106"/>
@@ -4324,12 +4357,12 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="20"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="130"/>
+      <c r="AR46" s="148"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="197"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="136"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="155"/>
       <c r="D47" s="27"/>
       <c r="E47" s="64"/>
       <c r="F47" s="20"/>
@@ -4354,11 +4387,11 @@
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="120"/>
+      <c r="AB47" s="119"/>
       <c r="AC47" s="106"/>
       <c r="AD47" s="105"/>
       <c r="AE47" s="111"/>
-      <c r="AF47" s="120"/>
+      <c r="AF47" s="119"/>
       <c r="AG47" s="106"/>
       <c r="AH47" s="106"/>
       <c r="AI47" s="111"/>
@@ -4370,16 +4403,16 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="75"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="130"/>
+      <c r="AR47" s="148"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="196" t="s">
+      <c r="A48" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="141">
+      <c r="B48" s="162">
         <v>1</v>
       </c>
-      <c r="C48" s="136"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="27"/>
       <c r="E48" s="64"/>
       <c r="F48" s="20"/>
@@ -4404,13 +4437,13 @@
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="26"/>
-      <c r="AB48" s="120"/>
+      <c r="AB48" s="119"/>
       <c r="AC48" s="110">
         <v>1</v>
       </c>
       <c r="AD48" s="105"/>
       <c r="AE48" s="111"/>
-      <c r="AF48" s="120"/>
+      <c r="AF48" s="119"/>
       <c r="AG48" s="106"/>
       <c r="AH48" s="106"/>
       <c r="AI48" s="111"/>
@@ -4422,12 +4455,12 @@
       <c r="AO48" s="20"/>
       <c r="AP48" s="105"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="130"/>
+      <c r="AR48" s="148"/>
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="197"/>
-      <c r="B49" s="141"/>
-      <c r="C49" s="136"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="155"/>
       <c r="D49" s="27"/>
       <c r="E49" s="64"/>
       <c r="F49" s="20"/>
@@ -4452,11 +4485,11 @@
       <c r="Y49" s="21"/>
       <c r="Z49" s="21"/>
       <c r="AA49" s="26"/>
-      <c r="AB49" s="120"/>
+      <c r="AB49" s="119"/>
       <c r="AC49" s="106"/>
       <c r="AD49" s="105"/>
       <c r="AE49" s="111"/>
-      <c r="AF49" s="120"/>
+      <c r="AF49" s="119"/>
       <c r="AG49" s="106"/>
       <c r="AH49" s="106"/>
       <c r="AI49" s="111"/>
@@ -4468,16 +4501,16 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="75"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="130"/>
+      <c r="AR49" s="148"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="196" t="s">
+      <c r="A50" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="131">
+      <c r="B50" s="137">
         <v>1</v>
       </c>
-      <c r="C50" s="133"/>
+      <c r="C50" s="139"/>
       <c r="D50" s="27"/>
       <c r="E50" s="64"/>
       <c r="F50" s="20"/>
@@ -4502,13 +4535,13 @@
       <c r="Y50" s="21"/>
       <c r="Z50" s="21"/>
       <c r="AA50" s="26"/>
-      <c r="AB50" s="120"/>
+      <c r="AB50" s="119"/>
       <c r="AC50" s="110">
         <v>1</v>
       </c>
       <c r="AD50" s="105"/>
       <c r="AE50" s="111"/>
-      <c r="AF50" s="120"/>
+      <c r="AF50" s="119"/>
       <c r="AG50" s="106"/>
       <c r="AH50" s="106"/>
       <c r="AI50" s="111"/>
@@ -4520,12 +4553,12 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="75"/>
       <c r="AQ50" s="26"/>
-      <c r="AR50" s="130"/>
+      <c r="AR50" s="148"/>
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="197"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="134"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="140"/>
       <c r="D51" s="27"/>
       <c r="E51" s="64"/>
       <c r="F51" s="20"/>
@@ -4550,11 +4583,11 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
       <c r="AA51" s="26"/>
-      <c r="AB51" s="120"/>
+      <c r="AB51" s="119"/>
       <c r="AC51" s="106"/>
       <c r="AD51" s="105"/>
       <c r="AE51" s="111"/>
-      <c r="AF51" s="120"/>
+      <c r="AF51" s="119"/>
       <c r="AG51" s="106"/>
       <c r="AH51" s="106"/>
       <c r="AI51" s="111"/>
@@ -4566,16 +4599,16 @@
       <c r="AO51" s="20"/>
       <c r="AP51" s="75"/>
       <c r="AQ51" s="26"/>
-      <c r="AR51" s="130"/>
+      <c r="AR51" s="148"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="198" t="s">
+      <c r="A52" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="135">
+      <c r="B52" s="206">
         <v>3</v>
       </c>
-      <c r="C52" s="133"/>
+      <c r="C52" s="139"/>
       <c r="D52" s="27"/>
       <c r="E52" s="64"/>
       <c r="F52" s="20"/>
@@ -4600,13 +4633,13 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="21"/>
       <c r="AA52" s="26"/>
-      <c r="AB52" s="120"/>
+      <c r="AB52" s="119"/>
       <c r="AC52" s="106"/>
       <c r="AD52" s="109">
         <v>2</v>
       </c>
       <c r="AE52" s="111"/>
-      <c r="AF52" s="121">
+      <c r="AF52" s="120">
         <v>1</v>
       </c>
       <c r="AG52" s="106"/>
@@ -4620,12 +4653,12 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="75"/>
       <c r="AQ52" s="26"/>
-      <c r="AR52" s="130"/>
+      <c r="AR52" s="148"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="197"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="134"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="140"/>
       <c r="D53" s="27"/>
       <c r="E53" s="64"/>
       <c r="F53" s="20"/>
@@ -4650,11 +4683,11 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="21"/>
       <c r="AA53" s="26"/>
-      <c r="AB53" s="120"/>
+      <c r="AB53" s="119"/>
       <c r="AC53" s="106"/>
       <c r="AD53" s="105"/>
       <c r="AE53" s="111"/>
-      <c r="AF53" s="120"/>
+      <c r="AF53" s="119"/>
       <c r="AG53" s="106"/>
       <c r="AH53" s="106"/>
       <c r="AI53" s="111"/>
@@ -4666,16 +4699,16 @@
       <c r="AO53" s="20"/>
       <c r="AP53" s="75"/>
       <c r="AQ53" s="26"/>
-      <c r="AR53" s="130"/>
+      <c r="AR53" s="148"/>
     </row>
     <row r="54" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="196" t="s">
+      <c r="A54" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="141">
+      <c r="B54" s="162">
         <v>2</v>
       </c>
-      <c r="C54" s="136"/>
+      <c r="C54" s="155"/>
       <c r="D54" s="27"/>
       <c r="E54" s="64"/>
       <c r="F54" s="20"/>
@@ -4700,11 +4733,11 @@
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="26"/>
-      <c r="AB54" s="120"/>
+      <c r="AB54" s="119"/>
       <c r="AC54" s="106"/>
       <c r="AD54" s="105"/>
       <c r="AE54" s="111"/>
-      <c r="AF54" s="121">
+      <c r="AF54" s="120">
         <v>0.5</v>
       </c>
       <c r="AG54" s="110">
@@ -4720,12 +4753,12 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="26"/>
-      <c r="AR54" s="130"/>
+      <c r="AR54" s="148"/>
     </row>
     <row r="55" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="199"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="136"/>
+      <c r="A55" s="145"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="155"/>
       <c r="D55" s="27"/>
       <c r="E55" s="64"/>
       <c r="F55" s="20"/>
@@ -4754,7 +4787,7 @@
       <c r="AC55" s="20"/>
       <c r="AD55" s="28"/>
       <c r="AE55" s="26"/>
-      <c r="AF55" s="120"/>
+      <c r="AF55" s="119"/>
       <c r="AG55" s="106"/>
       <c r="AI55" s="111"/>
       <c r="AJ55" s="27"/>
@@ -4765,16 +4798,16 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="26"/>
-      <c r="AR55" s="130"/>
+      <c r="AR55" s="148"/>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="196" t="s">
+      <c r="A56" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="141">
+      <c r="B56" s="162">
         <v>3</v>
       </c>
-      <c r="C56" s="136"/>
+      <c r="C56" s="155"/>
       <c r="D56" s="27"/>
       <c r="E56" s="64"/>
       <c r="F56" s="20"/>
@@ -4803,13 +4836,13 @@
       <c r="AC56" s="20"/>
       <c r="AD56" s="28"/>
       <c r="AE56" s="26"/>
-      <c r="AF56" s="120"/>
+      <c r="AF56" s="119"/>
       <c r="AG56" s="106"/>
       <c r="AH56" s="110">
         <v>2</v>
       </c>
       <c r="AI56" s="111"/>
-      <c r="AJ56" s="122">
+      <c r="AJ56" s="121">
         <v>1</v>
       </c>
       <c r="AK56" s="106"/>
@@ -4819,12 +4852,12 @@
       <c r="AO56" s="20"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="26"/>
-      <c r="AR56" s="130"/>
+      <c r="AR56" s="148"/>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="197"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="136"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="155"/>
       <c r="D57" s="27"/>
       <c r="E57" s="64"/>
       <c r="F57" s="20"/>
@@ -4853,7 +4886,7 @@
       <c r="AC57" s="20"/>
       <c r="AD57" s="23"/>
       <c r="AE57" s="22"/>
-      <c r="AF57" s="120"/>
+      <c r="AF57" s="119"/>
       <c r="AG57" s="106"/>
       <c r="AH57" s="106"/>
       <c r="AI57" s="111"/>
@@ -4868,13 +4901,13 @@
       <c r="AR57" s="147"/>
     </row>
     <row r="58" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="200" t="s">
+      <c r="A58" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="137">
+      <c r="B58" s="153">
         <v>0.5</v>
       </c>
-      <c r="C58" s="144"/>
+      <c r="C58" s="154"/>
       <c r="D58" s="41"/>
       <c r="E58" s="80"/>
       <c r="F58" s="43"/>
@@ -4907,7 +4940,7 @@
       <c r="AG58" s="43"/>
       <c r="AH58" s="43"/>
       <c r="AI58" s="44"/>
-      <c r="AJ58" s="123">
+      <c r="AJ58" s="122">
         <v>0.5</v>
       </c>
       <c r="AK58" s="104"/>
@@ -4917,14 +4950,14 @@
       <c r="AO58" s="43"/>
       <c r="AP58" s="45"/>
       <c r="AQ58" s="44"/>
-      <c r="AR58" s="129" t="s">
+      <c r="AR58" s="146" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="194"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="136"/>
+      <c r="A59" s="149"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="155"/>
       <c r="D59" s="27"/>
       <c r="E59" s="64"/>
       <c r="F59" s="20"/>
@@ -4965,16 +4998,16 @@
       <c r="AO59" s="20"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="26"/>
-      <c r="AR59" s="130"/>
+      <c r="AR59" s="148"/>
     </row>
     <row r="60" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="194" t="s">
+      <c r="A60" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="140">
+      <c r="B60" s="150">
         <v>3.5</v>
       </c>
-      <c r="C60" s="136"/>
+      <c r="C60" s="155"/>
       <c r="D60" s="27"/>
       <c r="E60" s="64"/>
       <c r="F60" s="20"/>
@@ -5014,19 +5047,19 @@
       <c r="AL60" s="29">
         <v>1.5</v>
       </c>
-      <c r="AM60" s="124">
+      <c r="AM60" s="123">
         <v>0.5</v>
       </c>
       <c r="AN60" s="27"/>
       <c r="AO60" s="20"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="26"/>
-      <c r="AR60" s="130"/>
+      <c r="AR60" s="148"/>
     </row>
     <row r="61" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="201"/>
-      <c r="B61" s="142"/>
-      <c r="C61" s="145"/>
+      <c r="A61" s="203"/>
+      <c r="B61" s="199"/>
+      <c r="C61" s="204"/>
       <c r="D61" s="36"/>
       <c r="E61" s="54"/>
       <c r="F61" s="39"/>
@@ -5070,13 +5103,13 @@
       <c r="AR61" s="147"/>
     </row>
     <row r="62" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="202" t="s">
+      <c r="A62" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="137">
+      <c r="B62" s="153">
         <v>2</v>
       </c>
-      <c r="C62" s="138"/>
+      <c r="C62" s="200"/>
       <c r="D62" s="59"/>
       <c r="E62" s="47"/>
       <c r="F62" s="46"/>
@@ -5119,14 +5152,14 @@
       <c r="AO62" s="98"/>
       <c r="AP62" s="60"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="129" t="s">
+      <c r="AR62" s="146" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="203"/>
-      <c r="B63" s="142"/>
-      <c r="C63" s="143"/>
+      <c r="A63" s="198"/>
+      <c r="B63" s="199"/>
+      <c r="C63" s="201"/>
       <c r="D63" s="36"/>
       <c r="E63" s="54"/>
       <c r="F63" s="39"/>
@@ -5179,7 +5212,7 @@
       </c>
       <c r="C64" s="62">
         <f>SUM(C4:C63)</f>
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -5225,6 +5258,103 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="AR16:AR25"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AR4:AR15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AT8:AU8"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -5249,103 +5379,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AR4:AR15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="AR16:AR25"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5354,23 +5387,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005568FE7337F58E4A874BCAA8F781D766" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7c72f08c743f3e1d890da655f588b9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e5e9ffa-1d28-4d43-989d-34211c67c0f1" xmlns:ns4="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7c8491fffaeb43ce16da0fe91667a77" ns3:_="" ns4:_="">
     <xsd:import namespace="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
@@ -5593,32 +5609,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66DC004-E347-46EB-9C38-9AF8EC95E3A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5635,4 +5643,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="559" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CD9C779-0A24-4BAC-9992-0D993CE069AF}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB4F434D-761E-48B3-96E4-E79D7B56ED12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyBorder="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1220,233 +1220,234 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Empty" xfId="3" xr:uid="{E0E5FDF4-CE21-4EE3-AD57-B07A8CBBE450}"/>
@@ -1773,8 +1774,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,145 +1796,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="181"/>
-      <c r="D1" s="171" t="s">
+      <c r="C1" s="187"/>
+      <c r="D1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="171" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="171" t="s">
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="171" t="s">
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="171" t="s">
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="174" t="s">
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="179"/>
+      <c r="X1" s="180" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="174" t="s">
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="174" t="s">
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="175"/>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="174" t="s">
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="182"/>
+      <c r="AJ1" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="175"/>
-      <c r="AL1" s="175"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="174" t="s">
+      <c r="AK1" s="181"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="182"/>
+      <c r="AN1" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="175"/>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="168" t="s">
+      <c r="AO1" s="181"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="182"/>
+      <c r="AR1" s="174" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="178"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="164">
+      <c r="A2" s="184"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="170">
         <v>45327</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="164">
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="170">
         <v>45328</v>
       </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="164">
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="170">
         <v>45329</v>
       </c>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="164">
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="170">
         <v>45330</v>
       </c>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="164">
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="170">
         <v>45331</v>
       </c>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="164">
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="170">
         <v>45334</v>
       </c>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="164">
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="170">
         <v>45335</v>
       </c>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="164">
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="170">
         <v>45336</v>
       </c>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="164">
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="170">
         <v>45337</v>
       </c>
-      <c r="AK2" s="165"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="164">
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="172"/>
+      <c r="AN2" s="170">
         <v>45339</v>
       </c>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="165"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="169"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="172"/>
+      <c r="AR2" s="175"/>
     </row>
     <row r="3" spans="1:47" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="179"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2060,16 +2061,16 @@
       <c r="AQ3" s="9">
         <v>17</v>
       </c>
-      <c r="AR3" s="170"/>
+      <c r="AR3" s="176"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="150">
+      <c r="B4" s="156">
         <v>23.5</v>
       </c>
-      <c r="C4" s="155">
+      <c r="C4" s="161">
         <v>5</v>
       </c>
       <c r="D4" s="13"/>
@@ -2152,16 +2153,16 @@
       <c r="AQ4" s="101">
         <v>2</v>
       </c>
-      <c r="AR4" s="190"/>
+      <c r="AR4" s="196"/>
       <c r="AT4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="155"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="161"/>
       <c r="D5" s="19"/>
       <c r="E5" s="108">
         <v>0.5</v>
@@ -2190,8 +2191,10 @@
         <v>1</v>
       </c>
       <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="76"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="126">
+        <v>2</v>
+      </c>
       <c r="T5" s="30"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
@@ -2216,20 +2219,20 @@
       <c r="AO5" s="21"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="76"/>
-      <c r="AR5" s="148"/>
+      <c r="AR5" s="154"/>
       <c r="AT5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="150">
+      <c r="B6" s="156">
         <v>3</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="161">
         <v>2.5</v>
       </c>
       <c r="D6" s="25">
@@ -2276,16 +2279,16 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="148"/>
+      <c r="AR6" s="154"/>
       <c r="AT6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="187"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="155"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="161"/>
       <c r="D7" s="99">
         <v>2</v>
       </c>
@@ -2330,17 +2333,17 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="148"/>
+      <c r="AR7" s="154"/>
       <c r="AT7" s="131"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="150">
+      <c r="B8" s="156">
         <v>2</v>
       </c>
-      <c r="C8" s="155">
+      <c r="C8" s="161">
         <v>1.5</v>
       </c>
       <c r="D8" s="27"/>
@@ -2387,16 +2390,16 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="148"/>
-      <c r="AT8" s="135" t="s">
+      <c r="AR8" s="154"/>
+      <c r="AT8" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="AU8" s="136"/>
+      <c r="AU8" s="142"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="155"/>
+      <c r="A9" s="193"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="161"/>
       <c r="D9" s="27"/>
       <c r="E9" s="108">
         <v>1</v>
@@ -2441,20 +2444,20 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="148"/>
+      <c r="AR9" s="154"/>
       <c r="AT9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AU9" s="132"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="137">
+      <c r="B10" s="143">
         <v>2</v>
       </c>
-      <c r="C10" s="139">
+      <c r="C10" s="145">
         <v>1</v>
       </c>
       <c r="D10" s="27"/>
@@ -2501,16 +2504,16 @@
       <c r="AO10" s="20"/>
       <c r="AP10" s="86"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="148"/>
+      <c r="AR10" s="154"/>
       <c r="AT10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="140"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="27"/>
       <c r="E11" s="64"/>
       <c r="F11" s="20"/>
@@ -2553,20 +2556,20 @@
       <c r="AO11" s="21"/>
       <c r="AP11" s="75"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="148"/>
+      <c r="AR11" s="154"/>
       <c r="AT11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AU11" s="134"/>
     </row>
     <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="150">
+      <c r="B12" s="156">
         <v>2</v>
       </c>
-      <c r="C12" s="188"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="27"/>
       <c r="E12" s="64"/>
       <c r="F12" s="20"/>
@@ -2609,12 +2612,12 @@
       </c>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="148"/>
+      <c r="AR12" s="154"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="156"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="189"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="195"/>
       <c r="D13" s="27"/>
       <c r="E13" s="64"/>
       <c r="F13" s="20"/>
@@ -2655,16 +2658,16 @@
       <c r="AO13" s="20"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="148"/>
+      <c r="AR13" s="154"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="191" t="s">
+      <c r="A14" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="150">
+      <c r="B14" s="156">
         <v>1</v>
       </c>
-      <c r="C14" s="155"/>
+      <c r="C14" s="161"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
       <c r="F14" s="20"/>
@@ -2707,12 +2710,12 @@
       <c r="AQ14" s="97">
         <v>1</v>
       </c>
-      <c r="AR14" s="148"/>
+      <c r="AR14" s="154"/>
     </row>
     <row r="15" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="191"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="186"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="34"/>
       <c r="E15" s="78"/>
       <c r="F15" s="39"/>
@@ -2755,16 +2758,16 @@
       <c r="AO15" s="31"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="35"/>
-      <c r="AR15" s="147"/>
+      <c r="AR15" s="153"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="153">
+      <c r="B16" s="159">
         <v>0.5</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="206">
         <v>0.5</v>
       </c>
       <c r="D16" s="41"/>
@@ -2809,14 +2812,14 @@
       <c r="AO16" s="43"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="146" t="s">
+      <c r="AR16" s="152" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="208"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="214"/>
       <c r="D17" s="19"/>
       <c r="E17" s="124">
         <v>0.5</v>
@@ -2859,16 +2862,16 @@
       <c r="AO17" s="20"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="148"/>
+      <c r="AR17" s="154"/>
     </row>
     <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="150">
+      <c r="B18" s="156">
         <v>1</v>
       </c>
-      <c r="C18" s="195">
+      <c r="C18" s="201">
         <v>1</v>
       </c>
       <c r="D18" s="59"/>
@@ -2913,12 +2916,12 @@
       <c r="AO18" s="46"/>
       <c r="AP18" s="60"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="148"/>
+      <c r="AR18" s="154"/>
     </row>
     <row r="19" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="187"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="155"/>
+      <c r="A19" s="193"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="27"/>
       <c r="E19" s="79"/>
       <c r="F19" s="124">
@@ -2961,16 +2964,16 @@
       <c r="AO19" s="20"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="148"/>
+      <c r="AR19" s="154"/>
     </row>
     <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="167" t="s">
+      <c r="A20" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="150">
+      <c r="B20" s="156">
         <v>2</v>
       </c>
-      <c r="C20" s="155">
+      <c r="C20" s="161">
         <v>1.5</v>
       </c>
       <c r="D20" s="27"/>
@@ -3017,12 +3020,12 @@
       <c r="AO20" s="20"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="148"/>
+      <c r="AR20" s="154"/>
     </row>
     <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="167"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="155"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="27"/>
       <c r="E21" s="64"/>
       <c r="F21" s="20"/>
@@ -3065,16 +3068,16 @@
       <c r="AO21" s="20"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="148"/>
+      <c r="AR21" s="154"/>
     </row>
     <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="150">
+      <c r="B22" s="156">
         <v>2</v>
       </c>
-      <c r="C22" s="155">
+      <c r="C22" s="161">
         <v>3</v>
       </c>
       <c r="D22" s="27"/>
@@ -3121,12 +3124,12 @@
       <c r="AO22" s="20"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="148"/>
+      <c r="AR22" s="154"/>
     </row>
     <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="167"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="155"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="27"/>
       <c r="E23" s="64"/>
       <c r="F23" s="20"/>
@@ -3171,16 +3174,16 @@
       <c r="AO23" s="20"/>
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="148"/>
+      <c r="AR23" s="154"/>
     </row>
     <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="137">
+      <c r="B24" s="143">
         <v>2</v>
       </c>
-      <c r="C24" s="139">
+      <c r="C24" s="145">
         <v>1.5</v>
       </c>
       <c r="D24" s="27"/>
@@ -3229,12 +3232,12 @@
       <c r="AO24" s="20"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="148"/>
+      <c r="AR24" s="154"/>
     </row>
     <row r="25" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="185"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="140"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="36"/>
       <c r="E25" s="54"/>
       <c r="F25" s="39"/>
@@ -3245,7 +3248,7 @@
       <c r="K25" s="130">
         <v>1</v>
       </c>
-      <c r="L25" s="209">
+      <c r="L25" s="135">
         <v>0.5</v>
       </c>
       <c r="M25" s="39"/>
@@ -3279,16 +3282,16 @@
       <c r="AO25" s="39"/>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="40"/>
-      <c r="AR25" s="148"/>
+      <c r="AR25" s="154"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="193">
+      <c r="B26" s="199">
         <v>2</v>
       </c>
-      <c r="C26" s="194">
+      <c r="C26" s="200">
         <v>2</v>
       </c>
       <c r="D26" s="59"/>
@@ -3335,14 +3338,14 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="60"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="143" t="s">
+      <c r="AR26" s="149" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="140"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="27"/>
       <c r="E27" s="64"/>
       <c r="F27" s="20"/>
@@ -3387,16 +3390,16 @@
       <c r="AO27" s="64"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="26"/>
-      <c r="AR27" s="141"/>
+      <c r="AR27" s="147"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="137">
+      <c r="B28" s="143">
         <v>2</v>
       </c>
-      <c r="C28" s="139">
+      <c r="C28" s="145">
         <v>2</v>
       </c>
       <c r="D28" s="59"/>
@@ -3443,12 +3446,12 @@
       <c r="AO28" s="20"/>
       <c r="AP28" s="60"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="141"/>
+      <c r="AR28" s="147"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="140"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="146"/>
       <c r="D29" s="59"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46"/>
@@ -3458,10 +3461,10 @@
       <c r="J29" s="46"/>
       <c r="K29" s="69"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="210">
+      <c r="M29" s="136">
         <v>1</v>
       </c>
-      <c r="N29" s="211">
+      <c r="N29" s="137">
         <v>1</v>
       </c>
       <c r="O29" s="66"/>
@@ -3493,16 +3496,16 @@
       <c r="AO29" s="20"/>
       <c r="AP29" s="60"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="141"/>
+      <c r="AR29" s="147"/>
     </row>
     <row r="30" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="137">
+      <c r="B30" s="143">
         <v>2.5</v>
       </c>
-      <c r="C30" s="139">
+      <c r="C30" s="145">
         <v>2</v>
       </c>
       <c r="D30" s="59"/>
@@ -3549,12 +3552,12 @@
       <c r="AO30" s="20"/>
       <c r="AP30" s="60"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="141"/>
+      <c r="AR30" s="147"/>
     </row>
     <row r="31" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="145"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="140"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="146"/>
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="46"/>
@@ -3565,11 +3568,11 @@
       <c r="K31" s="69"/>
       <c r="L31" s="19"/>
       <c r="M31" s="60"/>
-      <c r="N31" s="211">
+      <c r="N31" s="137">
         <v>1</v>
       </c>
       <c r="O31" s="66"/>
-      <c r="P31" s="212">
+      <c r="P31" s="138">
         <v>1</v>
       </c>
       <c r="Q31" s="46"/>
@@ -3599,16 +3602,18 @@
       <c r="AO31" s="20"/>
       <c r="AP31" s="60"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="141"/>
+      <c r="AR31" s="147"/>
     </row>
     <row r="32" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="137">
+      <c r="B32" s="143">
         <v>2</v>
       </c>
-      <c r="C32" s="139"/>
+      <c r="C32" s="145">
+        <v>3</v>
+      </c>
       <c r="D32" s="59"/>
       <c r="E32" s="47"/>
       <c r="F32" s="46"/>
@@ -3651,12 +3656,12 @@
       <c r="AO32" s="20"/>
       <c r="AP32" s="60"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="141"/>
+      <c r="AR32" s="147"/>
     </row>
     <row r="33" spans="1:45" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="157"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="159"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
       <c r="D33" s="81"/>
       <c r="E33" s="87"/>
       <c r="F33" s="88"/>
@@ -3670,10 +3675,10 @@
       <c r="N33" s="93"/>
       <c r="O33" s="94"/>
       <c r="P33" s="95"/>
-      <c r="Q33" s="213">
+      <c r="Q33" s="139">
         <v>2</v>
       </c>
-      <c r="R33" s="213">
+      <c r="R33" s="139">
         <v>1</v>
       </c>
       <c r="S33" s="89"/>
@@ -3701,16 +3706,16 @@
       <c r="AO33" s="88"/>
       <c r="AP33" s="90"/>
       <c r="AQ33" s="89"/>
-      <c r="AR33" s="142"/>
+      <c r="AR33" s="148"/>
     </row>
     <row r="34" spans="1:45" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="138">
+      <c r="B34" s="144">
         <v>0.5</v>
       </c>
-      <c r="C34" s="140"/>
+      <c r="C34" s="146"/>
       <c r="D34" s="59"/>
       <c r="E34" s="47"/>
       <c r="F34" s="46"/>
@@ -3753,15 +3758,15 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="60"/>
       <c r="AQ34" s="49"/>
-      <c r="AR34" s="141" t="s">
+      <c r="AR34" s="147" t="s">
         <v>26</v>
       </c>
       <c r="AS34" s="65"/>
     </row>
     <row r="35" spans="1:45" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="198"/>
-      <c r="B35" s="199"/>
-      <c r="C35" s="201"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="207"/>
       <c r="D35" s="36"/>
       <c r="E35" s="54"/>
       <c r="F35" s="39"/>
@@ -3776,7 +3781,9 @@
       <c r="O35" s="40"/>
       <c r="P35" s="36"/>
       <c r="Q35" s="84"/>
-      <c r="R35" s="39"/>
+      <c r="R35" s="140">
+        <v>0.5</v>
+      </c>
       <c r="S35" s="40"/>
       <c r="T35" s="36"/>
       <c r="U35" s="39"/>
@@ -3802,17 +3809,19 @@
       <c r="AO35" s="39"/>
       <c r="AP35" s="48"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="142"/>
+      <c r="AR35" s="148"/>
       <c r="AS35" s="65"/>
     </row>
     <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="151" t="s">
+      <c r="A36" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="153">
+      <c r="B36" s="159">
         <v>2</v>
       </c>
-      <c r="C36" s="154"/>
+      <c r="C36" s="160">
+        <v>1.5</v>
+      </c>
       <c r="D36" s="41"/>
       <c r="E36" s="80"/>
       <c r="F36" s="43"/>
@@ -3857,15 +3866,15 @@
       <c r="AO36" s="43"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="146" t="s">
+      <c r="AR36" s="152" t="s">
         <v>10</v>
       </c>
       <c r="AS36" s="65"/>
     </row>
     <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="152"/>
-      <c r="B37" s="150"/>
-      <c r="C37" s="155"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="27"/>
       <c r="E37" s="64"/>
       <c r="F37" s="20"/>
@@ -3880,7 +3889,9 @@
       <c r="O37" s="26"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
+      <c r="R37" s="124">
+        <v>1.5</v>
+      </c>
       <c r="S37" s="76"/>
       <c r="T37" s="27"/>
       <c r="U37" s="20"/>
@@ -3906,16 +3917,16 @@
       <c r="AO37" s="20"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="26"/>
-      <c r="AR37" s="148"/>
+      <c r="AR37" s="154"/>
     </row>
     <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="149" t="s">
+      <c r="A38" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="150">
+      <c r="B38" s="156">
         <v>3.5</v>
       </c>
-      <c r="C38" s="155"/>
+      <c r="C38" s="161"/>
       <c r="D38" s="27"/>
       <c r="E38" s="64"/>
       <c r="F38" s="20"/>
@@ -3930,7 +3941,9 @@
       <c r="O38" s="22"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
+      <c r="R38" s="124">
+        <v>0.5</v>
+      </c>
       <c r="S38" s="26"/>
       <c r="T38" s="25">
         <v>1.5</v>
@@ -3960,12 +3973,12 @@
       <c r="AO38" s="20"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="148"/>
+      <c r="AR38" s="154"/>
     </row>
     <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="149"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="155"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="27"/>
       <c r="E39" s="64"/>
       <c r="F39" s="20"/>
@@ -4006,16 +4019,16 @@
       <c r="AO39" s="20"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="148"/>
+      <c r="AR39" s="154"/>
     </row>
     <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="150">
+      <c r="B40" s="156">
         <v>2</v>
       </c>
-      <c r="C40" s="155"/>
+      <c r="C40" s="161"/>
       <c r="D40" s="27"/>
       <c r="E40" s="64"/>
       <c r="F40" s="20"/>
@@ -4058,12 +4071,12 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="148"/>
+      <c r="AR40" s="154"/>
     </row>
     <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="155"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="27"/>
       <c r="E41" s="64"/>
       <c r="F41" s="20"/>
@@ -4104,16 +4117,16 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="148"/>
+      <c r="AR41" s="154"/>
     </row>
     <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="149" t="s">
+      <c r="A42" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="150">
+      <c r="B42" s="156">
         <v>2</v>
       </c>
-      <c r="C42" s="155"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="27"/>
       <c r="E42" s="64"/>
       <c r="F42" s="20"/>
@@ -4158,12 +4171,12 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="148"/>
+      <c r="AR42" s="154"/>
     </row>
     <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="149"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="155"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="161"/>
       <c r="D43" s="27"/>
       <c r="E43" s="64"/>
       <c r="F43" s="20"/>
@@ -4204,16 +4217,16 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="148"/>
+      <c r="AR43" s="154"/>
     </row>
     <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="149" t="s">
+      <c r="A44" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="150">
+      <c r="B44" s="156">
         <v>2</v>
       </c>
-      <c r="C44" s="155"/>
+      <c r="C44" s="161"/>
       <c r="D44" s="27"/>
       <c r="E44" s="64"/>
       <c r="F44" s="20"/>
@@ -4258,12 +4271,12 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="148"/>
+      <c r="AR44" s="154"/>
     </row>
     <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="144"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="155"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="161"/>
       <c r="D45" s="27"/>
       <c r="E45" s="64"/>
       <c r="F45" s="20"/>
@@ -4304,16 +4317,16 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="75"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="148"/>
+      <c r="AR45" s="154"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="161" t="s">
+      <c r="A46" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="162">
+      <c r="B46" s="168">
         <v>2.5</v>
       </c>
-      <c r="C46" s="155"/>
+      <c r="C46" s="161"/>
       <c r="D46" s="27"/>
       <c r="E46" s="64"/>
       <c r="F46" s="20"/>
@@ -4357,12 +4370,12 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="20"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="148"/>
+      <c r="AR46" s="154"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="163"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="155"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="161"/>
       <c r="D47" s="27"/>
       <c r="E47" s="64"/>
       <c r="F47" s="20"/>
@@ -4403,16 +4416,16 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="75"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="148"/>
+      <c r="AR47" s="154"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="161" t="s">
+      <c r="A48" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="162">
+      <c r="B48" s="168">
         <v>1</v>
       </c>
-      <c r="C48" s="155"/>
+      <c r="C48" s="161"/>
       <c r="D48" s="27"/>
       <c r="E48" s="64"/>
       <c r="F48" s="20"/>
@@ -4455,12 +4468,12 @@
       <c r="AO48" s="20"/>
       <c r="AP48" s="105"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="148"/>
+      <c r="AR48" s="154"/>
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="163"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="155"/>
+      <c r="A49" s="191"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="161"/>
       <c r="D49" s="27"/>
       <c r="E49" s="64"/>
       <c r="F49" s="20"/>
@@ -4501,16 +4514,16 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="75"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="148"/>
+      <c r="AR49" s="154"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="161" t="s">
+      <c r="A50" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="137">
+      <c r="B50" s="143">
         <v>1</v>
       </c>
-      <c r="C50" s="139"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="27"/>
       <c r="E50" s="64"/>
       <c r="F50" s="20"/>
@@ -4553,12 +4566,12 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="75"/>
       <c r="AQ50" s="26"/>
-      <c r="AR50" s="148"/>
+      <c r="AR50" s="154"/>
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="163"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="140"/>
+      <c r="A51" s="169"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="146"/>
       <c r="D51" s="27"/>
       <c r="E51" s="64"/>
       <c r="F51" s="20"/>
@@ -4599,16 +4612,16 @@
       <c r="AO51" s="20"/>
       <c r="AP51" s="75"/>
       <c r="AQ51" s="26"/>
-      <c r="AR51" s="148"/>
+      <c r="AR51" s="154"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="205" t="s">
+      <c r="A52" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="206">
+      <c r="B52" s="212">
         <v>3</v>
       </c>
-      <c r="C52" s="139"/>
+      <c r="C52" s="145"/>
       <c r="D52" s="27"/>
       <c r="E52" s="64"/>
       <c r="F52" s="20"/>
@@ -4653,12 +4666,12 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="75"/>
       <c r="AQ52" s="26"/>
-      <c r="AR52" s="148"/>
+      <c r="AR52" s="154"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="163"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="140"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="146"/>
       <c r="D53" s="27"/>
       <c r="E53" s="64"/>
       <c r="F53" s="20"/>
@@ -4699,16 +4712,16 @@
       <c r="AO53" s="20"/>
       <c r="AP53" s="75"/>
       <c r="AQ53" s="26"/>
-      <c r="AR53" s="148"/>
+      <c r="AR53" s="154"/>
     </row>
     <row r="54" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="161" t="s">
+      <c r="A54" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="162">
+      <c r="B54" s="168">
         <v>2</v>
       </c>
-      <c r="C54" s="155"/>
+      <c r="C54" s="161"/>
       <c r="D54" s="27"/>
       <c r="E54" s="64"/>
       <c r="F54" s="20"/>
@@ -4753,12 +4766,12 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="26"/>
-      <c r="AR54" s="148"/>
+      <c r="AR54" s="154"/>
     </row>
     <row r="55" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="145"/>
-      <c r="B55" s="150"/>
-      <c r="C55" s="155"/>
+      <c r="A55" s="151"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="161"/>
       <c r="D55" s="27"/>
       <c r="E55" s="64"/>
       <c r="F55" s="20"/>
@@ -4798,16 +4811,16 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="26"/>
-      <c r="AR55" s="148"/>
+      <c r="AR55" s="154"/>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="161" t="s">
+      <c r="A56" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="162">
+      <c r="B56" s="168">
         <v>3</v>
       </c>
-      <c r="C56" s="155"/>
+      <c r="C56" s="161"/>
       <c r="D56" s="27"/>
       <c r="E56" s="64"/>
       <c r="F56" s="20"/>
@@ -4852,12 +4865,12 @@
       <c r="AO56" s="20"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="26"/>
-      <c r="AR56" s="148"/>
+      <c r="AR56" s="154"/>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="163"/>
-      <c r="B57" s="162"/>
-      <c r="C57" s="155"/>
+      <c r="A57" s="169"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="161"/>
       <c r="D57" s="27"/>
       <c r="E57" s="64"/>
       <c r="F57" s="20"/>
@@ -4898,16 +4911,16 @@
       <c r="AO57" s="20"/>
       <c r="AP57" s="23"/>
       <c r="AQ57" s="22"/>
-      <c r="AR57" s="147"/>
+      <c r="AR57" s="153"/>
     </row>
     <row r="58" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="202" t="s">
+      <c r="A58" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="153">
+      <c r="B58" s="159">
         <v>0.5</v>
       </c>
-      <c r="C58" s="154"/>
+      <c r="C58" s="160"/>
       <c r="D58" s="41"/>
       <c r="E58" s="80"/>
       <c r="F58" s="43"/>
@@ -4950,14 +4963,14 @@
       <c r="AO58" s="43"/>
       <c r="AP58" s="45"/>
       <c r="AQ58" s="44"/>
-      <c r="AR58" s="146" t="s">
+      <c r="AR58" s="152" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="149"/>
-      <c r="B59" s="150"/>
-      <c r="C59" s="155"/>
+      <c r="A59" s="155"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="161"/>
       <c r="D59" s="27"/>
       <c r="E59" s="64"/>
       <c r="F59" s="20"/>
@@ -4998,16 +5011,16 @@
       <c r="AO59" s="20"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="26"/>
-      <c r="AR59" s="148"/>
+      <c r="AR59" s="154"/>
     </row>
     <row r="60" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="149" t="s">
+      <c r="A60" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="150">
+      <c r="B60" s="156">
         <v>3.5</v>
       </c>
-      <c r="C60" s="155"/>
+      <c r="C60" s="161"/>
       <c r="D60" s="27"/>
       <c r="E60" s="64"/>
       <c r="F60" s="20"/>
@@ -5054,12 +5067,12 @@
       <c r="AO60" s="20"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="26"/>
-      <c r="AR60" s="148"/>
+      <c r="AR60" s="154"/>
     </row>
     <row r="61" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="203"/>
-      <c r="B61" s="199"/>
-      <c r="C61" s="204"/>
+      <c r="A61" s="209"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="210"/>
       <c r="D61" s="36"/>
       <c r="E61" s="54"/>
       <c r="F61" s="39"/>
@@ -5100,16 +5113,16 @@
       <c r="AO61" s="39"/>
       <c r="AP61" s="48"/>
       <c r="AQ61" s="40"/>
-      <c r="AR61" s="147"/>
+      <c r="AR61" s="153"/>
     </row>
     <row r="62" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="197" t="s">
+      <c r="A62" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="153">
+      <c r="B62" s="159">
         <v>2</v>
       </c>
-      <c r="C62" s="200"/>
+      <c r="C62" s="206"/>
       <c r="D62" s="59"/>
       <c r="E62" s="47"/>
       <c r="F62" s="46"/>
@@ -5152,14 +5165,14 @@
       <c r="AO62" s="98"/>
       <c r="AP62" s="60"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="146" t="s">
+      <c r="AR62" s="152" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="198"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="201"/>
+      <c r="A63" s="204"/>
+      <c r="B63" s="205"/>
+      <c r="C63" s="207"/>
       <c r="D63" s="36"/>
       <c r="E63" s="54"/>
       <c r="F63" s="39"/>
@@ -5200,7 +5213,7 @@
       <c r="AO63" s="39"/>
       <c r="AP63" s="48"/>
       <c r="AQ63" s="40"/>
-      <c r="AR63" s="147"/>
+      <c r="AR63" s="153"/>
     </row>
     <row r="64" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="61" t="s">
@@ -5212,7 +5225,7 @@
       </c>
       <c r="C64" s="62">
         <f>SUM(C4:C63)</f>
-        <v>23.5</v>
+        <v>28</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>

--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="573" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB4F434D-761E-48B3-96E4-E79D7B56ED12}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C035752-7669-49A1-9225-D4D5016B3C84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1774,8 +1774,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,10 +2195,14 @@
       <c r="S5" s="126">
         <v>2</v>
       </c>
-      <c r="T5" s="30"/>
+      <c r="T5" s="128">
+        <v>0.5</v>
+      </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-      <c r="W5" s="76"/>
+      <c r="W5" s="126">
+        <v>2</v>
+      </c>
       <c r="X5" s="30"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
@@ -3926,7 +3930,9 @@
       <c r="B38" s="156">
         <v>3.5</v>
       </c>
-      <c r="C38" s="161"/>
+      <c r="C38" s="161">
+        <v>4</v>
+      </c>
       <c r="D38" s="27"/>
       <c r="E38" s="64"/>
       <c r="F38" s="20"/>
@@ -3941,9 +3947,7 @@
       <c r="O38" s="22"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="33"/>
-      <c r="R38" s="124">
-        <v>0.5</v>
-      </c>
+      <c r="R38" s="106"/>
       <c r="S38" s="26"/>
       <c r="T38" s="25">
         <v>1.5</v>
@@ -3993,10 +3997,16 @@
       <c r="O39" s="22"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
+      <c r="R39" s="124">
+        <v>0.5</v>
+      </c>
       <c r="S39" s="26"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="33"/>
+      <c r="T39" s="128">
+        <v>1.5</v>
+      </c>
+      <c r="U39" s="124">
+        <v>2</v>
+      </c>
       <c r="V39" s="20"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27"/>
@@ -4095,7 +4105,9 @@
       <c r="S41" s="26"/>
       <c r="T41" s="27"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="33"/>
+      <c r="V41" s="124">
+        <v>2</v>
+      </c>
       <c r="W41" s="76"/>
       <c r="X41" s="119"/>
       <c r="Y41" s="106"/>
@@ -5225,7 +5237,7 @@
       </c>
       <c r="C64" s="62">
         <f>SUM(C4:C63)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>

--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C035752-7669-49A1-9225-D4D5016B3C84}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05F8DC7-311F-4F95-B047-F765EDC0B4D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,24 +1226,198 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,39 +1433,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1299,153 +1446,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1774,8 +1774,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="131" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AB48" sqref="AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,36 +1803,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="187"/>
-      <c r="D1" s="177" t="s">
+      <c r="D1" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="177" t="s">
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="177" t="s">
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="177" t="s">
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="177" t="s">
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="179"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="202"/>
       <c r="X1" s="180" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="AO1" s="181"/>
       <c r="AP1" s="181"/>
       <c r="AQ1" s="182"/>
-      <c r="AR1" s="174" t="s">
+      <c r="AR1" s="197" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1871,67 +1871,67 @@
       <c r="A2" s="184"/>
       <c r="B2" s="188"/>
       <c r="C2" s="189"/>
-      <c r="D2" s="170">
+      <c r="D2" s="194">
         <v>45327</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="170">
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="194">
         <v>45328</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="170">
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="194">
         <v>45329</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="170">
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="194">
         <v>45330</v>
       </c>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="170">
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="194">
         <v>45331</v>
       </c>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="170">
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="194">
         <v>45334</v>
       </c>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="170">
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="194">
         <v>45335</v>
       </c>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="170">
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="194">
         <v>45336</v>
       </c>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
-      <c r="AJ2" s="170">
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="194">
         <v>45337</v>
       </c>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="172"/>
-      <c r="AN2" s="170">
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="194">
         <v>45339</v>
       </c>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="172"/>
-      <c r="AR2" s="175"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="196"/>
+      <c r="AR2" s="198"/>
     </row>
     <row r="3" spans="1:47" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="185"/>
@@ -2061,16 +2061,16 @@
       <c r="AQ3" s="9">
         <v>17</v>
       </c>
-      <c r="AR3" s="176"/>
+      <c r="AR3" s="199"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="156">
+      <c r="B4" s="158">
         <v>23.5</v>
       </c>
-      <c r="C4" s="161">
+      <c r="C4" s="151">
         <v>5</v>
       </c>
       <c r="D4" s="13"/>
@@ -2153,16 +2153,16 @@
       <c r="AQ4" s="101">
         <v>2</v>
       </c>
-      <c r="AR4" s="196"/>
+      <c r="AR4" s="171"/>
       <c r="AT4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="173"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="161"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="19"/>
       <c r="E5" s="108">
         <v>0.5</v>
@@ -2203,10 +2203,14 @@
       <c r="W5" s="126">
         <v>2</v>
       </c>
-      <c r="X5" s="30"/>
+      <c r="X5" s="128">
+        <v>0.5</v>
+      </c>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="76"/>
+      <c r="AA5" s="126">
+        <v>2</v>
+      </c>
       <c r="AB5" s="30"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="23"/>
@@ -2223,20 +2227,20 @@
       <c r="AO5" s="21"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="76"/>
-      <c r="AR5" s="154"/>
+      <c r="AR5" s="142"/>
       <c r="AT5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="156">
+      <c r="B6" s="158">
         <v>3</v>
       </c>
-      <c r="C6" s="161">
+      <c r="C6" s="151">
         <v>2.5</v>
       </c>
       <c r="D6" s="25">
@@ -2283,16 +2287,16 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="154"/>
+      <c r="AR6" s="142"/>
       <c r="AT6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="193"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="161"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="99">
         <v>2</v>
       </c>
@@ -2337,17 +2341,17 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="154"/>
+      <c r="AR7" s="142"/>
       <c r="AT7" s="131"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="156">
+      <c r="B8" s="158">
         <v>2</v>
       </c>
-      <c r="C8" s="161">
+      <c r="C8" s="151">
         <v>1.5</v>
       </c>
       <c r="D8" s="27"/>
@@ -2394,16 +2398,16 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="154"/>
-      <c r="AT8" s="141" t="s">
+      <c r="AR8" s="142"/>
+      <c r="AT8" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AU8" s="142"/>
+      <c r="AU8" s="204"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="193"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="161"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="151"/>
       <c r="D9" s="27"/>
       <c r="E9" s="108">
         <v>1</v>
@@ -2448,20 +2452,20 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="154"/>
+      <c r="AR9" s="142"/>
       <c r="AT9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AU9" s="132"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="143">
+      <c r="B10" s="145">
         <v>2</v>
       </c>
-      <c r="C10" s="145">
+      <c r="C10" s="147">
         <v>1</v>
       </c>
       <c r="D10" s="27"/>
@@ -2508,16 +2512,16 @@
       <c r="AO10" s="20"/>
       <c r="AP10" s="86"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="154"/>
+      <c r="AR10" s="142"/>
       <c r="AT10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="146"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="27"/>
       <c r="E11" s="64"/>
       <c r="F11" s="20"/>
@@ -2541,7 +2545,9 @@
       <c r="V11" s="20"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27"/>
-      <c r="Y11" s="20"/>
+      <c r="Y11" s="124">
+        <v>1</v>
+      </c>
       <c r="Z11" s="20"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="27"/>
@@ -2560,20 +2566,20 @@
       <c r="AO11" s="21"/>
       <c r="AP11" s="75"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="154"/>
+      <c r="AR11" s="142"/>
       <c r="AT11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AU11" s="134"/>
     </row>
     <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="156">
+      <c r="B12" s="158">
         <v>2</v>
       </c>
-      <c r="C12" s="194"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="27"/>
       <c r="E12" s="64"/>
       <c r="F12" s="20"/>
@@ -2616,12 +2622,12 @@
       </c>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="154"/>
+      <c r="AR12" s="142"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="195"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="27"/>
       <c r="E13" s="64"/>
       <c r="F13" s="20"/>
@@ -2662,16 +2668,16 @@
       <c r="AO13" s="20"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="154"/>
+      <c r="AR13" s="142"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="156">
+      <c r="B14" s="158">
         <v>1</v>
       </c>
-      <c r="C14" s="161"/>
+      <c r="C14" s="151"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
       <c r="F14" s="20"/>
@@ -2714,12 +2720,12 @@
       <c r="AQ14" s="97">
         <v>1</v>
       </c>
-      <c r="AR14" s="154"/>
+      <c r="AR14" s="142"/>
     </row>
     <row r="15" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="197"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="192"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="34"/>
       <c r="E15" s="78"/>
       <c r="F15" s="39"/>
@@ -2762,16 +2768,16 @@
       <c r="AO15" s="31"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="35"/>
-      <c r="AR15" s="153"/>
+      <c r="AR15" s="172"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="213" t="s">
+      <c r="A16" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="159">
+      <c r="B16" s="154">
         <v>0.5</v>
       </c>
-      <c r="C16" s="206">
+      <c r="C16" s="155">
         <v>0.5</v>
       </c>
       <c r="D16" s="41"/>
@@ -2816,14 +2822,14 @@
       <c r="AO16" s="43"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="152" t="s">
+      <c r="AR16" s="141" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="197"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="214"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="19"/>
       <c r="E17" s="124">
         <v>0.5</v>
@@ -2866,16 +2872,16 @@
       <c r="AO17" s="20"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="154"/>
+      <c r="AR17" s="142"/>
     </row>
     <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="193" t="s">
+      <c r="A18" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="156">
+      <c r="B18" s="158">
         <v>1</v>
       </c>
-      <c r="C18" s="201">
+      <c r="C18" s="177">
         <v>1</v>
       </c>
       <c r="D18" s="59"/>
@@ -2920,12 +2926,12 @@
       <c r="AO18" s="46"/>
       <c r="AP18" s="60"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="154"/>
+      <c r="AR18" s="142"/>
     </row>
     <row r="19" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="193"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="161"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="151"/>
       <c r="D19" s="27"/>
       <c r="E19" s="79"/>
       <c r="F19" s="124">
@@ -2968,16 +2974,16 @@
       <c r="AO19" s="20"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="154"/>
+      <c r="AR19" s="142"/>
     </row>
     <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="156">
+      <c r="B20" s="158">
         <v>2</v>
       </c>
-      <c r="C20" s="161">
+      <c r="C20" s="151">
         <v>1.5</v>
       </c>
       <c r="D20" s="27"/>
@@ -3024,12 +3030,12 @@
       <c r="AO20" s="20"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="154"/>
+      <c r="AR20" s="142"/>
     </row>
     <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="161"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="27"/>
       <c r="E21" s="64"/>
       <c r="F21" s="20"/>
@@ -3072,16 +3078,16 @@
       <c r="AO21" s="20"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="154"/>
+      <c r="AR21" s="142"/>
     </row>
     <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="156">
+      <c r="B22" s="158">
         <v>2</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="151">
         <v>3</v>
       </c>
       <c r="D22" s="27"/>
@@ -3128,12 +3134,12 @@
       <c r="AO22" s="20"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="154"/>
+      <c r="AR22" s="142"/>
     </row>
     <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="161"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="151"/>
       <c r="D23" s="27"/>
       <c r="E23" s="64"/>
       <c r="F23" s="20"/>
@@ -3178,16 +3184,16 @@
       <c r="AO23" s="20"/>
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="154"/>
+      <c r="AR23" s="142"/>
     </row>
     <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="190" t="s">
+      <c r="A24" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="143">
+      <c r="B24" s="145">
         <v>2</v>
       </c>
-      <c r="C24" s="145">
+      <c r="C24" s="147">
         <v>1.5</v>
       </c>
       <c r="D24" s="27"/>
@@ -3236,12 +3242,12 @@
       <c r="AO24" s="20"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="154"/>
+      <c r="AR24" s="142"/>
     </row>
     <row r="25" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="191"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="146"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="148"/>
       <c r="D25" s="36"/>
       <c r="E25" s="54"/>
       <c r="F25" s="39"/>
@@ -3286,16 +3292,16 @@
       <c r="AO25" s="39"/>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="40"/>
-      <c r="AR25" s="154"/>
+      <c r="AR25" s="142"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="199">
+      <c r="B26" s="175">
         <v>2</v>
       </c>
-      <c r="C26" s="200">
+      <c r="C26" s="176">
         <v>2</v>
       </c>
       <c r="D26" s="59"/>
@@ -3342,14 +3348,14 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="60"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="149" t="s">
+      <c r="AR26" s="207" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="166"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="146"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="27"/>
       <c r="E27" s="64"/>
       <c r="F27" s="20"/>
@@ -3394,16 +3400,16 @@
       <c r="AO27" s="64"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="26"/>
-      <c r="AR27" s="147"/>
+      <c r="AR27" s="205"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="143">
+      <c r="B28" s="145">
         <v>2</v>
       </c>
-      <c r="C28" s="145">
+      <c r="C28" s="147">
         <v>2</v>
       </c>
       <c r="D28" s="59"/>
@@ -3450,12 +3456,12 @@
       <c r="AO28" s="20"/>
       <c r="AP28" s="60"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="147"/>
+      <c r="AR28" s="205"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="166"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="146"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="148"/>
       <c r="D29" s="59"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46"/>
@@ -3500,16 +3506,16 @@
       <c r="AO29" s="20"/>
       <c r="AP29" s="60"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="147"/>
+      <c r="AR29" s="205"/>
     </row>
     <row r="30" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="143">
+      <c r="B30" s="145">
         <v>2.5</v>
       </c>
-      <c r="C30" s="145">
+      <c r="C30" s="147">
         <v>2</v>
       </c>
       <c r="D30" s="59"/>
@@ -3556,12 +3562,12 @@
       <c r="AO30" s="20"/>
       <c r="AP30" s="60"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="147"/>
+      <c r="AR30" s="205"/>
     </row>
     <row r="31" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="146"/>
+      <c r="A31" s="209"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="46"/>
@@ -3606,16 +3612,16 @@
       <c r="AO31" s="20"/>
       <c r="AP31" s="60"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="147"/>
+      <c r="AR31" s="205"/>
     </row>
     <row r="32" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="143">
+      <c r="B32" s="145">
         <v>2</v>
       </c>
-      <c r="C32" s="145">
+      <c r="C32" s="147">
         <v>3</v>
       </c>
       <c r="D32" s="59"/>
@@ -3660,12 +3666,12 @@
       <c r="AO32" s="20"/>
       <c r="AP32" s="60"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="147"/>
+      <c r="AR32" s="205"/>
     </row>
     <row r="33" spans="1:45" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="163"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="214"/>
       <c r="D33" s="81"/>
       <c r="E33" s="87"/>
       <c r="F33" s="88"/>
@@ -3710,16 +3716,16 @@
       <c r="AO33" s="88"/>
       <c r="AP33" s="90"/>
       <c r="AQ33" s="89"/>
-      <c r="AR33" s="148"/>
+      <c r="AR33" s="206"/>
     </row>
     <row r="34" spans="1:45" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="144">
+      <c r="B34" s="146">
         <v>0.5</v>
       </c>
-      <c r="C34" s="146"/>
+      <c r="C34" s="148"/>
       <c r="D34" s="59"/>
       <c r="E34" s="47"/>
       <c r="F34" s="46"/>
@@ -3762,15 +3768,15 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="60"/>
       <c r="AQ34" s="49"/>
-      <c r="AR34" s="147" t="s">
+      <c r="AR34" s="205" t="s">
         <v>26</v>
       </c>
       <c r="AS34" s="65"/>
     </row>
     <row r="35" spans="1:45" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="204"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="207"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="163"/>
       <c r="D35" s="36"/>
       <c r="E35" s="54"/>
       <c r="F35" s="39"/>
@@ -3813,17 +3819,17 @@
       <c r="AO35" s="39"/>
       <c r="AP35" s="48"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="148"/>
+      <c r="AR35" s="206"/>
       <c r="AS35" s="65"/>
     </row>
     <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="159">
+      <c r="B36" s="154">
         <v>2</v>
       </c>
-      <c r="C36" s="160">
+      <c r="C36" s="168">
         <v>1.5</v>
       </c>
       <c r="D36" s="41"/>
@@ -3870,15 +3876,15 @@
       <c r="AO36" s="43"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="152" t="s">
+      <c r="AR36" s="141" t="s">
         <v>10</v>
       </c>
       <c r="AS36" s="65"/>
     </row>
     <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="158"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="161"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="151"/>
       <c r="D37" s="27"/>
       <c r="E37" s="64"/>
       <c r="F37" s="20"/>
@@ -3921,16 +3927,16 @@
       <c r="AO37" s="20"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="26"/>
-      <c r="AR37" s="154"/>
+      <c r="AR37" s="142"/>
     </row>
     <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="156">
+      <c r="B38" s="158">
         <v>3.5</v>
       </c>
-      <c r="C38" s="161">
+      <c r="C38" s="151">
         <v>4</v>
       </c>
       <c r="D38" s="27"/>
@@ -3977,12 +3983,12 @@
       <c r="AO38" s="20"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="154"/>
+      <c r="AR38" s="142"/>
     </row>
     <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="161"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="151"/>
       <c r="D39" s="27"/>
       <c r="E39" s="64"/>
       <c r="F39" s="20"/>
@@ -4029,16 +4035,18 @@
       <c r="AO39" s="20"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="154"/>
+      <c r="AR39" s="142"/>
     </row>
     <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="156">
+      <c r="B40" s="158">
         <v>2</v>
       </c>
-      <c r="C40" s="161"/>
+      <c r="C40" s="151">
+        <v>2.5</v>
+      </c>
       <c r="D40" s="27"/>
       <c r="E40" s="64"/>
       <c r="F40" s="20"/>
@@ -4081,12 +4089,12 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="154"/>
+      <c r="AR40" s="142"/>
     </row>
     <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="161"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="151"/>
       <c r="D41" s="27"/>
       <c r="E41" s="64"/>
       <c r="F41" s="20"/>
@@ -4108,7 +4116,9 @@
       <c r="V41" s="124">
         <v>2</v>
       </c>
-      <c r="W41" s="76"/>
+      <c r="W41" s="126">
+        <v>0.5</v>
+      </c>
       <c r="X41" s="119"/>
       <c r="Y41" s="106"/>
       <c r="Z41" s="106"/>
@@ -4129,16 +4139,18 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="154"/>
+      <c r="AR41" s="142"/>
     </row>
     <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="156">
+      <c r="B42" s="158">
         <v>2</v>
       </c>
-      <c r="C42" s="161"/>
+      <c r="C42" s="151">
+        <v>2</v>
+      </c>
       <c r="D42" s="27"/>
       <c r="E42" s="64"/>
       <c r="F42" s="20"/>
@@ -4183,12 +4195,12 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="154"/>
+      <c r="AR42" s="142"/>
     </row>
     <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="155"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="161"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="27"/>
       <c r="E43" s="64"/>
       <c r="F43" s="20"/>
@@ -4209,8 +4221,12 @@
       <c r="U43" s="21"/>
       <c r="V43" s="20"/>
       <c r="W43" s="26"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="20"/>
+      <c r="X43" s="128">
+        <v>1.5</v>
+      </c>
+      <c r="Y43" s="124">
+        <v>0.5</v>
+      </c>
       <c r="Z43" s="20"/>
       <c r="AA43" s="76"/>
       <c r="AB43" s="119"/>
@@ -4229,16 +4245,16 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="154"/>
+      <c r="AR43" s="142"/>
     </row>
     <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="156">
+      <c r="B44" s="158">
         <v>2</v>
       </c>
-      <c r="C44" s="161"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="27"/>
       <c r="E44" s="64"/>
       <c r="F44" s="20"/>
@@ -4283,12 +4299,12 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="154"/>
+      <c r="AR44" s="142"/>
     </row>
     <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="150"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="161"/>
+      <c r="A45" s="208"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="151"/>
       <c r="D45" s="27"/>
       <c r="E45" s="64"/>
       <c r="F45" s="20"/>
@@ -4310,8 +4326,12 @@
       <c r="V45" s="21"/>
       <c r="W45" s="26"/>
       <c r="X45" s="27"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
+      <c r="Y45" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="Z45" s="124">
+        <v>1.5</v>
+      </c>
       <c r="AA45" s="26"/>
       <c r="AB45" s="119"/>
       <c r="AC45" s="106"/>
@@ -4329,16 +4349,16 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="75"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="154"/>
+      <c r="AR45" s="142"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="167" t="s">
+      <c r="A46" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="168">
+      <c r="B46" s="159">
         <v>2.5</v>
       </c>
-      <c r="C46" s="161"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="27"/>
       <c r="E46" s="64"/>
       <c r="F46" s="20"/>
@@ -4382,12 +4402,12 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="20"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="154"/>
+      <c r="AR46" s="142"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="169"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="161"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="151"/>
       <c r="D47" s="27"/>
       <c r="E47" s="64"/>
       <c r="F47" s="20"/>
@@ -4410,9 +4430,13 @@
       <c r="W47" s="22"/>
       <c r="X47" s="19"/>
       <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
+      <c r="Z47" s="124">
+        <v>0.5</v>
+      </c>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="119"/>
+      <c r="AB47" s="128">
+        <v>1.5</v>
+      </c>
       <c r="AC47" s="106"/>
       <c r="AD47" s="105"/>
       <c r="AE47" s="111"/>
@@ -4428,16 +4452,16 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="75"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="154"/>
+      <c r="AR47" s="142"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="190" t="s">
+      <c r="A48" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="168">
+      <c r="B48" s="159">
         <v>1</v>
       </c>
-      <c r="C48" s="161"/>
+      <c r="C48" s="151"/>
       <c r="D48" s="27"/>
       <c r="E48" s="64"/>
       <c r="F48" s="20"/>
@@ -4480,12 +4504,12 @@
       <c r="AO48" s="20"/>
       <c r="AP48" s="105"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="154"/>
+      <c r="AR48" s="142"/>
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="191"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="161"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="151"/>
       <c r="D49" s="27"/>
       <c r="E49" s="64"/>
       <c r="F49" s="20"/>
@@ -4526,16 +4550,16 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="75"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="154"/>
+      <c r="AR49" s="142"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="167" t="s">
+      <c r="A50" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="143">
+      <c r="B50" s="145">
         <v>1</v>
       </c>
-      <c r="C50" s="145"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="27"/>
       <c r="E50" s="64"/>
       <c r="F50" s="20"/>
@@ -4578,12 +4602,12 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="75"/>
       <c r="AQ50" s="26"/>
-      <c r="AR50" s="154"/>
+      <c r="AR50" s="142"/>
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="169"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="146"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="148"/>
       <c r="D51" s="27"/>
       <c r="E51" s="64"/>
       <c r="F51" s="20"/>
@@ -4624,16 +4648,16 @@
       <c r="AO51" s="20"/>
       <c r="AP51" s="75"/>
       <c r="AQ51" s="26"/>
-      <c r="AR51" s="154"/>
+      <c r="AR51" s="142"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="212">
+      <c r="B52" s="150">
         <v>3</v>
       </c>
-      <c r="C52" s="145"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="27"/>
       <c r="E52" s="64"/>
       <c r="F52" s="20"/>
@@ -4678,12 +4702,12 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="75"/>
       <c r="AQ52" s="26"/>
-      <c r="AR52" s="154"/>
+      <c r="AR52" s="142"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="169"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="146"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="148"/>
       <c r="D53" s="27"/>
       <c r="E53" s="64"/>
       <c r="F53" s="20"/>
@@ -4724,16 +4748,16 @@
       <c r="AO53" s="20"/>
       <c r="AP53" s="75"/>
       <c r="AQ53" s="26"/>
-      <c r="AR53" s="154"/>
+      <c r="AR53" s="142"/>
     </row>
     <row r="54" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="168">
+      <c r="B54" s="159">
         <v>2</v>
       </c>
-      <c r="C54" s="161"/>
+      <c r="C54" s="151"/>
       <c r="D54" s="27"/>
       <c r="E54" s="64"/>
       <c r="F54" s="20"/>
@@ -4778,12 +4802,12 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="26"/>
-      <c r="AR54" s="154"/>
+      <c r="AR54" s="142"/>
     </row>
     <row r="55" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="151"/>
-      <c r="B55" s="156"/>
-      <c r="C55" s="161"/>
+      <c r="A55" s="209"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="151"/>
       <c r="D55" s="27"/>
       <c r="E55" s="64"/>
       <c r="F55" s="20"/>
@@ -4823,16 +4847,16 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="26"/>
-      <c r="AR55" s="154"/>
+      <c r="AR55" s="142"/>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="168">
+      <c r="B56" s="159">
         <v>3</v>
       </c>
-      <c r="C56" s="161"/>
+      <c r="C56" s="151"/>
       <c r="D56" s="27"/>
       <c r="E56" s="64"/>
       <c r="F56" s="20"/>
@@ -4877,12 +4901,12 @@
       <c r="AO56" s="20"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="26"/>
-      <c r="AR56" s="154"/>
+      <c r="AR56" s="142"/>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="169"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="161"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="151"/>
       <c r="D57" s="27"/>
       <c r="E57" s="64"/>
       <c r="F57" s="20"/>
@@ -4923,16 +4947,16 @@
       <c r="AO57" s="20"/>
       <c r="AP57" s="23"/>
       <c r="AQ57" s="22"/>
-      <c r="AR57" s="153"/>
+      <c r="AR57" s="172"/>
     </row>
     <row r="58" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="208" t="s">
+      <c r="A58" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="159">
+      <c r="B58" s="154">
         <v>0.5</v>
       </c>
-      <c r="C58" s="160"/>
+      <c r="C58" s="168"/>
       <c r="D58" s="41"/>
       <c r="E58" s="80"/>
       <c r="F58" s="43"/>
@@ -4975,14 +4999,14 @@
       <c r="AO58" s="43"/>
       <c r="AP58" s="45"/>
       <c r="AQ58" s="44"/>
-      <c r="AR58" s="152" t="s">
+      <c r="AR58" s="141" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="155"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="161"/>
+      <c r="A59" s="157"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="151"/>
       <c r="D59" s="27"/>
       <c r="E59" s="64"/>
       <c r="F59" s="20"/>
@@ -5023,16 +5047,16 @@
       <c r="AO59" s="20"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="26"/>
-      <c r="AR59" s="154"/>
+      <c r="AR59" s="142"/>
     </row>
     <row r="60" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="155" t="s">
+      <c r="A60" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="156">
+      <c r="B60" s="158">
         <v>3.5</v>
       </c>
-      <c r="C60" s="161"/>
+      <c r="C60" s="151"/>
       <c r="D60" s="27"/>
       <c r="E60" s="64"/>
       <c r="F60" s="20"/>
@@ -5079,12 +5103,12 @@
       <c r="AO60" s="20"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="26"/>
-      <c r="AR60" s="154"/>
+      <c r="AR60" s="142"/>
     </row>
     <row r="61" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="209"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="210"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="36"/>
       <c r="E61" s="54"/>
       <c r="F61" s="39"/>
@@ -5125,16 +5149,16 @@
       <c r="AO61" s="39"/>
       <c r="AP61" s="48"/>
       <c r="AQ61" s="40"/>
-      <c r="AR61" s="153"/>
+      <c r="AR61" s="172"/>
     </row>
     <row r="62" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="203" t="s">
+      <c r="A62" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="159">
+      <c r="B62" s="154">
         <v>2</v>
       </c>
-      <c r="C62" s="206"/>
+      <c r="C62" s="155"/>
       <c r="D62" s="59"/>
       <c r="E62" s="47"/>
       <c r="F62" s="46"/>
@@ -5177,14 +5201,14 @@
       <c r="AO62" s="98"/>
       <c r="AP62" s="60"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="152" t="s">
+      <c r="AR62" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="204"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="207"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="163"/>
       <c r="D63" s="36"/>
       <c r="E63" s="54"/>
       <c r="F63" s="39"/>
@@ -5225,7 +5249,7 @@
       <c r="AO63" s="39"/>
       <c r="AP63" s="48"/>
       <c r="AQ63" s="40"/>
-      <c r="AR63" s="153"/>
+      <c r="AR63" s="172"/>
     </row>
     <row r="64" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="61" t="s">
@@ -5237,7 +5261,7 @@
       </c>
       <c r="C64" s="62">
         <f>SUM(C4:C63)</f>
-        <v>32</v>
+        <v>36.5</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -5283,6 +5307,103 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AR26:AR33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="AR62:AR63"/>
+    <mergeCell ref="AR58:AR61"/>
+    <mergeCell ref="AR36:AR57"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AR4:AR15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
     <mergeCell ref="AR16:AR25"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
@@ -5307,103 +5428,6 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AR4:AR15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AR26:AR33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="AR62:AR63"/>
-    <mergeCell ref="AR58:AR61"/>
-    <mergeCell ref="AR36:AR57"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5412,6 +5436,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005568FE7337F58E4A874BCAA8F781D766" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7c72f08c743f3e1d890da655f588b9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e5e9ffa-1d28-4d43-989d-34211c67c0f1" xmlns:ns4="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7c8491fffaeb43ce16da0fe91667a77" ns3:_="" ns4:_="">
     <xsd:import namespace="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
@@ -5634,24 +5675,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66DC004-E347-46EB-9C38-9AF8EC95E3A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5668,29 +5717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="619" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05F8DC7-311F-4F95-B047-F765EDC0B4D7}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555B4DC9-28CB-49F6-A16C-EEF44E8026E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1226,28 +1226,214 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1256,196 +1442,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1774,8 +1774,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="131" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AB48" sqref="AB48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ56" sqref="AJ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,36 +1803,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="187"/>
-      <c r="D1" s="200" t="s">
+      <c r="D1" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="200" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="200" t="s">
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="200" t="s">
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="200" t="s">
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="202"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="179"/>
       <c r="X1" s="180" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="AO1" s="181"/>
       <c r="AP1" s="181"/>
       <c r="AQ1" s="182"/>
-      <c r="AR1" s="197" t="s">
+      <c r="AR1" s="174" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1871,67 +1871,67 @@
       <c r="A2" s="184"/>
       <c r="B2" s="188"/>
       <c r="C2" s="189"/>
-      <c r="D2" s="194">
+      <c r="D2" s="170">
         <v>45327</v>
       </c>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="194">
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="170">
         <v>45328</v>
       </c>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="194">
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="170">
         <v>45329</v>
       </c>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="194">
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="170">
         <v>45330</v>
       </c>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="194">
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="170">
         <v>45331</v>
       </c>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="194">
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="170">
         <v>45334</v>
       </c>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="194">
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="170">
         <v>45335</v>
       </c>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="194">
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="170">
         <v>45336</v>
       </c>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="194">
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="170">
         <v>45337</v>
       </c>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="194">
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="172"/>
+      <c r="AN2" s="170">
         <v>45339</v>
       </c>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="196"/>
-      <c r="AR2" s="198"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="172"/>
+      <c r="AR2" s="175"/>
     </row>
     <row r="3" spans="1:47" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="185"/>
@@ -2061,16 +2061,16 @@
       <c r="AQ3" s="9">
         <v>17</v>
       </c>
-      <c r="AR3" s="199"/>
+      <c r="AR3" s="176"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="158">
+      <c r="B4" s="156">
         <v>23.5</v>
       </c>
-      <c r="C4" s="151">
+      <c r="C4" s="161">
         <v>5</v>
       </c>
       <c r="D4" s="13"/>
@@ -2153,16 +2153,16 @@
       <c r="AQ4" s="101">
         <v>2</v>
       </c>
-      <c r="AR4" s="171"/>
+      <c r="AR4" s="196"/>
       <c r="AT4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="151"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="161"/>
       <c r="D5" s="19"/>
       <c r="E5" s="108">
         <v>0.5</v>
@@ -2214,7 +2214,9 @@
       <c r="AB5" s="30"/>
       <c r="AC5" s="21"/>
       <c r="AD5" s="23"/>
-      <c r="AE5" s="76"/>
+      <c r="AE5" s="126">
+        <v>2</v>
+      </c>
       <c r="AF5" s="30"/>
       <c r="AG5" s="21"/>
       <c r="AH5" s="21"/>
@@ -2227,20 +2229,20 @@
       <c r="AO5" s="21"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="76"/>
-      <c r="AR5" s="142"/>
+      <c r="AR5" s="154"/>
       <c r="AT5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="158">
+      <c r="B6" s="156">
         <v>3</v>
       </c>
-      <c r="C6" s="151">
+      <c r="C6" s="161">
         <v>2.5</v>
       </c>
       <c r="D6" s="25">
@@ -2287,16 +2289,16 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="142"/>
+      <c r="AR6" s="154"/>
       <c r="AT6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="173"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="151"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="161"/>
       <c r="D7" s="99">
         <v>2</v>
       </c>
@@ -2341,17 +2343,17 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="142"/>
+      <c r="AR7" s="154"/>
       <c r="AT7" s="131"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="158">
+      <c r="B8" s="156">
         <v>2</v>
       </c>
-      <c r="C8" s="151">
+      <c r="C8" s="161">
         <v>1.5</v>
       </c>
       <c r="D8" s="27"/>
@@ -2398,16 +2400,16 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="142"/>
-      <c r="AT8" s="203" t="s">
+      <c r="AR8" s="154"/>
+      <c r="AT8" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="AU8" s="204"/>
+      <c r="AU8" s="142"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="151"/>
+      <c r="A9" s="193"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="161"/>
       <c r="D9" s="27"/>
       <c r="E9" s="108">
         <v>1</v>
@@ -2452,20 +2454,20 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="142"/>
+      <c r="AR9" s="154"/>
       <c r="AT9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AU9" s="132"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="145">
+      <c r="B10" s="143">
         <v>2</v>
       </c>
-      <c r="C10" s="147">
+      <c r="C10" s="145">
         <v>1</v>
       </c>
       <c r="D10" s="27"/>
@@ -2512,16 +2514,16 @@
       <c r="AO10" s="20"/>
       <c r="AP10" s="86"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="142"/>
+      <c r="AR10" s="154"/>
       <c r="AT10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="178"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="148"/>
+      <c r="A11" s="202"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="27"/>
       <c r="E11" s="64"/>
       <c r="F11" s="20"/>
@@ -2566,20 +2568,20 @@
       <c r="AO11" s="21"/>
       <c r="AP11" s="75"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="142"/>
+      <c r="AR11" s="154"/>
       <c r="AT11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AU11" s="134"/>
     </row>
     <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="158">
+      <c r="B12" s="156">
         <v>2</v>
       </c>
-      <c r="C12" s="192"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="27"/>
       <c r="E12" s="64"/>
       <c r="F12" s="20"/>
@@ -2622,12 +2624,12 @@
       </c>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="142"/>
+      <c r="AR12" s="154"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="193"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="195"/>
       <c r="D13" s="27"/>
       <c r="E13" s="64"/>
       <c r="F13" s="20"/>
@@ -2668,16 +2670,16 @@
       <c r="AO13" s="20"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="142"/>
+      <c r="AR13" s="154"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="158">
+      <c r="B14" s="156">
         <v>1</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="161"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
       <c r="F14" s="20"/>
@@ -2720,12 +2722,12 @@
       <c r="AQ14" s="97">
         <v>1</v>
       </c>
-      <c r="AR14" s="142"/>
+      <c r="AR14" s="154"/>
     </row>
     <row r="15" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="153"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="190"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="192"/>
       <c r="D15" s="34"/>
       <c r="E15" s="78"/>
       <c r="F15" s="39"/>
@@ -2768,16 +2770,16 @@
       <c r="AO15" s="31"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="35"/>
-      <c r="AR15" s="172"/>
+      <c r="AR15" s="153"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="154">
+      <c r="B16" s="159">
         <v>0.5</v>
       </c>
-      <c r="C16" s="155">
+      <c r="C16" s="206">
         <v>0.5</v>
       </c>
       <c r="D16" s="41"/>
@@ -2822,14 +2824,14 @@
       <c r="AO16" s="43"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="141" t="s">
+      <c r="AR16" s="152" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="153"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="156"/>
+      <c r="A17" s="197"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="214"/>
       <c r="D17" s="19"/>
       <c r="E17" s="124">
         <v>0.5</v>
@@ -2872,16 +2874,16 @@
       <c r="AO17" s="20"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="142"/>
+      <c r="AR17" s="154"/>
     </row>
     <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="158">
+      <c r="B18" s="156">
         <v>1</v>
       </c>
-      <c r="C18" s="177">
+      <c r="C18" s="201">
         <v>1</v>
       </c>
       <c r="D18" s="59"/>
@@ -2926,12 +2928,12 @@
       <c r="AO18" s="46"/>
       <c r="AP18" s="60"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="142"/>
+      <c r="AR18" s="154"/>
     </row>
     <row r="19" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="151"/>
+      <c r="A19" s="193"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="27"/>
       <c r="E19" s="79"/>
       <c r="F19" s="124">
@@ -2974,16 +2976,16 @@
       <c r="AO19" s="20"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="142"/>
+      <c r="AR19" s="154"/>
     </row>
     <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="158">
+      <c r="B20" s="156">
         <v>2</v>
       </c>
-      <c r="C20" s="151">
+      <c r="C20" s="161">
         <v>1.5</v>
       </c>
       <c r="D20" s="27"/>
@@ -3030,12 +3032,12 @@
       <c r="AO20" s="20"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="142"/>
+      <c r="AR20" s="154"/>
     </row>
     <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="179"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="151"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="27"/>
       <c r="E21" s="64"/>
       <c r="F21" s="20"/>
@@ -3078,16 +3080,16 @@
       <c r="AO21" s="20"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="142"/>
+      <c r="AR21" s="154"/>
     </row>
     <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="158">
+      <c r="B22" s="156">
         <v>2</v>
       </c>
-      <c r="C22" s="151">
+      <c r="C22" s="161">
         <v>3</v>
       </c>
       <c r="D22" s="27"/>
@@ -3134,12 +3136,12 @@
       <c r="AO22" s="20"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="142"/>
+      <c r="AR22" s="154"/>
     </row>
     <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="179"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="151"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="161"/>
       <c r="D23" s="27"/>
       <c r="E23" s="64"/>
       <c r="F23" s="20"/>
@@ -3184,16 +3186,16 @@
       <c r="AO23" s="20"/>
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="142"/>
+      <c r="AR23" s="154"/>
     </row>
     <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="145">
+      <c r="B24" s="143">
         <v>2</v>
       </c>
-      <c r="C24" s="147">
+      <c r="C24" s="145">
         <v>1.5</v>
       </c>
       <c r="D24" s="27"/>
@@ -3242,12 +3244,12 @@
       <c r="AO24" s="20"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="142"/>
+      <c r="AR24" s="154"/>
     </row>
     <row r="25" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="165"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="148"/>
+      <c r="A25" s="191"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="36"/>
       <c r="E25" s="54"/>
       <c r="F25" s="39"/>
@@ -3292,16 +3294,16 @@
       <c r="AO25" s="39"/>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="40"/>
-      <c r="AR25" s="142"/>
+      <c r="AR25" s="154"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="198" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="175">
+      <c r="B26" s="199">
         <v>2</v>
       </c>
-      <c r="C26" s="176">
+      <c r="C26" s="200">
         <v>2</v>
       </c>
       <c r="D26" s="59"/>
@@ -3348,14 +3350,14 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="60"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="207" t="s">
+      <c r="AR26" s="149" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="148"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="27"/>
       <c r="E27" s="64"/>
       <c r="F27" s="20"/>
@@ -3400,16 +3402,16 @@
       <c r="AO27" s="64"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="26"/>
-      <c r="AR27" s="205"/>
+      <c r="AR27" s="147"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="145">
+      <c r="B28" s="143">
         <v>2</v>
       </c>
-      <c r="C28" s="147">
+      <c r="C28" s="145">
         <v>2</v>
       </c>
       <c r="D28" s="59"/>
@@ -3456,12 +3458,12 @@
       <c r="AO28" s="20"/>
       <c r="AP28" s="60"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="205"/>
+      <c r="AR28" s="147"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="148"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="146"/>
       <c r="D29" s="59"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46"/>
@@ -3506,16 +3508,16 @@
       <c r="AO29" s="20"/>
       <c r="AP29" s="60"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="205"/>
+      <c r="AR29" s="147"/>
     </row>
     <row r="30" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="208" t="s">
+      <c r="A30" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="145">
+      <c r="B30" s="143">
         <v>2.5</v>
       </c>
-      <c r="C30" s="147">
+      <c r="C30" s="145">
         <v>2</v>
       </c>
       <c r="D30" s="59"/>
@@ -3562,12 +3564,12 @@
       <c r="AO30" s="20"/>
       <c r="AP30" s="60"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="205"/>
+      <c r="AR30" s="147"/>
     </row>
     <row r="31" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="209"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="148"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="146"/>
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="46"/>
@@ -3612,16 +3614,16 @@
       <c r="AO31" s="20"/>
       <c r="AP31" s="60"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="205"/>
+      <c r="AR31" s="147"/>
     </row>
     <row r="32" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="145">
+      <c r="B32" s="143">
         <v>2</v>
       </c>
-      <c r="C32" s="147">
+      <c r="C32" s="145">
         <v>3</v>
       </c>
       <c r="D32" s="59"/>
@@ -3666,12 +3668,12 @@
       <c r="AO32" s="20"/>
       <c r="AP32" s="60"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="205"/>
+      <c r="AR32" s="147"/>
     </row>
     <row r="33" spans="1:45" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="212"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="214"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
       <c r="D33" s="81"/>
       <c r="E33" s="87"/>
       <c r="F33" s="88"/>
@@ -3716,16 +3718,16 @@
       <c r="AO33" s="88"/>
       <c r="AP33" s="90"/>
       <c r="AQ33" s="89"/>
-      <c r="AR33" s="206"/>
+      <c r="AR33" s="148"/>
     </row>
     <row r="34" spans="1:45" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="146">
+      <c r="B34" s="144">
         <v>0.5</v>
       </c>
-      <c r="C34" s="148"/>
+      <c r="C34" s="146"/>
       <c r="D34" s="59"/>
       <c r="E34" s="47"/>
       <c r="F34" s="46"/>
@@ -3768,15 +3770,15 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="60"/>
       <c r="AQ34" s="49"/>
-      <c r="AR34" s="205" t="s">
+      <c r="AR34" s="147" t="s">
         <v>26</v>
       </c>
       <c r="AS34" s="65"/>
     </row>
     <row r="35" spans="1:45" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="161"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="163"/>
+      <c r="A35" s="204"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="207"/>
       <c r="D35" s="36"/>
       <c r="E35" s="54"/>
       <c r="F35" s="39"/>
@@ -3819,17 +3821,17 @@
       <c r="AO35" s="39"/>
       <c r="AP35" s="48"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="206"/>
+      <c r="AR35" s="148"/>
       <c r="AS35" s="65"/>
     </row>
     <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="210" t="s">
+      <c r="A36" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="154">
+      <c r="B36" s="159">
         <v>2</v>
       </c>
-      <c r="C36" s="168">
+      <c r="C36" s="160">
         <v>1.5</v>
       </c>
       <c r="D36" s="41"/>
@@ -3876,15 +3878,15 @@
       <c r="AO36" s="43"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="141" t="s">
+      <c r="AR36" s="152" t="s">
         <v>10</v>
       </c>
       <c r="AS36" s="65"/>
     </row>
     <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="151"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="27"/>
       <c r="E37" s="64"/>
       <c r="F37" s="20"/>
@@ -3927,16 +3929,16 @@
       <c r="AO37" s="20"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="26"/>
-      <c r="AR37" s="142"/>
+      <c r="AR37" s="154"/>
     </row>
     <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="157" t="s">
+      <c r="A38" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="158">
+      <c r="B38" s="156">
         <v>3.5</v>
       </c>
-      <c r="C38" s="151">
+      <c r="C38" s="161">
         <v>4</v>
       </c>
       <c r="D38" s="27"/>
@@ -3983,12 +3985,12 @@
       <c r="AO38" s="20"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="142"/>
+      <c r="AR38" s="154"/>
     </row>
     <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="157"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="151"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="27"/>
       <c r="E39" s="64"/>
       <c r="F39" s="20"/>
@@ -4035,16 +4037,16 @@
       <c r="AO39" s="20"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="142"/>
+      <c r="AR39" s="154"/>
     </row>
     <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="158">
+      <c r="B40" s="156">
         <v>2</v>
       </c>
-      <c r="C40" s="151">
+      <c r="C40" s="161">
         <v>2.5</v>
       </c>
       <c r="D40" s="27"/>
@@ -4089,12 +4091,12 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="142"/>
+      <c r="AR40" s="154"/>
     </row>
     <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="157"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="151"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="27"/>
       <c r="E41" s="64"/>
       <c r="F41" s="20"/>
@@ -4139,16 +4141,16 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="142"/>
+      <c r="AR41" s="154"/>
     </row>
     <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="158">
+      <c r="B42" s="156">
         <v>2</v>
       </c>
-      <c r="C42" s="151">
+      <c r="C42" s="161">
         <v>2</v>
       </c>
       <c r="D42" s="27"/>
@@ -4195,12 +4197,12 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="142"/>
+      <c r="AR42" s="154"/>
     </row>
     <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="157"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="151"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="161"/>
       <c r="D43" s="27"/>
       <c r="E43" s="64"/>
       <c r="F43" s="20"/>
@@ -4245,16 +4247,16 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="142"/>
+      <c r="AR43" s="154"/>
     </row>
     <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="158">
+      <c r="B44" s="156">
         <v>2</v>
       </c>
-      <c r="C44" s="151"/>
+      <c r="C44" s="161"/>
       <c r="D44" s="27"/>
       <c r="E44" s="64"/>
       <c r="F44" s="20"/>
@@ -4299,12 +4301,12 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="142"/>
+      <c r="AR44" s="154"/>
     </row>
     <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="208"/>
-      <c r="B45" s="158"/>
-      <c r="C45" s="151"/>
+      <c r="A45" s="150"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="161"/>
       <c r="D45" s="27"/>
       <c r="E45" s="64"/>
       <c r="F45" s="20"/>
@@ -4349,16 +4351,16 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="75"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="142"/>
+      <c r="AR45" s="154"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="143" t="s">
+      <c r="A46" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="159">
+      <c r="B46" s="168">
         <v>2.5</v>
       </c>
-      <c r="C46" s="151"/>
+      <c r="C46" s="161"/>
       <c r="D46" s="27"/>
       <c r="E46" s="64"/>
       <c r="F46" s="20"/>
@@ -4402,12 +4404,12 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="20"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="142"/>
+      <c r="AR46" s="154"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="144"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="151"/>
+      <c r="A47" s="169"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="161"/>
       <c r="D47" s="27"/>
       <c r="E47" s="64"/>
       <c r="F47" s="20"/>
@@ -4452,16 +4454,16 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="75"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="142"/>
+      <c r="AR47" s="154"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="164" t="s">
+      <c r="A48" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="159">
+      <c r="B48" s="168">
         <v>1</v>
       </c>
-      <c r="C48" s="151"/>
+      <c r="C48" s="161"/>
       <c r="D48" s="27"/>
       <c r="E48" s="64"/>
       <c r="F48" s="20"/>
@@ -4504,12 +4506,12 @@
       <c r="AO48" s="20"/>
       <c r="AP48" s="105"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="142"/>
+      <c r="AR48" s="154"/>
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="165"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="151"/>
+      <c r="A49" s="191"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="161"/>
       <c r="D49" s="27"/>
       <c r="E49" s="64"/>
       <c r="F49" s="20"/>
@@ -4535,7 +4537,9 @@
       <c r="Z49" s="21"/>
       <c r="AA49" s="26"/>
       <c r="AB49" s="119"/>
-      <c r="AC49" s="106"/>
+      <c r="AC49" s="124">
+        <v>0.5</v>
+      </c>
       <c r="AD49" s="105"/>
       <c r="AE49" s="111"/>
       <c r="AF49" s="119"/>
@@ -4550,16 +4554,16 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="75"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="142"/>
+      <c r="AR49" s="154"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="145">
+      <c r="B50" s="143">
         <v>1</v>
       </c>
-      <c r="C50" s="147"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="27"/>
       <c r="E50" s="64"/>
       <c r="F50" s="20"/>
@@ -4602,12 +4606,12 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="75"/>
       <c r="AQ50" s="26"/>
-      <c r="AR50" s="142"/>
+      <c r="AR50" s="154"/>
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="144"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="148"/>
+      <c r="A51" s="169"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="146"/>
       <c r="D51" s="27"/>
       <c r="E51" s="64"/>
       <c r="F51" s="20"/>
@@ -4633,8 +4637,12 @@
       <c r="Z51" s="21"/>
       <c r="AA51" s="26"/>
       <c r="AB51" s="119"/>
-      <c r="AC51" s="106"/>
-      <c r="AD51" s="105"/>
+      <c r="AC51" s="124">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="129">
+        <v>0.5</v>
+      </c>
       <c r="AE51" s="111"/>
       <c r="AF51" s="119"/>
       <c r="AG51" s="106"/>
@@ -4648,16 +4656,16 @@
       <c r="AO51" s="20"/>
       <c r="AP51" s="75"/>
       <c r="AQ51" s="26"/>
-      <c r="AR51" s="142"/>
+      <c r="AR51" s="154"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="149" t="s">
+      <c r="A52" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="150">
+      <c r="B52" s="212">
         <v>3</v>
       </c>
-      <c r="C52" s="147"/>
+      <c r="C52" s="145"/>
       <c r="D52" s="27"/>
       <c r="E52" s="64"/>
       <c r="F52" s="20"/>
@@ -4702,12 +4710,12 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="75"/>
       <c r="AQ52" s="26"/>
-      <c r="AR52" s="142"/>
+      <c r="AR52" s="154"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="144"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="148"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="146"/>
       <c r="D53" s="27"/>
       <c r="E53" s="64"/>
       <c r="F53" s="20"/>
@@ -4734,7 +4742,9 @@
       <c r="AA53" s="26"/>
       <c r="AB53" s="119"/>
       <c r="AC53" s="106"/>
-      <c r="AD53" s="105"/>
+      <c r="AD53" s="129">
+        <v>2</v>
+      </c>
       <c r="AE53" s="111"/>
       <c r="AF53" s="119"/>
       <c r="AG53" s="106"/>
@@ -4748,16 +4758,16 @@
       <c r="AO53" s="20"/>
       <c r="AP53" s="75"/>
       <c r="AQ53" s="26"/>
-      <c r="AR53" s="142"/>
+      <c r="AR53" s="154"/>
     </row>
     <row r="54" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="159">
+      <c r="B54" s="168">
         <v>2</v>
       </c>
-      <c r="C54" s="151"/>
+      <c r="C54" s="161"/>
       <c r="D54" s="27"/>
       <c r="E54" s="64"/>
       <c r="F54" s="20"/>
@@ -4802,12 +4812,12 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="26"/>
-      <c r="AR54" s="142"/>
+      <c r="AR54" s="154"/>
     </row>
     <row r="55" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="209"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="151"/>
+      <c r="A55" s="151"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="161"/>
       <c r="D55" s="27"/>
       <c r="E55" s="64"/>
       <c r="F55" s="20"/>
@@ -4847,16 +4857,16 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="26"/>
-      <c r="AR55" s="142"/>
+      <c r="AR55" s="154"/>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="143" t="s">
+      <c r="A56" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="159">
+      <c r="B56" s="168">
         <v>3</v>
       </c>
-      <c r="C56" s="151"/>
+      <c r="C56" s="161"/>
       <c r="D56" s="27"/>
       <c r="E56" s="64"/>
       <c r="F56" s="20"/>
@@ -4901,12 +4911,12 @@
       <c r="AO56" s="20"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="26"/>
-      <c r="AR56" s="142"/>
+      <c r="AR56" s="154"/>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="144"/>
-      <c r="B57" s="159"/>
-      <c r="C57" s="151"/>
+      <c r="A57" s="169"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="161"/>
       <c r="D57" s="27"/>
       <c r="E57" s="64"/>
       <c r="F57" s="20"/>
@@ -4947,16 +4957,16 @@
       <c r="AO57" s="20"/>
       <c r="AP57" s="23"/>
       <c r="AQ57" s="22"/>
-      <c r="AR57" s="172"/>
+      <c r="AR57" s="153"/>
     </row>
     <row r="58" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="167" t="s">
+      <c r="A58" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="154">
+      <c r="B58" s="159">
         <v>0.5</v>
       </c>
-      <c r="C58" s="168"/>
+      <c r="C58" s="160"/>
       <c r="D58" s="41"/>
       <c r="E58" s="80"/>
       <c r="F58" s="43"/>
@@ -4999,14 +5009,14 @@
       <c r="AO58" s="43"/>
       <c r="AP58" s="45"/>
       <c r="AQ58" s="44"/>
-      <c r="AR58" s="141" t="s">
+      <c r="AR58" s="152" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="157"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="151"/>
+      <c r="A59" s="155"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="161"/>
       <c r="D59" s="27"/>
       <c r="E59" s="64"/>
       <c r="F59" s="20"/>
@@ -5047,16 +5057,16 @@
       <c r="AO59" s="20"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="26"/>
-      <c r="AR59" s="142"/>
+      <c r="AR59" s="154"/>
     </row>
     <row r="60" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="157" t="s">
+      <c r="A60" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="158">
+      <c r="B60" s="156">
         <v>3.5</v>
       </c>
-      <c r="C60" s="151"/>
+      <c r="C60" s="161"/>
       <c r="D60" s="27"/>
       <c r="E60" s="64"/>
       <c r="F60" s="20"/>
@@ -5103,12 +5113,12 @@
       <c r="AO60" s="20"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="26"/>
-      <c r="AR60" s="142"/>
+      <c r="AR60" s="154"/>
     </row>
     <row r="61" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="169"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="170"/>
+      <c r="A61" s="209"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="210"/>
       <c r="D61" s="36"/>
       <c r="E61" s="54"/>
       <c r="F61" s="39"/>
@@ -5149,16 +5159,16 @@
       <c r="AO61" s="39"/>
       <c r="AP61" s="48"/>
       <c r="AQ61" s="40"/>
-      <c r="AR61" s="172"/>
+      <c r="AR61" s="153"/>
     </row>
     <row r="62" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="166" t="s">
+      <c r="A62" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="154">
+      <c r="B62" s="159">
         <v>2</v>
       </c>
-      <c r="C62" s="155"/>
+      <c r="C62" s="206"/>
       <c r="D62" s="59"/>
       <c r="E62" s="47"/>
       <c r="F62" s="46"/>
@@ -5201,14 +5211,14 @@
       <c r="AO62" s="98"/>
       <c r="AP62" s="60"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="141" t="s">
+      <c r="AR62" s="152" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="161"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="163"/>
+      <c r="A63" s="204"/>
+      <c r="B63" s="205"/>
+      <c r="C63" s="207"/>
       <c r="D63" s="36"/>
       <c r="E63" s="54"/>
       <c r="F63" s="39"/>
@@ -5249,7 +5259,7 @@
       <c r="AO63" s="39"/>
       <c r="AP63" s="48"/>
       <c r="AQ63" s="40"/>
-      <c r="AR63" s="172"/>
+      <c r="AR63" s="153"/>
     </row>
     <row r="64" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="61" t="s">
@@ -5307,6 +5317,103 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="AR16:AR25"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AR4:AR15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AT8:AU8"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -5331,103 +5438,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AR4:AR15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="AR16:AR25"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5436,23 +5446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005568FE7337F58E4A874BCAA8F781D766" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7c72f08c743f3e1d890da655f588b9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e5e9ffa-1d28-4d43-989d-34211c67c0f1" xmlns:ns4="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7c8491fffaeb43ce16da0fe91667a77" ns3:_="" ns4:_="">
     <xsd:import namespace="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
@@ -5675,32 +5668,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66DC004-E347-46EB-9C38-9AF8EC95E3A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5717,4 +5702,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="635" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555B4DC9-28CB-49F6-A16C-EEF44E8026E6}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B24B4AD-9B99-4C45-B350-CE929FBC388F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyBorder="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1226,24 +1226,198 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,39 +1433,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1301,153 +1448,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Empty" xfId="3" xr:uid="{E0E5FDF4-CE21-4EE3-AD57-B07A8CBBE450}"/>
@@ -1774,8 +1775,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ56" sqref="AJ56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK60" sqref="AK60:AM60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,36 +1804,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="187"/>
-      <c r="D1" s="177" t="s">
+      <c r="D1" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="177" t="s">
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="177" t="s">
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="178"/>
-      <c r="N1" s="178"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="177" t="s">
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="178"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="177" t="s">
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="202"/>
+      <c r="T1" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="179"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="202"/>
       <c r="X1" s="180" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1864,7 @@
       <c r="AO1" s="181"/>
       <c r="AP1" s="181"/>
       <c r="AQ1" s="182"/>
-      <c r="AR1" s="174" t="s">
+      <c r="AR1" s="197" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1871,67 +1872,67 @@
       <c r="A2" s="184"/>
       <c r="B2" s="188"/>
       <c r="C2" s="189"/>
-      <c r="D2" s="170">
+      <c r="D2" s="194">
         <v>45327</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="170">
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="194">
         <v>45328</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="170">
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="194">
         <v>45329</v>
       </c>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="170">
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="194">
         <v>45330</v>
       </c>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="170">
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="194">
         <v>45331</v>
       </c>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="170">
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="194">
         <v>45334</v>
       </c>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="170">
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="194">
         <v>45335</v>
       </c>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="170">
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="194">
         <v>45336</v>
       </c>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="172"/>
-      <c r="AJ2" s="170">
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="194">
         <v>45337</v>
       </c>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="172"/>
-      <c r="AN2" s="170">
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="194">
         <v>45339</v>
       </c>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="172"/>
-      <c r="AR2" s="175"/>
+      <c r="AO2" s="195"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="196"/>
+      <c r="AR2" s="198"/>
     </row>
     <row r="3" spans="1:47" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="185"/>
@@ -2061,16 +2062,16 @@
       <c r="AQ3" s="9">
         <v>17</v>
       </c>
-      <c r="AR3" s="176"/>
+      <c r="AR3" s="199"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="156">
+      <c r="B4" s="158">
         <v>23.5</v>
       </c>
-      <c r="C4" s="161">
+      <c r="C4" s="151">
         <v>5</v>
       </c>
       <c r="D4" s="13"/>
@@ -2153,16 +2154,16 @@
       <c r="AQ4" s="101">
         <v>2</v>
       </c>
-      <c r="AR4" s="196"/>
+      <c r="AR4" s="171"/>
       <c r="AT4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="173"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="161"/>
+      <c r="A5" s="179"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="19"/>
       <c r="E5" s="108">
         <v>0.5</v>
@@ -2217,10 +2218,14 @@
       <c r="AE5" s="126">
         <v>2</v>
       </c>
-      <c r="AF5" s="30"/>
+      <c r="AF5" s="128">
+        <v>0.5</v>
+      </c>
       <c r="AG5" s="21"/>
       <c r="AH5" s="21"/>
-      <c r="AI5" s="76"/>
+      <c r="AI5" s="126">
+        <v>2</v>
+      </c>
       <c r="AJ5" s="30"/>
       <c r="AK5" s="21"/>
       <c r="AL5" s="21"/>
@@ -2229,20 +2234,20 @@
       <c r="AO5" s="21"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="76"/>
-      <c r="AR5" s="154"/>
+      <c r="AR5" s="142"/>
       <c r="AT5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="156">
+      <c r="B6" s="158">
         <v>3</v>
       </c>
-      <c r="C6" s="161">
+      <c r="C6" s="151">
         <v>2.5</v>
       </c>
       <c r="D6" s="25">
@@ -2289,16 +2294,16 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="154"/>
+      <c r="AR6" s="142"/>
       <c r="AT6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="193"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="161"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="99">
         <v>2</v>
       </c>
@@ -2343,17 +2348,17 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="154"/>
+      <c r="AR7" s="142"/>
       <c r="AT7" s="131"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="156">
+      <c r="B8" s="158">
         <v>2</v>
       </c>
-      <c r="C8" s="161">
+      <c r="C8" s="151">
         <v>1.5</v>
       </c>
       <c r="D8" s="27"/>
@@ -2400,16 +2405,16 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="154"/>
-      <c r="AT8" s="141" t="s">
+      <c r="AR8" s="142"/>
+      <c r="AT8" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AU8" s="142"/>
+      <c r="AU8" s="204"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="193"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="161"/>
+      <c r="A9" s="173"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="151"/>
       <c r="D9" s="27"/>
       <c r="E9" s="108">
         <v>1</v>
@@ -2454,20 +2459,20 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="154"/>
+      <c r="AR9" s="142"/>
       <c r="AT9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AU9" s="132"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="143">
+      <c r="B10" s="145">
         <v>2</v>
       </c>
-      <c r="C10" s="145">
+      <c r="C10" s="147">
         <v>1</v>
       </c>
       <c r="D10" s="27"/>
@@ -2514,16 +2519,16 @@
       <c r="AO10" s="20"/>
       <c r="AP10" s="86"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="154"/>
+      <c r="AR10" s="142"/>
       <c r="AT10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="146"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="27"/>
       <c r="E11" s="64"/>
       <c r="F11" s="20"/>
@@ -2568,20 +2573,20 @@
       <c r="AO11" s="21"/>
       <c r="AP11" s="75"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="154"/>
+      <c r="AR11" s="142"/>
       <c r="AT11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AU11" s="134"/>
     </row>
     <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="156">
+      <c r="B12" s="158">
         <v>2</v>
       </c>
-      <c r="C12" s="194"/>
+      <c r="C12" s="192"/>
       <c r="D12" s="27"/>
       <c r="E12" s="64"/>
       <c r="F12" s="20"/>
@@ -2624,12 +2629,12 @@
       </c>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="154"/>
+      <c r="AR12" s="142"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="162"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="195"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="27"/>
       <c r="E13" s="64"/>
       <c r="F13" s="20"/>
@@ -2670,16 +2675,16 @@
       <c r="AO13" s="20"/>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="154"/>
+      <c r="AR13" s="142"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="156">
+      <c r="B14" s="158">
         <v>1</v>
       </c>
-      <c r="C14" s="161"/>
+      <c r="C14" s="151"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
       <c r="F14" s="20"/>
@@ -2722,12 +2727,12 @@
       <c r="AQ14" s="97">
         <v>1</v>
       </c>
-      <c r="AR14" s="154"/>
+      <c r="AR14" s="142"/>
     </row>
     <row r="15" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="197"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="192"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="34"/>
       <c r="E15" s="78"/>
       <c r="F15" s="39"/>
@@ -2770,16 +2775,16 @@
       <c r="AO15" s="31"/>
       <c r="AP15" s="38"/>
       <c r="AQ15" s="35"/>
-      <c r="AR15" s="153"/>
+      <c r="AR15" s="172"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="213" t="s">
+      <c r="A16" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="159">
+      <c r="B16" s="154">
         <v>0.5</v>
       </c>
-      <c r="C16" s="206">
+      <c r="C16" s="155">
         <v>0.5</v>
       </c>
       <c r="D16" s="41"/>
@@ -2824,14 +2829,14 @@
       <c r="AO16" s="43"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="152" t="s">
+      <c r="AR16" s="141" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="197"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="214"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="19"/>
       <c r="E17" s="124">
         <v>0.5</v>
@@ -2874,16 +2879,16 @@
       <c r="AO17" s="20"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="154"/>
+      <c r="AR17" s="142"/>
     </row>
     <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="193" t="s">
+      <c r="A18" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="156">
+      <c r="B18" s="158">
         <v>1</v>
       </c>
-      <c r="C18" s="201">
+      <c r="C18" s="177">
         <v>1</v>
       </c>
       <c r="D18" s="59"/>
@@ -2928,12 +2933,12 @@
       <c r="AO18" s="46"/>
       <c r="AP18" s="60"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="154"/>
+      <c r="AR18" s="142"/>
     </row>
     <row r="19" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="193"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="161"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="151"/>
       <c r="D19" s="27"/>
       <c r="E19" s="79"/>
       <c r="F19" s="124">
@@ -2976,16 +2981,16 @@
       <c r="AO19" s="20"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="154"/>
+      <c r="AR19" s="142"/>
     </row>
     <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="156">
+      <c r="B20" s="158">
         <v>2</v>
       </c>
-      <c r="C20" s="161">
+      <c r="C20" s="151">
         <v>1.5</v>
       </c>
       <c r="D20" s="27"/>
@@ -3032,12 +3037,12 @@
       <c r="AO20" s="20"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="154"/>
+      <c r="AR20" s="142"/>
     </row>
     <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="161"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="27"/>
       <c r="E21" s="64"/>
       <c r="F21" s="20"/>
@@ -3080,16 +3085,16 @@
       <c r="AO21" s="20"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="154"/>
+      <c r="AR21" s="142"/>
     </row>
     <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="156">
+      <c r="B22" s="158">
         <v>2</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="151">
         <v>3</v>
       </c>
       <c r="D22" s="27"/>
@@ -3136,12 +3141,12 @@
       <c r="AO22" s="20"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="154"/>
+      <c r="AR22" s="142"/>
     </row>
     <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="161"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="151"/>
       <c r="D23" s="27"/>
       <c r="E23" s="64"/>
       <c r="F23" s="20"/>
@@ -3186,16 +3191,16 @@
       <c r="AO23" s="20"/>
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="154"/>
+      <c r="AR23" s="142"/>
     </row>
     <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="190" t="s">
+      <c r="A24" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="143">
+      <c r="B24" s="145">
         <v>2</v>
       </c>
-      <c r="C24" s="145">
+      <c r="C24" s="147">
         <v>1.5</v>
       </c>
       <c r="D24" s="27"/>
@@ -3244,12 +3249,12 @@
       <c r="AO24" s="20"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="154"/>
+      <c r="AR24" s="142"/>
     </row>
     <row r="25" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="191"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="146"/>
+      <c r="A25" s="165"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="148"/>
       <c r="D25" s="36"/>
       <c r="E25" s="54"/>
       <c r="F25" s="39"/>
@@ -3294,16 +3299,16 @@
       <c r="AO25" s="39"/>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="40"/>
-      <c r="AR25" s="154"/>
+      <c r="AR25" s="142"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="199">
+      <c r="B26" s="175">
         <v>2</v>
       </c>
-      <c r="C26" s="200">
+      <c r="C26" s="176">
         <v>2</v>
       </c>
       <c r="D26" s="59"/>
@@ -3350,14 +3355,14 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="60"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="149" t="s">
+      <c r="AR26" s="207" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="166"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="146"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="27"/>
       <c r="E27" s="64"/>
       <c r="F27" s="20"/>
@@ -3402,16 +3407,16 @@
       <c r="AO27" s="64"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="26"/>
-      <c r="AR27" s="147"/>
+      <c r="AR27" s="205"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="143">
+      <c r="B28" s="145">
         <v>2</v>
       </c>
-      <c r="C28" s="145">
+      <c r="C28" s="147">
         <v>2</v>
       </c>
       <c r="D28" s="59"/>
@@ -3458,12 +3463,12 @@
       <c r="AO28" s="20"/>
       <c r="AP28" s="60"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="147"/>
+      <c r="AR28" s="205"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="166"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="146"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="148"/>
       <c r="D29" s="59"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46"/>
@@ -3508,16 +3513,16 @@
       <c r="AO29" s="20"/>
       <c r="AP29" s="60"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="147"/>
+      <c r="AR29" s="205"/>
     </row>
     <row r="30" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="143">
+      <c r="B30" s="145">
         <v>2.5</v>
       </c>
-      <c r="C30" s="145">
+      <c r="C30" s="147">
         <v>2</v>
       </c>
       <c r="D30" s="59"/>
@@ -3564,12 +3569,12 @@
       <c r="AO30" s="20"/>
       <c r="AP30" s="60"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="147"/>
+      <c r="AR30" s="205"/>
     </row>
     <row r="31" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="146"/>
+      <c r="A31" s="209"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="46"/>
@@ -3614,16 +3619,16 @@
       <c r="AO31" s="20"/>
       <c r="AP31" s="60"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="147"/>
+      <c r="AR31" s="205"/>
     </row>
     <row r="32" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="143">
+      <c r="B32" s="145">
         <v>2</v>
       </c>
-      <c r="C32" s="145">
+      <c r="C32" s="147">
         <v>3</v>
       </c>
       <c r="D32" s="59"/>
@@ -3668,12 +3673,12 @@
       <c r="AO32" s="20"/>
       <c r="AP32" s="60"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="147"/>
+      <c r="AR32" s="205"/>
     </row>
     <row r="33" spans="1:45" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="163"/>
-      <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="213"/>
+      <c r="C33" s="214"/>
       <c r="D33" s="81"/>
       <c r="E33" s="87"/>
       <c r="F33" s="88"/>
@@ -3718,16 +3723,16 @@
       <c r="AO33" s="88"/>
       <c r="AP33" s="90"/>
       <c r="AQ33" s="89"/>
-      <c r="AR33" s="148"/>
+      <c r="AR33" s="206"/>
     </row>
     <row r="34" spans="1:45" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="166" t="s">
+      <c r="A34" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="144">
+      <c r="B34" s="146">
         <v>0.5</v>
       </c>
-      <c r="C34" s="146"/>
+      <c r="C34" s="148"/>
       <c r="D34" s="59"/>
       <c r="E34" s="47"/>
       <c r="F34" s="46"/>
@@ -3770,15 +3775,15 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="60"/>
       <c r="AQ34" s="49"/>
-      <c r="AR34" s="147" t="s">
+      <c r="AR34" s="205" t="s">
         <v>26</v>
       </c>
       <c r="AS34" s="65"/>
     </row>
     <row r="35" spans="1:45" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="204"/>
-      <c r="B35" s="205"/>
-      <c r="C35" s="207"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="163"/>
       <c r="D35" s="36"/>
       <c r="E35" s="54"/>
       <c r="F35" s="39"/>
@@ -3821,17 +3826,17 @@
       <c r="AO35" s="39"/>
       <c r="AP35" s="48"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="148"/>
+      <c r="AR35" s="206"/>
       <c r="AS35" s="65"/>
     </row>
     <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="159">
+      <c r="B36" s="154">
         <v>2</v>
       </c>
-      <c r="C36" s="160">
+      <c r="C36" s="168">
         <v>1.5</v>
       </c>
       <c r="D36" s="41"/>
@@ -3878,15 +3883,15 @@
       <c r="AO36" s="43"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="152" t="s">
+      <c r="AR36" s="141" t="s">
         <v>10</v>
       </c>
       <c r="AS36" s="65"/>
     </row>
     <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="158"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="161"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="151"/>
       <c r="D37" s="27"/>
       <c r="E37" s="64"/>
       <c r="F37" s="20"/>
@@ -3929,16 +3934,16 @@
       <c r="AO37" s="20"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="26"/>
-      <c r="AR37" s="154"/>
+      <c r="AR37" s="142"/>
     </row>
     <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="156">
+      <c r="B38" s="158">
         <v>3.5</v>
       </c>
-      <c r="C38" s="161">
+      <c r="C38" s="151">
         <v>4</v>
       </c>
       <c r="D38" s="27"/>
@@ -3985,12 +3990,12 @@
       <c r="AO38" s="20"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="154"/>
+      <c r="AR38" s="142"/>
     </row>
     <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="161"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="151"/>
       <c r="D39" s="27"/>
       <c r="E39" s="64"/>
       <c r="F39" s="20"/>
@@ -4037,16 +4042,16 @@
       <c r="AO39" s="20"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="154"/>
+      <c r="AR39" s="142"/>
     </row>
     <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="156">
+      <c r="B40" s="158">
         <v>2</v>
       </c>
-      <c r="C40" s="161">
+      <c r="C40" s="151">
         <v>2.5</v>
       </c>
       <c r="D40" s="27"/>
@@ -4091,12 +4096,12 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="154"/>
+      <c r="AR40" s="142"/>
     </row>
     <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="161"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="151"/>
       <c r="D41" s="27"/>
       <c r="E41" s="64"/>
       <c r="F41" s="20"/>
@@ -4141,16 +4146,16 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="154"/>
+      <c r="AR41" s="142"/>
     </row>
     <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="156">
+      <c r="B42" s="158">
         <v>2</v>
       </c>
-      <c r="C42" s="161">
+      <c r="C42" s="151">
         <v>2</v>
       </c>
       <c r="D42" s="27"/>
@@ -4197,12 +4202,12 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="154"/>
+      <c r="AR42" s="142"/>
     </row>
     <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="155"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="161"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="27"/>
       <c r="E43" s="64"/>
       <c r="F43" s="20"/>
@@ -4247,16 +4252,16 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="154"/>
+      <c r="AR43" s="142"/>
     </row>
     <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="156">
+      <c r="B44" s="158">
         <v>2</v>
       </c>
-      <c r="C44" s="161"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="27"/>
       <c r="E44" s="64"/>
       <c r="F44" s="20"/>
@@ -4301,12 +4306,12 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="154"/>
+      <c r="AR44" s="142"/>
     </row>
     <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="150"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="161"/>
+      <c r="A45" s="208"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="151"/>
       <c r="D45" s="27"/>
       <c r="E45" s="64"/>
       <c r="F45" s="20"/>
@@ -4351,16 +4356,16 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="75"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="154"/>
+      <c r="AR45" s="142"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="167" t="s">
+      <c r="A46" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="168">
+      <c r="B46" s="159">
         <v>2.5</v>
       </c>
-      <c r="C46" s="161"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="27"/>
       <c r="E46" s="64"/>
       <c r="F46" s="20"/>
@@ -4404,12 +4409,12 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="20"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="154"/>
+      <c r="AR46" s="142"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="169"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="161"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="151"/>
       <c r="D47" s="27"/>
       <c r="E47" s="64"/>
       <c r="F47" s="20"/>
@@ -4454,16 +4459,16 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="75"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="154"/>
+      <c r="AR47" s="142"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="190" t="s">
+      <c r="A48" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="168">
+      <c r="B48" s="159">
         <v>1</v>
       </c>
-      <c r="C48" s="161"/>
+      <c r="C48" s="151"/>
       <c r="D48" s="27"/>
       <c r="E48" s="64"/>
       <c r="F48" s="20"/>
@@ -4506,12 +4511,12 @@
       <c r="AO48" s="20"/>
       <c r="AP48" s="105"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="154"/>
+      <c r="AR48" s="142"/>
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="191"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="161"/>
+      <c r="A49" s="165"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="151"/>
       <c r="D49" s="27"/>
       <c r="E49" s="64"/>
       <c r="F49" s="20"/>
@@ -4554,16 +4559,16 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="75"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="154"/>
+      <c r="AR49" s="142"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="167" t="s">
+      <c r="A50" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="143">
+      <c r="B50" s="145">
         <v>1</v>
       </c>
-      <c r="C50" s="145"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="27"/>
       <c r="E50" s="64"/>
       <c r="F50" s="20"/>
@@ -4606,12 +4611,12 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="75"/>
       <c r="AQ50" s="26"/>
-      <c r="AR50" s="154"/>
+      <c r="AR50" s="142"/>
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="169"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="146"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="148"/>
       <c r="D51" s="27"/>
       <c r="E51" s="64"/>
       <c r="F51" s="20"/>
@@ -4656,16 +4661,16 @@
       <c r="AO51" s="20"/>
       <c r="AP51" s="75"/>
       <c r="AQ51" s="26"/>
-      <c r="AR51" s="154"/>
+      <c r="AR51" s="142"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="212">
+      <c r="B52" s="150">
         <v>3</v>
       </c>
-      <c r="C52" s="145"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="27"/>
       <c r="E52" s="64"/>
       <c r="F52" s="20"/>
@@ -4710,12 +4715,12 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="75"/>
       <c r="AQ52" s="26"/>
-      <c r="AR52" s="154"/>
+      <c r="AR52" s="142"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="169"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="146"/>
+      <c r="A53" s="144"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="148"/>
       <c r="D53" s="27"/>
       <c r="E53" s="64"/>
       <c r="F53" s="20"/>
@@ -4746,7 +4751,9 @@
         <v>2</v>
       </c>
       <c r="AE53" s="111"/>
-      <c r="AF53" s="119"/>
+      <c r="AF53" s="128">
+        <v>0.5</v>
+      </c>
       <c r="AG53" s="106"/>
       <c r="AH53" s="106"/>
       <c r="AI53" s="111"/>
@@ -4758,16 +4765,16 @@
       <c r="AO53" s="20"/>
       <c r="AP53" s="75"/>
       <c r="AQ53" s="26"/>
-      <c r="AR53" s="154"/>
+      <c r="AR53" s="142"/>
     </row>
     <row r="54" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="167" t="s">
+      <c r="A54" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="168">
+      <c r="B54" s="159">
         <v>2</v>
       </c>
-      <c r="C54" s="161"/>
+      <c r="C54" s="151"/>
       <c r="D54" s="27"/>
       <c r="E54" s="64"/>
       <c r="F54" s="20"/>
@@ -4812,12 +4819,12 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="26"/>
-      <c r="AR54" s="154"/>
+      <c r="AR54" s="142"/>
     </row>
     <row r="55" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="151"/>
-      <c r="B55" s="156"/>
-      <c r="C55" s="161"/>
+      <c r="A55" s="209"/>
+      <c r="B55" s="158"/>
+      <c r="C55" s="151"/>
       <c r="D55" s="27"/>
       <c r="E55" s="64"/>
       <c r="F55" s="20"/>
@@ -4846,8 +4853,12 @@
       <c r="AC55" s="20"/>
       <c r="AD55" s="28"/>
       <c r="AE55" s="26"/>
-      <c r="AF55" s="119"/>
-      <c r="AG55" s="106"/>
+      <c r="AF55" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="AG55" s="124">
+        <v>1</v>
+      </c>
       <c r="AI55" s="111"/>
       <c r="AJ55" s="27"/>
       <c r="AK55" s="20"/>
@@ -4857,16 +4868,16 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="26"/>
-      <c r="AR55" s="154"/>
+      <c r="AR55" s="142"/>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="167" t="s">
+      <c r="A56" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="168">
+      <c r="B56" s="159">
         <v>3</v>
       </c>
-      <c r="C56" s="161"/>
+      <c r="C56" s="151"/>
       <c r="D56" s="27"/>
       <c r="E56" s="64"/>
       <c r="F56" s="20"/>
@@ -4911,12 +4922,12 @@
       <c r="AO56" s="20"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="26"/>
-      <c r="AR56" s="154"/>
+      <c r="AR56" s="142"/>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="169"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="161"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="151"/>
       <c r="D57" s="27"/>
       <c r="E57" s="64"/>
       <c r="F57" s="20"/>
@@ -4946,8 +4957,12 @@
       <c r="AD57" s="23"/>
       <c r="AE57" s="22"/>
       <c r="AF57" s="119"/>
-      <c r="AG57" s="106"/>
-      <c r="AH57" s="106"/>
+      <c r="AG57" s="124">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="215">
+        <v>2</v>
+      </c>
       <c r="AI57" s="111"/>
       <c r="AJ57" s="30"/>
       <c r="AK57" s="33"/>
@@ -4957,16 +4972,16 @@
       <c r="AO57" s="20"/>
       <c r="AP57" s="23"/>
       <c r="AQ57" s="22"/>
-      <c r="AR57" s="153"/>
+      <c r="AR57" s="172"/>
     </row>
     <row r="58" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="208" t="s">
+      <c r="A58" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="159">
+      <c r="B58" s="154">
         <v>0.5</v>
       </c>
-      <c r="C58" s="160"/>
+      <c r="C58" s="168"/>
       <c r="D58" s="41"/>
       <c r="E58" s="80"/>
       <c r="F58" s="43"/>
@@ -5009,14 +5024,14 @@
       <c r="AO58" s="43"/>
       <c r="AP58" s="45"/>
       <c r="AQ58" s="44"/>
-      <c r="AR58" s="152" t="s">
+      <c r="AR58" s="141" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="155"/>
-      <c r="B59" s="156"/>
-      <c r="C59" s="161"/>
+      <c r="A59" s="157"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="151"/>
       <c r="D59" s="27"/>
       <c r="E59" s="64"/>
       <c r="F59" s="20"/>
@@ -5057,16 +5072,16 @@
       <c r="AO59" s="20"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="26"/>
-      <c r="AR59" s="154"/>
+      <c r="AR59" s="142"/>
     </row>
     <row r="60" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="155" t="s">
+      <c r="A60" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="156">
+      <c r="B60" s="158">
         <v>3.5</v>
       </c>
-      <c r="C60" s="161"/>
+      <c r="C60" s="151"/>
       <c r="D60" s="27"/>
       <c r="E60" s="64"/>
       <c r="F60" s="20"/>
@@ -5113,12 +5128,12 @@
       <c r="AO60" s="20"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="26"/>
-      <c r="AR60" s="154"/>
+      <c r="AR60" s="142"/>
     </row>
     <row r="61" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="209"/>
-      <c r="B61" s="205"/>
-      <c r="C61" s="210"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="162"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="36"/>
       <c r="E61" s="54"/>
       <c r="F61" s="39"/>
@@ -5159,16 +5174,16 @@
       <c r="AO61" s="39"/>
       <c r="AP61" s="48"/>
       <c r="AQ61" s="40"/>
-      <c r="AR61" s="153"/>
+      <c r="AR61" s="172"/>
     </row>
     <row r="62" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="203" t="s">
+      <c r="A62" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="159">
+      <c r="B62" s="154">
         <v>2</v>
       </c>
-      <c r="C62" s="206"/>
+      <c r="C62" s="155"/>
       <c r="D62" s="59"/>
       <c r="E62" s="47"/>
       <c r="F62" s="46"/>
@@ -5211,14 +5226,14 @@
       <c r="AO62" s="98"/>
       <c r="AP62" s="60"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="152" t="s">
+      <c r="AR62" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="204"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="207"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="162"/>
+      <c r="C63" s="163"/>
       <c r="D63" s="36"/>
       <c r="E63" s="54"/>
       <c r="F63" s="39"/>
@@ -5259,7 +5274,7 @@
       <c r="AO63" s="39"/>
       <c r="AP63" s="48"/>
       <c r="AQ63" s="40"/>
-      <c r="AR63" s="153"/>
+      <c r="AR63" s="172"/>
     </row>
     <row r="64" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="61" t="s">
@@ -5317,6 +5332,103 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AR26:AR33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="AR62:AR63"/>
+    <mergeCell ref="AR58:AR61"/>
+    <mergeCell ref="AR36:AR57"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AR4:AR15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
     <mergeCell ref="AR16:AR25"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
@@ -5341,103 +5453,6 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AR4:AR15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AR26:AR33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="AR62:AR63"/>
-    <mergeCell ref="AR58:AR61"/>
-    <mergeCell ref="AR36:AR57"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5446,6 +5461,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005568FE7337F58E4A874BCAA8F781D766" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7c72f08c743f3e1d890da655f588b9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e5e9ffa-1d28-4d43-989d-34211c67c0f1" xmlns:ns4="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7c8491fffaeb43ce16da0fe91667a77" ns3:_="" ns4:_="">
     <xsd:import namespace="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
@@ -5668,24 +5700,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66DC004-E347-46EB-9C38-9AF8EC95E3A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5702,29 +5742,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IPA-2024-Zeitplan-RB.xlsx
+++ b/IPA-2024-Zeitplan-RB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="649" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B24B4AD-9B99-4C45-B350-CE929FBC388F}"/>
+  <xr:revisionPtr revIDLastSave="693" documentId="13_ncr:1_{70E52C78-64AE-4AFA-8B1C-E0F31F0B689D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C174F0A-DE3E-4A78-865B-39A1DB92C108}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyBorder="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1226,29 +1226,177 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="55" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1256,199 +1404,48 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="2" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Empty" xfId="3" xr:uid="{E0E5FDF4-CE21-4EE3-AD57-B07A8CBBE450}"/>
@@ -1775,8 +1772,8 @@
   </sheetPr>
   <dimension ref="A1:AU65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK60" sqref="AK60:AM60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH57" sqref="AH57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,145 +1794,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="200" t="s">
+      <c r="C1" s="183"/>
+      <c r="D1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="200" t="s">
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="200" t="s">
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="200" t="s">
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="200" t="s">
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="202"/>
-      <c r="X1" s="180" t="s">
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="181"/>
-      <c r="Z1" s="181"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="180" t="s">
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="181"/>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="180" t="s">
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="181"/>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="182"/>
-      <c r="AJ1" s="180" t="s">
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="AK1" s="181"/>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="182"/>
-      <c r="AN1" s="180" t="s">
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="177"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="181"/>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="182"/>
-      <c r="AR1" s="197" t="s">
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="170" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="194">
+      <c r="A2" s="180"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="166">
         <v>45327</v>
       </c>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="194">
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="166">
         <v>45328</v>
       </c>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="194">
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="166">
         <v>45329</v>
       </c>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="194">
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="166">
         <v>45330</v>
       </c>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="194">
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="166">
         <v>45331</v>
       </c>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="194">
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="166">
         <v>45334</v>
       </c>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="196"/>
-      <c r="AB2" s="194">
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="166">
         <v>45335</v>
       </c>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="194">
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="166">
         <v>45336</v>
       </c>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="196"/>
-      <c r="AJ2" s="194">
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="166">
         <v>45337</v>
       </c>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="195"/>
-      <c r="AM2" s="196"/>
-      <c r="AN2" s="194">
+      <c r="AK2" s="167"/>
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="166">
         <v>45339</v>
       </c>
-      <c r="AO2" s="195"/>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="196"/>
-      <c r="AR2" s="198"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="171"/>
     </row>
     <row r="3" spans="1:47" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2062,17 +2059,17 @@
       <c r="AQ3" s="9">
         <v>17</v>
       </c>
-      <c r="AR3" s="199"/>
+      <c r="AR3" s="172"/>
     </row>
     <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="158">
+      <c r="B4" s="155">
         <v>23.5</v>
       </c>
-      <c r="C4" s="151">
-        <v>5</v>
+      <c r="C4" s="205">
+        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="82">
@@ -2154,16 +2151,16 @@
       <c r="AQ4" s="101">
         <v>2</v>
       </c>
-      <c r="AR4" s="171"/>
+      <c r="AR4" s="189"/>
       <c r="AT4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="151"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="205"/>
       <c r="D5" s="19"/>
       <c r="E5" s="108">
         <v>0.5</v>
@@ -2226,28 +2223,36 @@
       <c r="AI5" s="126">
         <v>2</v>
       </c>
-      <c r="AJ5" s="30"/>
+      <c r="AJ5" s="128">
+        <v>0.5</v>
+      </c>
       <c r="AK5" s="21"/>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="19"/>
+      <c r="AL5" s="124">
+        <v>1.5</v>
+      </c>
+      <c r="AM5" s="126">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="128">
+        <v>0.5</v>
+      </c>
       <c r="AO5" s="21"/>
       <c r="AP5" s="23"/>
       <c r="AQ5" s="76"/>
-      <c r="AR5" s="142"/>
+      <c r="AR5" s="153"/>
       <c r="AT5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AU5" s="2"/>
     </row>
     <row r="6" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="158">
+      <c r="B6" s="155">
         <v>3</v>
       </c>
-      <c r="C6" s="151">
+      <c r="C6" s="205">
         <v>2.5</v>
       </c>
       <c r="D6" s="25">
@@ -2294,16 +2299,16 @@
       <c r="AO6" s="20"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="142"/>
+      <c r="AR6" s="153"/>
       <c r="AT6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AU6" s="3"/>
     </row>
     <row r="7" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="173"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="151"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="205"/>
       <c r="D7" s="99">
         <v>2</v>
       </c>
@@ -2348,17 +2353,17 @@
       <c r="AO7" s="20"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="142"/>
+      <c r="AR7" s="153"/>
       <c r="AT7" s="131"/>
     </row>
     <row r="8" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="158">
+      <c r="B8" s="155">
         <v>2</v>
       </c>
-      <c r="C8" s="151">
+      <c r="C8" s="205">
         <v>1.5</v>
       </c>
       <c r="D8" s="27"/>
@@ -2405,16 +2410,16 @@
       <c r="AO8" s="20"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
-      <c r="AR8" s="142"/>
-      <c r="AT8" s="203" t="s">
+      <c r="AR8" s="153"/>
+      <c r="AT8" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="AU8" s="204"/>
+      <c r="AU8" s="143"/>
     </row>
     <row r="9" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="151"/>
+      <c r="A9" s="188"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="27"/>
       <c r="E9" s="108">
         <v>1</v>
@@ -2459,21 +2464,21 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="28"/>
       <c r="AQ9" s="26"/>
-      <c r="AR9" s="142"/>
+      <c r="AR9" s="153"/>
       <c r="AT9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AU9" s="132"/>
     </row>
     <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="145">
+      <c r="B10" s="144">
         <v>2</v>
       </c>
-      <c r="C10" s="147">
-        <v>1</v>
+      <c r="C10" s="206">
+        <v>2</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="64"/>
@@ -2519,16 +2524,16 @@
       <c r="AO10" s="20"/>
       <c r="AP10" s="86"/>
       <c r="AQ10" s="26"/>
-      <c r="AR10" s="142"/>
+      <c r="AR10" s="153"/>
       <c r="AT10" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AU10" s="133"/>
     </row>
     <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="178"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="148"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="207"/>
       <c r="D11" s="27"/>
       <c r="E11" s="64"/>
       <c r="F11" s="20"/>
@@ -2573,20 +2578,22 @@
       <c r="AO11" s="21"/>
       <c r="AP11" s="75"/>
       <c r="AQ11" s="26"/>
-      <c r="AR11" s="142"/>
+      <c r="AR11" s="153"/>
       <c r="AT11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AU11" s="134"/>
     </row>
     <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="158">
+      <c r="B12" s="155">
         <v>2</v>
       </c>
-      <c r="C12" s="192"/>
+      <c r="C12" s="206">
+        <v>1.5</v>
+      </c>
       <c r="D12" s="27"/>
       <c r="E12" s="64"/>
       <c r="F12" s="20"/>
@@ -2629,12 +2636,12 @@
       </c>
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
-      <c r="AR12" s="142"/>
+      <c r="AR12" s="153"/>
     </row>
     <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="193"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="207"/>
       <c r="D13" s="27"/>
       <c r="E13" s="64"/>
       <c r="F13" s="20"/>
@@ -2671,20 +2678,26 @@
       <c r="AK13" s="20"/>
       <c r="AL13" s="20"/>
       <c r="AM13" s="26"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="20"/>
+      <c r="AN13" s="128">
+        <v>1.5</v>
+      </c>
+      <c r="AO13" s="124">
+        <v>1</v>
+      </c>
       <c r="AP13" s="28"/>
       <c r="AQ13" s="26"/>
-      <c r="AR13" s="142"/>
+      <c r="AR13" s="153"/>
     </row>
     <row r="14" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="158">
+      <c r="B14" s="155">
         <v>1</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="205">
+        <v>1</v>
+      </c>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
       <c r="F14" s="20"/>
@@ -2727,12 +2740,12 @@
       <c r="AQ14" s="97">
         <v>1</v>
       </c>
-      <c r="AR14" s="142"/>
+      <c r="AR14" s="153"/>
     </row>
     <row r="15" spans="1:47" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="153"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="190"/>
+      <c r="A15" s="190"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="208"/>
       <c r="D15" s="34"/>
       <c r="E15" s="78"/>
       <c r="F15" s="39"/>
@@ -2773,18 +2786,20 @@
       <c r="AM15" s="35"/>
       <c r="AN15" s="34"/>
       <c r="AO15" s="31"/>
-      <c r="AP15" s="38"/>
+      <c r="AP15" s="204">
+        <v>1</v>
+      </c>
       <c r="AQ15" s="35"/>
-      <c r="AR15" s="172"/>
+      <c r="AR15" s="152"/>
     </row>
     <row r="16" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="154">
+      <c r="B16" s="158">
         <v>0.5</v>
       </c>
-      <c r="C16" s="155">
+      <c r="C16" s="209">
         <v>0.5</v>
       </c>
       <c r="D16" s="41"/>
@@ -2829,14 +2844,14 @@
       <c r="AO16" s="43"/>
       <c r="AP16" s="45"/>
       <c r="AQ16" s="44"/>
-      <c r="AR16" s="141" t="s">
+      <c r="AR16" s="151" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="153"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="156"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="210"/>
       <c r="D17" s="19"/>
       <c r="E17" s="124">
         <v>0.5</v>
@@ -2879,16 +2894,16 @@
       <c r="AO17" s="20"/>
       <c r="AP17" s="28"/>
       <c r="AQ17" s="26"/>
-      <c r="AR17" s="142"/>
+      <c r="AR17" s="153"/>
     </row>
     <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="158">
+      <c r="B18" s="155">
         <v>1</v>
       </c>
-      <c r="C18" s="177">
+      <c r="C18" s="211">
         <v>1</v>
       </c>
       <c r="D18" s="59"/>
@@ -2933,12 +2948,12 @@
       <c r="AO18" s="46"/>
       <c r="AP18" s="60"/>
       <c r="AQ18" s="49"/>
-      <c r="AR18" s="142"/>
+      <c r="AR18" s="153"/>
     </row>
     <row r="19" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="151"/>
+      <c r="A19" s="188"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="205"/>
       <c r="D19" s="27"/>
       <c r="E19" s="79"/>
       <c r="F19" s="124">
@@ -2981,16 +2996,16 @@
       <c r="AO19" s="20"/>
       <c r="AP19" s="28"/>
       <c r="AQ19" s="26"/>
-      <c r="AR19" s="142"/>
+      <c r="AR19" s="153"/>
     </row>
     <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="158">
+      <c r="B20" s="155">
         <v>2</v>
       </c>
-      <c r="C20" s="151">
+      <c r="C20" s="205">
         <v>1.5</v>
       </c>
       <c r="D20" s="27"/>
@@ -3037,12 +3052,12 @@
       <c r="AO20" s="20"/>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
-      <c r="AR20" s="142"/>
+      <c r="AR20" s="153"/>
     </row>
     <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="179"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="151"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="205"/>
       <c r="D21" s="27"/>
       <c r="E21" s="64"/>
       <c r="F21" s="20"/>
@@ -3085,16 +3100,16 @@
       <c r="AO21" s="20"/>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="26"/>
-      <c r="AR21" s="142"/>
+      <c r="AR21" s="153"/>
     </row>
     <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="158">
+      <c r="B22" s="155">
         <v>2</v>
       </c>
-      <c r="C22" s="151">
+      <c r="C22" s="205">
         <v>3</v>
       </c>
       <c r="D22" s="27"/>
@@ -3141,12 +3156,12 @@
       <c r="AO22" s="20"/>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
-      <c r="AR22" s="142"/>
+      <c r="AR22" s="153"/>
     </row>
     <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="179"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="151"/>
+      <c r="A23" s="169"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="205"/>
       <c r="D23" s="27"/>
       <c r="E23" s="64"/>
       <c r="F23" s="20"/>
@@ -3191,16 +3206,16 @@
       <c r="AO23" s="20"/>
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
-      <c r="AR23" s="142"/>
+      <c r="AR23" s="153"/>
     </row>
     <row r="24" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="145">
+      <c r="B24" s="144">
         <v>2</v>
       </c>
-      <c r="C24" s="147">
+      <c r="C24" s="206">
         <v>1.5</v>
       </c>
       <c r="D24" s="27"/>
@@ -3249,12 +3264,12 @@
       <c r="AO24" s="20"/>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
-      <c r="AR24" s="142"/>
+      <c r="AR24" s="153"/>
     </row>
     <row r="25" spans="1:44" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="165"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="148"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="207"/>
       <c r="D25" s="36"/>
       <c r="E25" s="54"/>
       <c r="F25" s="39"/>
@@ -3299,16 +3314,16 @@
       <c r="AO25" s="39"/>
       <c r="AP25" s="48"/>
       <c r="AQ25" s="40"/>
-      <c r="AR25" s="142"/>
+      <c r="AR25" s="153"/>
     </row>
     <row r="26" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="175">
+      <c r="B26" s="192">
         <v>2</v>
       </c>
-      <c r="C26" s="176">
+      <c r="C26" s="212">
         <v>2</v>
       </c>
       <c r="D26" s="59"/>
@@ -3355,14 +3370,14 @@
       <c r="AO26" s="46"/>
       <c r="AP26" s="60"/>
       <c r="AQ26" s="49"/>
-      <c r="AR26" s="207" t="s">
+      <c r="AR26" s="148" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="148"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="207"/>
       <c r="D27" s="27"/>
       <c r="E27" s="64"/>
       <c r="F27" s="20"/>
@@ -3407,16 +3422,16 @@
       <c r="AO27" s="64"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="26"/>
-      <c r="AR27" s="205"/>
+      <c r="AR27" s="146"/>
     </row>
     <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="145">
+      <c r="B28" s="144">
         <v>2</v>
       </c>
-      <c r="C28" s="147">
+      <c r="C28" s="206">
         <v>2</v>
       </c>
       <c r="D28" s="59"/>
@@ -3463,12 +3478,12 @@
       <c r="AO28" s="20"/>
       <c r="AP28" s="60"/>
       <c r="AQ28" s="49"/>
-      <c r="AR28" s="205"/>
+      <c r="AR28" s="146"/>
     </row>
     <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="148"/>
+      <c r="A29" s="162"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="207"/>
       <c r="D29" s="59"/>
       <c r="E29" s="47"/>
       <c r="F29" s="46"/>
@@ -3513,16 +3528,16 @@
       <c r="AO29" s="20"/>
       <c r="AP29" s="60"/>
       <c r="AQ29" s="49"/>
-      <c r="AR29" s="205"/>
+      <c r="AR29" s="146"/>
     </row>
     <row r="30" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="208" t="s">
+      <c r="A30" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="145">
+      <c r="B30" s="144">
         <v>2.5</v>
       </c>
-      <c r="C30" s="147">
+      <c r="C30" s="206">
         <v>2</v>
       </c>
       <c r="D30" s="59"/>
@@ -3569,12 +3584,12 @@
       <c r="AO30" s="20"/>
       <c r="AP30" s="60"/>
       <c r="AQ30" s="49"/>
-      <c r="AR30" s="205"/>
+      <c r="AR30" s="146"/>
     </row>
     <row r="31" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="209"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="148"/>
+      <c r="A31" s="150"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="59"/>
       <c r="E31" s="47"/>
       <c r="F31" s="46"/>
@@ -3619,16 +3634,16 @@
       <c r="AO31" s="20"/>
       <c r="AP31" s="60"/>
       <c r="AQ31" s="49"/>
-      <c r="AR31" s="205"/>
+      <c r="AR31" s="146"/>
     </row>
     <row r="32" spans="1:44" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="145">
+      <c r="B32" s="144">
         <v>2</v>
       </c>
-      <c r="C32" s="147">
+      <c r="C32" s="206">
         <v>3</v>
       </c>
       <c r="D32" s="59"/>
@@ -3673,12 +3688,12 @@
       <c r="AO32" s="20"/>
       <c r="AP32" s="60"/>
       <c r="AQ32" s="49"/>
-      <c r="AR32" s="205"/>
+      <c r="AR32" s="146"/>
     </row>
     <row r="33" spans="1:45" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="212"/>
-      <c r="B33" s="213"/>
-      <c r="C33" s="214"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="213"/>
       <c r="D33" s="81"/>
       <c r="E33" s="87"/>
       <c r="F33" s="88"/>
@@ -3723,16 +3738,18 @@
       <c r="AO33" s="88"/>
       <c r="AP33" s="90"/>
       <c r="AQ33" s="89"/>
-      <c r="AR33" s="206"/>
+      <c r="AR33" s="147"/>
     </row>
     <row r="34" spans="1:45" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="146">
+      <c r="B34" s="145">
         <v>0.5</v>
       </c>
-      <c r="C34" s="148"/>
+      <c r="C34" s="207">
+        <v>0.5</v>
+      </c>
       <c r="D34" s="59"/>
       <c r="E34" s="47"/>
       <c r="F34" s="46"/>
@@ -3775,15 +3792,15 @@
       <c r="AO34" s="46"/>
       <c r="AP34" s="60"/>
       <c r="AQ34" s="49"/>
-      <c r="AR34" s="205" t="s">
+      <c r="AR34" s="146" t="s">
         <v>26</v>
       </c>
       <c r="AS34" s="65"/>
     </row>
     <row r="35" spans="1:45" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="161"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="163"/>
+      <c r="A35" s="195"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="214"/>
       <c r="D35" s="36"/>
       <c r="E35" s="54"/>
       <c r="F35" s="39"/>
@@ -3826,17 +3843,17 @@
       <c r="AO35" s="39"/>
       <c r="AP35" s="48"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="206"/>
+      <c r="AR35" s="147"/>
       <c r="AS35" s="65"/>
     </row>
     <row r="36" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="210" t="s">
+      <c r="A36" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="154">
+      <c r="B36" s="158">
         <v>2</v>
       </c>
-      <c r="C36" s="168">
+      <c r="C36" s="215">
         <v>1.5</v>
       </c>
       <c r="D36" s="41"/>
@@ -3883,15 +3900,15 @@
       <c r="AO36" s="43"/>
       <c r="AP36" s="45"/>
       <c r="AQ36" s="44"/>
-      <c r="AR36" s="141" t="s">
+      <c r="AR36" s="151" t="s">
         <v>10</v>
       </c>
       <c r="AS36" s="65"/>
     </row>
     <row r="37" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="211"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="151"/>
+      <c r="A37" s="157"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="205"/>
       <c r="D37" s="27"/>
       <c r="E37" s="64"/>
       <c r="F37" s="20"/>
@@ -3934,16 +3951,16 @@
       <c r="AO37" s="20"/>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="26"/>
-      <c r="AR37" s="142"/>
+      <c r="AR37" s="153"/>
     </row>
     <row r="38" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="157" t="s">
+      <c r="A38" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="158">
+      <c r="B38" s="155">
         <v>3.5</v>
       </c>
-      <c r="C38" s="151">
+      <c r="C38" s="205">
         <v>4</v>
       </c>
       <c r="D38" s="27"/>
@@ -3990,12 +4007,12 @@
       <c r="AO38" s="20"/>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="26"/>
-      <c r="AR38" s="142"/>
+      <c r="AR38" s="153"/>
     </row>
     <row r="39" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="157"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="151"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="205"/>
       <c r="D39" s="27"/>
       <c r="E39" s="64"/>
       <c r="F39" s="20"/>
@@ -4042,16 +4059,16 @@
       <c r="AO39" s="20"/>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="26"/>
-      <c r="AR39" s="142"/>
+      <c r="AR39" s="153"/>
     </row>
     <row r="40" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="158">
+      <c r="B40" s="155">
         <v>2</v>
       </c>
-      <c r="C40" s="151">
+      <c r="C40" s="205">
         <v>2.5</v>
       </c>
       <c r="D40" s="27"/>
@@ -4096,12 +4113,12 @@
       <c r="AO40" s="20"/>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="26"/>
-      <c r="AR40" s="142"/>
+      <c r="AR40" s="153"/>
     </row>
     <row r="41" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="157"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="151"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="205"/>
       <c r="D41" s="27"/>
       <c r="E41" s="64"/>
       <c r="F41" s="20"/>
@@ -4146,16 +4163,16 @@
       <c r="AO41" s="20"/>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="26"/>
-      <c r="AR41" s="142"/>
+      <c r="AR41" s="153"/>
     </row>
     <row r="42" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="158">
+      <c r="B42" s="155">
         <v>2</v>
       </c>
-      <c r="C42" s="151">
+      <c r="C42" s="205">
         <v>2</v>
       </c>
       <c r="D42" s="27"/>
@@ -4202,12 +4219,12 @@
       <c r="AO42" s="20"/>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="26"/>
-      <c r="AR42" s="142"/>
+      <c r="AR42" s="153"/>
     </row>
     <row r="43" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="157"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="151"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="205"/>
       <c r="D43" s="27"/>
       <c r="E43" s="64"/>
       <c r="F43" s="20"/>
@@ -4252,16 +4269,18 @@
       <c r="AO43" s="20"/>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="26"/>
-      <c r="AR43" s="142"/>
+      <c r="AR43" s="153"/>
     </row>
     <row r="44" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="158">
+      <c r="B44" s="155">
         <v>2</v>
       </c>
-      <c r="C44" s="151"/>
+      <c r="C44" s="205">
+        <v>2</v>
+      </c>
       <c r="D44" s="27"/>
       <c r="E44" s="64"/>
       <c r="F44" s="20"/>
@@ -4306,12 +4325,12 @@
       <c r="AO44" s="20"/>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="26"/>
-      <c r="AR44" s="142"/>
+      <c r="AR44" s="153"/>
     </row>
     <row r="45" spans="1:45" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="208"/>
-      <c r="B45" s="158"/>
-      <c r="C45" s="151"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="205"/>
       <c r="D45" s="27"/>
       <c r="E45" s="64"/>
       <c r="F45" s="20"/>
@@ -4356,16 +4375,18 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="75"/>
       <c r="AQ45" s="26"/>
-      <c r="AR45" s="142"/>
+      <c r="AR45" s="153"/>
     </row>
     <row r="46" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="143" t="s">
+      <c r="A46" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="159">
+      <c r="B46" s="164">
         <v>2.5</v>
       </c>
-      <c r="C46" s="151"/>
+      <c r="C46" s="205">
+        <v>2</v>
+      </c>
       <c r="D46" s="27"/>
       <c r="E46" s="64"/>
       <c r="F46" s="20"/>
@@ -4409,12 +4430,12 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="20"/>
       <c r="AQ46" s="26"/>
-      <c r="AR46" s="142"/>
+      <c r="AR46" s="153"/>
     </row>
     <row r="47" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="144"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="151"/>
+      <c r="A47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="205"/>
       <c r="D47" s="27"/>
       <c r="E47" s="64"/>
       <c r="F47" s="20"/>
@@ -4459,16 +4480,18 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="75"/>
       <c r="AQ47" s="26"/>
-      <c r="AR47" s="142"/>
+      <c r="AR47" s="153"/>
     </row>
     <row r="48" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="164" t="s">
+      <c r="A48" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="159">
+      <c r="B48" s="164">
         <v>1</v>
       </c>
-      <c r="C48" s="151"/>
+      <c r="C48" s="205">
+        <v>0.5</v>
+      </c>
       <c r="D48" s="27"/>
       <c r="E48" s="64"/>
       <c r="F48" s="20"/>
@@ -4511,12 +4534,12 @@
       <c r="AO48" s="20"/>
       <c r="AP48" s="105"/>
       <c r="AQ48" s="26"/>
-      <c r="AR48" s="142"/>
+      <c r="AR48" s="153"/>
     </row>
     <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="165"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="151"/>
+      <c r="A49" s="187"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="205"/>
       <c r="D49" s="27"/>
       <c r="E49" s="64"/>
       <c r="F49" s="20"/>
@@ -4559,16 +4582,18 @@
       <c r="AO49" s="20"/>
       <c r="AP49" s="75"/>
       <c r="AQ49" s="26"/>
-      <c r="AR49" s="142"/>
+      <c r="AR49" s="153"/>
     </row>
     <row r="50" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="145">
+      <c r="B50" s="144">
         <v>1</v>
       </c>
-      <c r="C50" s="147"/>
+      <c r="C50" s="206">
+        <v>1.5</v>
+      </c>
       <c r="D50" s="27"/>
       <c r="E50" s="64"/>
       <c r="F50" s="20"/>
@@ -4611,12 +4636,12 @@
       <c r="AO50" s="20"/>
       <c r="AP50" s="75"/>
       <c r="AQ50" s="26"/>
-      <c r="AR50" s="142"/>
+      <c r="AR50" s="153"/>
     </row>
     <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="144"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="148"/>
+      <c r="A51" s="165"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="207"/>
       <c r="D51" s="27"/>
       <c r="E51" s="64"/>
       <c r="F51" s="20"/>
@@ -4661,16 +4686,18 @@
       <c r="AO51" s="20"/>
       <c r="AP51" s="75"/>
       <c r="AQ51" s="26"/>
-      <c r="AR51" s="142"/>
+      <c r="AR51" s="153"/>
     </row>
     <row r="52" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="149" t="s">
+      <c r="A52" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="150">
+      <c r="B52" s="200">
         <v>3</v>
       </c>
-      <c r="C52" s="147"/>
+      <c r="C52" s="206">
+        <v>2.5</v>
+      </c>
       <c r="D52" s="27"/>
       <c r="E52" s="64"/>
       <c r="F52" s="20"/>
@@ -4715,12 +4742,12 @@
       <c r="AO52" s="20"/>
       <c r="AP52" s="75"/>
       <c r="AQ52" s="26"/>
-      <c r="AR52" s="142"/>
+      <c r="AR52" s="153"/>
     </row>
     <row r="53" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="144"/>
-      <c r="B53" s="146"/>
-      <c r="C53" s="148"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="207"/>
       <c r="D53" s="27"/>
       <c r="E53" s="64"/>
       <c r="F53" s="20"/>
@@ -4765,16 +4792,18 @@
       <c r="AO53" s="20"/>
       <c r="AP53" s="75"/>
       <c r="AQ53" s="26"/>
-      <c r="AR53" s="142"/>
+      <c r="AR53" s="153"/>
     </row>
     <row r="54" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="159">
+      <c r="B54" s="164">
         <v>2</v>
       </c>
-      <c r="C54" s="151"/>
+      <c r="C54" s="205">
+        <v>1.5</v>
+      </c>
       <c r="D54" s="27"/>
       <c r="E54" s="64"/>
       <c r="F54" s="20"/>
@@ -4819,12 +4848,12 @@
       <c r="AO54" s="20"/>
       <c r="AP54" s="28"/>
       <c r="AQ54" s="26"/>
-      <c r="AR54" s="142"/>
+      <c r="AR54" s="153"/>
     </row>
     <row r="55" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="209"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="151"/>
+      <c r="A55" s="150"/>
+      <c r="B55" s="155"/>
+      <c r="C55" s="205"/>
       <c r="D55" s="27"/>
       <c r="E55" s="64"/>
       <c r="F55" s="20"/>
@@ -4868,16 +4897,18 @@
       <c r="AO55" s="20"/>
       <c r="AP55" s="28"/>
       <c r="AQ55" s="26"/>
-      <c r="AR55" s="142"/>
+      <c r="AR55" s="153"/>
     </row>
     <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="143" t="s">
+      <c r="A56" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="159">
+      <c r="B56" s="164">
         <v>3</v>
       </c>
-      <c r="C56" s="151"/>
+      <c r="C56" s="205">
+        <v>3</v>
+      </c>
       <c r="D56" s="27"/>
       <c r="E56" s="64"/>
       <c r="F56" s="20"/>
@@ -4922,12 +4953,12 @@
       <c r="AO56" s="20"/>
       <c r="AP56" s="28"/>
       <c r="AQ56" s="26"/>
-      <c r="AR56" s="142"/>
+      <c r="AR56" s="153"/>
     </row>
     <row r="57" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="144"/>
-      <c r="B57" s="159"/>
-      <c r="C57" s="151"/>
+      <c r="A57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="205"/>
       <c r="D57" s="27"/>
       <c r="E57" s="64"/>
       <c r="F57" s="20"/>
@@ -4960,7 +4991,7 @@
       <c r="AG57" s="124">
         <v>1</v>
       </c>
-      <c r="AH57" s="215">
+      <c r="AH57" s="141">
         <v>2</v>
       </c>
       <c r="AI57" s="111"/>
@@ -4972,16 +5003,18 @@
       <c r="AO57" s="20"/>
       <c r="AP57" s="23"/>
       <c r="AQ57" s="22"/>
-      <c r="AR57" s="172"/>
+      <c r="AR57" s="152"/>
     </row>
     <row r="58" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="167" t="s">
+      <c r="A58" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="154">
+      <c r="B58" s="158">
         <v>0.5</v>
       </c>
-      <c r="C58" s="168"/>
+      <c r="C58" s="215">
+        <v>0.5</v>
+      </c>
       <c r="D58" s="41"/>
       <c r="E58" s="80"/>
       <c r="F58" s="43"/>
@@ -5024,14 +5057,14 @@
       <c r="AO58" s="43"/>
       <c r="AP58" s="45"/>
       <c r="AQ58" s="44"/>
-      <c r="AR58" s="141" t="s">
+      <c r="AR58" s="151" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="157"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="151"/>
+      <c r="A59" s="154"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="205"/>
       <c r="D59" s="27"/>
       <c r="E59" s="64"/>
       <c r="F59" s="20"/>
@@ -5064,7 +5097,9 @@
       <c r="AG59" s="20"/>
       <c r="AH59" s="20"/>
       <c r="AI59" s="26"/>
-      <c r="AJ59" s="27"/>
+      <c r="AJ59" s="128">
+        <v>0.5</v>
+      </c>
       <c r="AK59" s="33"/>
       <c r="AL59" s="20"/>
       <c r="AM59" s="26"/>
@@ -5072,16 +5107,18 @@
       <c r="AO59" s="20"/>
       <c r="AP59" s="28"/>
       <c r="AQ59" s="26"/>
-      <c r="AR59" s="142"/>
+      <c r="AR59" s="153"/>
     </row>
     <row r="60" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="157" t="s">
+      <c r="A60" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="158">
+      <c r="B60" s="155">
         <v>3.5</v>
       </c>
-      <c r="C60" s="151"/>
+      <c r="C60" s="205">
+        <v>2.5</v>
+      </c>
       <c r="D60" s="27"/>
       <c r="E60" s="64"/>
       <c r="F60" s="20"/>
@@ -5128,12 +5165,12 @@
       <c r="AO60" s="20"/>
       <c r="AP60" s="28"/>
       <c r="AQ60" s="26"/>
-      <c r="AR60" s="142"/>
+      <c r="AR60" s="153"/>
     </row>
     <row r="61" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="169"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="170"/>
+      <c r="A61" s="198"/>
+      <c r="B61" s="196"/>
+      <c r="C61" s="216"/>
       <c r="D61" s="36"/>
       <c r="E61" s="54"/>
       <c r="F61" s="39"/>
@@ -5167,23 +5204,29 @@
       <c r="AH61" s="39"/>
       <c r="AI61" s="40"/>
       <c r="AJ61" s="36"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="84"/>
+      <c r="AK61" s="140">
+        <v>2</v>
+      </c>
+      <c r="AL61" s="140">
+        <v>0.5</v>
+      </c>
       <c r="AM61" s="40"/>
       <c r="AN61" s="36"/>
       <c r="AO61" s="39"/>
       <c r="AP61" s="48"/>
       <c r="AQ61" s="40"/>
-      <c r="AR61" s="172"/>
+      <c r="AR61" s="152"/>
     </row>
     <row r="62" spans="1:44" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="166" t="s">
+      <c r="A62" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="154">
+      <c r="B62" s="158">
         <v>2</v>
       </c>
-      <c r="C62" s="155"/>
+      <c r="C62" s="209">
+        <v>1.5</v>
+      </c>
       <c r="D62" s="59"/>
       <c r="E62" s="47"/>
       <c r="F62" s="46"/>
@@ -5226,14 +5269,14 @@
       <c r="AO62" s="98"/>
       <c r="AP62" s="60"/>
       <c r="AQ62" s="49"/>
-      <c r="AR62" s="141" t="s">
+      <c r="AR62" s="151" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="161"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="163"/>
+      <c r="A63" s="195"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="214"/>
       <c r="D63" s="36"/>
       <c r="E63" s="54"/>
       <c r="F63" s="39"/>
@@ -5269,12 +5312,16 @@
       <c r="AJ63" s="36"/>
       <c r="AK63" s="39"/>
       <c r="AL63" s="39"/>
-      <c r="AM63" s="40"/>
-      <c r="AN63" s="36"/>
+      <c r="AM63" s="202">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="203">
+        <v>0.5</v>
+      </c>
       <c r="AO63" s="39"/>
       <c r="AP63" s="48"/>
       <c r="AQ63" s="40"/>
-      <c r="AR63" s="172"/>
+      <c r="AR63" s="152"/>
     </row>
     <row r="64" spans="1:44" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="61" t="s">
@@ -5286,7 +5333,7 @@
       </c>
       <c r="C64" s="62">
         <f>SUM(C4:C63)</f>
-        <v>36.5</v>
+        <v>76</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -5332,6 +5379,103 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="AR16:AR25"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="AR4:AR15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AT8:AU8"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -5356,103 +5500,6 @@
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="AR4:AR15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="AR16:AR25"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5461,23 +5508,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005568FE7337F58E4A874BCAA8F781D766" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7c72f08c743f3e1d890da655f588b9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e5e9ffa-1d28-4d43-989d-34211c67c0f1" xmlns:ns4="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c7c8491fffaeb43ce16da0fe91667a77" ns3:_="" ns4:_="">
     <xsd:import namespace="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
@@ -5700,32 +5730,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3228d0f3-7025-4b1a-b5a4-3be52601cb4b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C66DC004-E347-46EB-9C38-9AF8EC95E3A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5742,4 +5764,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98DC50F8-083A-4496-8757-E40363AC6AB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ABE262-9887-476A-BE7F-099CAC855253}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3228d0f3-7025-4b1a-b5a4-3be52601cb4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9e5e9ffa-1d28-4d43-989d-34211c67c0f1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>